--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1C25D6-E8B0-224B-B62A-E3593EF3BFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C7DDF8-9CE1-CA4E-86EE-42F144FA6430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="11720" yWindow="460" windowWidth="13880" windowHeight="8860" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="802">
   <si>
     <t>No.</t>
   </si>
@@ -1878,6 +1878,567 @@
   </si>
   <si>
     <t>足がつっちゃった.</t>
+  </si>
+  <si>
+    <t>The deadline is still two weeks away.</t>
+  </si>
+  <si>
+    <t>締め切りまでまだ2週間ある.</t>
+  </si>
+  <si>
+    <t>My birthday is ten days away.</t>
+  </si>
+  <si>
+    <t>あと10日で誕生日だ.</t>
+  </si>
+  <si>
+    <t>and so on and so forth</t>
+  </si>
+  <si>
+    <t>〜とかその他色々</t>
+  </si>
+  <si>
+    <t>We're still in the game.</t>
+  </si>
+  <si>
+    <t>まだ勝負は終わっていない</t>
+  </si>
+  <si>
+    <t>It's just a half-hour drive from here.</t>
+  </si>
+  <si>
+    <t>ここから車で立った30分の距離です.</t>
+  </si>
+  <si>
+    <t>He drives me nuts sometimes.</t>
+  </si>
+  <si>
+    <t>彼には時々イライラさせられる.</t>
+  </si>
+  <si>
+    <t>He's a touch nut to crack.</t>
+  </si>
+  <si>
+    <t>彼は手強い.</t>
+  </si>
+  <si>
+    <t>I think it's a rerun.</t>
+  </si>
+  <si>
+    <t>それは再放送だと思うよ.</t>
+  </si>
+  <si>
+    <t>I can only imagine.</t>
+  </si>
+  <si>
+    <t>想像することしかできないよ.</t>
+  </si>
+  <si>
+    <t>I can imagine.</t>
+  </si>
+  <si>
+    <t>わかるよ. / そうだろうね.</t>
+  </si>
+  <si>
+    <t>It made my skin crawl.</t>
+  </si>
+  <si>
+    <t>ゾッとした.</t>
+  </si>
+  <si>
+    <t>They were talking non-stop.</t>
+  </si>
+  <si>
+    <t>息つく間もなく喋り続けていた.</t>
+  </si>
+  <si>
+    <t>It's nowhere near done.</t>
+  </si>
+  <si>
+    <t>全然終わっていない.</t>
+  </si>
+  <si>
+    <t>I'll make this project a priority.</t>
+  </si>
+  <si>
+    <t>このプロジェクトを優先します.</t>
+  </si>
+  <si>
+    <t>It was a bizarre behavior.</t>
+  </si>
+  <si>
+    <t>あれは突飛な行動だった.</t>
+  </si>
+  <si>
+    <t>Don't baby him.</t>
+  </si>
+  <si>
+    <t>彼を甘やかしちゃダメ.</t>
+  </si>
+  <si>
+    <t>Act your age.</t>
+  </si>
+  <si>
+    <t>年相応に振る舞いなさい.</t>
+  </si>
+  <si>
+    <t>Do you want to use mine?</t>
+  </si>
+  <si>
+    <t>僕のを貸そうか？</t>
+  </si>
+  <si>
+    <t>She was nicer than I thought.</t>
+  </si>
+  <si>
+    <t>彼女は思ったよりいい人だった.</t>
+  </si>
+  <si>
+    <t>For the record,</t>
+  </si>
+  <si>
+    <t>言っておくけど / はっきりさせるために</t>
+  </si>
+  <si>
+    <t>I don't want to hold you up any longer.</t>
+  </si>
+  <si>
+    <t>これ以上引き止めるのは申し訳ない.</t>
+  </si>
+  <si>
+    <t>I'm not getting anywhere.</t>
+  </si>
+  <si>
+    <t>なかなか進歩がない.</t>
+  </si>
+  <si>
+    <t>Anyone up for a beer?</t>
+  </si>
+  <si>
+    <t>ビール飲みたい人いる？</t>
+  </si>
+  <si>
+    <t>Still working at this hour?</t>
+  </si>
+  <si>
+    <t>こんな時間にまだ仕事？</t>
+  </si>
+  <si>
+    <t>I've got no signal here.</t>
+  </si>
+  <si>
+    <t>ここは圏外だ.</t>
+  </si>
+  <si>
+    <t>Could you gift-wrap this, please?</t>
+  </si>
+  <si>
+    <t>これをギフト用に包んでいただけますか？</t>
+  </si>
+  <si>
+    <t>Could you wrap this as a gift, please?</t>
+  </si>
+  <si>
+    <t>drift apart</t>
+  </si>
+  <si>
+    <t>疎遠になる.</t>
+  </si>
+  <si>
+    <t>〜だとはっきりとわかった</t>
+  </si>
+  <si>
+    <t>It became crystal clear to me that 〜.</t>
+  </si>
+  <si>
+    <t>Let's try and see what happens.</t>
+  </si>
+  <si>
+    <t>どうなるか、やってみよう.</t>
+  </si>
+  <si>
+    <t>Let's wait and see.</t>
+  </si>
+  <si>
+    <t>様子を見よう.</t>
+  </si>
+  <si>
+    <t>It's up and runnning.</t>
+  </si>
+  <si>
+    <t>正常に稼働している. / 元気に動き回っている</t>
+  </si>
+  <si>
+    <t>I have a brother your age.</t>
+  </si>
+  <si>
+    <t>あなたと同い年の兄がいます.</t>
+  </si>
+  <si>
+    <t>She is about your age.</t>
+  </si>
+  <si>
+    <t>年は君と同じくらいだ.</t>
+  </si>
+  <si>
+    <t>Because I said so.</t>
+  </si>
+  <si>
+    <t>ダメなものはダメだ. / 言った通りにしなさい.</t>
+  </si>
+  <si>
+    <t>RSVP</t>
+  </si>
+  <si>
+    <t>お返事願います.</t>
+  </si>
+  <si>
+    <t>I feel bad about lying.</t>
+  </si>
+  <si>
+    <t>嘘をついて申し訳なく思っている.</t>
+  </si>
+  <si>
+    <t>She always photoshops her pictures.</t>
+  </si>
+  <si>
+    <t>彼女はいつも自分の写真を加工している.</t>
+  </si>
+  <si>
+    <t>I maxed out my credit card.</t>
+  </si>
+  <si>
+    <t>クレジットの限度額いっぱいまで使ってしまった.</t>
+  </si>
+  <si>
+    <t>I'm coffeed out today.</t>
+  </si>
+  <si>
+    <t>今日はコーヒーを飲みすぎた.</t>
+  </si>
+  <si>
+    <t>He's making over six figures.</t>
+  </si>
+  <si>
+    <t>あいつは10万ドル以上稼いでいる.</t>
+  </si>
+  <si>
+    <t>That's your best bet.</t>
+  </si>
+  <si>
+    <t>それが1番確実な方法だ. / それが最善策.</t>
+  </si>
+  <si>
+    <t>I have nothing to lose.</t>
+  </si>
+  <si>
+    <t>失うものは何もない. / ダメもとだ.</t>
+  </si>
+  <si>
+    <t>I can barely hear you.</t>
+  </si>
+  <si>
+    <t>ほとんど聞こえない.</t>
+  </si>
+  <si>
+    <t>I owe you an apology.</t>
+  </si>
+  <si>
+    <t>君に謝らなくちゃならない.</t>
+  </si>
+  <si>
+    <t>I shold be able to come home at a decent time tonight.</t>
+  </si>
+  <si>
+    <t>今日はまともな時間に帰れそうだよ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not a crier. </t>
+  </si>
+  <si>
+    <t>私は人前で泣くようなタイプではない.</t>
+  </si>
+  <si>
+    <t>Come hungry.</t>
+  </si>
+  <si>
+    <t>お腹を空かしてきてください.</t>
+  </si>
+  <si>
+    <t>We arrived all in one piece.</t>
+  </si>
+  <si>
+    <t>無事に到着しました.</t>
+  </si>
+  <si>
+    <t>We all pitched in.</t>
+  </si>
+  <si>
+    <t>みんなでお金を出し合いました.</t>
+  </si>
+  <si>
+    <t>My head is pounding.</t>
+  </si>
+  <si>
+    <t>頭がズキズキする. / 割れるようにいたい.</t>
+  </si>
+  <si>
+    <t>I'm not wearing any makeup.</t>
+  </si>
+  <si>
+    <t>私はスッピンです.</t>
+  </si>
+  <si>
+    <t>Would you mind sharing a table?</t>
+  </si>
+  <si>
+    <t>相席でもよろしいですか？</t>
+  </si>
+  <si>
+    <t>My mom hates flying?</t>
+  </si>
+  <si>
+    <t>母は飛行機が苦手です.</t>
+  </si>
+  <si>
+    <t>I'm driving today.</t>
+  </si>
+  <si>
+    <t>今日は車なんだ.</t>
+  </si>
+  <si>
+    <t>Let's take a road trip.</t>
+  </si>
+  <si>
+    <t>車で旅行に行こうよ.</t>
+  </si>
+  <si>
+    <t>We took turns driving.</t>
+  </si>
+  <si>
+    <t>交代で運転した.</t>
+  </si>
+  <si>
+    <t>He face-planted.</t>
+  </si>
+  <si>
+    <t>顔面から地面に倒れた / うつ伏せに倒れた.</t>
+  </si>
+  <si>
+    <t>She has a distinctive voice.</t>
+  </si>
+  <si>
+    <t>彼女は独特の声をしている.</t>
+  </si>
+  <si>
+    <t>I'm tearing up.</t>
+  </si>
+  <si>
+    <t>泣きそうだ</t>
+  </si>
+  <si>
+    <t>I'm leaning towards not going.</t>
+  </si>
+  <si>
+    <t>行かない方に気持ちが傾いている.</t>
+  </si>
+  <si>
+    <t>I'll have what you're having.</t>
+  </si>
+  <si>
+    <t>君と同じのにするよ.</t>
+  </si>
+  <si>
+    <t>Give it time.</t>
+  </si>
+  <si>
+    <t>焦らずゆっくり時間をかけなさい.</t>
+  </si>
+  <si>
+    <t>It's just the alcohol talikng.</t>
+  </si>
+  <si>
+    <t>酔った勢いで言っているだけ.</t>
+  </si>
+  <si>
+    <t>I missed my stop.</t>
+  </si>
+  <si>
+    <t>乗り過ごしてしまった.</t>
+  </si>
+  <si>
+    <t>I'm out of breath.</t>
+  </si>
+  <si>
+    <t>息を切らしている.</t>
+  </si>
+  <si>
+    <t>How througntful of you.</t>
+  </si>
+  <si>
+    <t>なんて気がきくのかしら. / 思いやりがあるの.</t>
+  </si>
+  <si>
+    <t>I'm out of the loop.</t>
+  </si>
+  <si>
+    <t>その情報について疎い. / 自分は蚊帳の外だ.</t>
+  </si>
+  <si>
+    <t>The five hours will fly by.</t>
+  </si>
+  <si>
+    <t>5時間なんてあっという間だよ.</t>
+  </si>
+  <si>
+    <t>January came and went.</t>
+  </si>
+  <si>
+    <t>1月はあっという間に過ぎていった.</t>
+  </si>
+  <si>
+    <t>悪口を言う.</t>
+  </si>
+  <si>
+    <t>bad-mouth</t>
+  </si>
+  <si>
+    <t>Don't be so dramatic.</t>
+  </si>
+  <si>
+    <t>そんな大袈裟にしなくても.</t>
+  </si>
+  <si>
+    <t>I don't want to take sides.</t>
+  </si>
+  <si>
+    <t>どちらの側にもつきたくない. / 肩も持ちたくない.</t>
+  </si>
+  <si>
+    <t>Whose side are you on ?</t>
+  </si>
+  <si>
+    <t>誰の味方なの？</t>
+  </si>
+  <si>
+    <t>He's insecure about his ability as a leader.</t>
+  </si>
+  <si>
+    <t>彼はリーダーとしての能力に自信がない</t>
+  </si>
+  <si>
+    <t>Loose lips sink ships.</t>
+  </si>
+  <si>
+    <t>口は災いのもと.</t>
+  </si>
+  <si>
+    <t>neck and neck</t>
+  </si>
+  <si>
+    <t>互角の勝負</t>
+  </si>
+  <si>
+    <t>I'm beggin you.</t>
+  </si>
+  <si>
+    <t>お願いだから. /  頼むよ</t>
+  </si>
+  <si>
+    <t>I was scared to death.</t>
+  </si>
+  <si>
+    <t>死ぬほど怖かった.</t>
+  </si>
+  <si>
+    <t>It has your name on it.</t>
+  </si>
+  <si>
+    <t>あなたにぴったりです.</t>
+  </si>
+  <si>
+    <t>It's a huge milestone.</t>
+  </si>
+  <si>
+    <t>それは大きな節目だ.</t>
+  </si>
+  <si>
+    <t>It was a tough call.</t>
+  </si>
+  <si>
+    <t>それは難しい決断だった.</t>
+  </si>
+  <si>
+    <t>It was a wake-up call.</t>
+  </si>
+  <si>
+    <t>Anything you say.</t>
+  </si>
+  <si>
+    <t>あなたの言うことならなんだってok. / 言う通りにするよ.</t>
+  </si>
+  <si>
+    <t>Look at these icicles!</t>
+  </si>
+  <si>
+    <t>見て！つらら！</t>
+  </si>
+  <si>
+    <t>zero tolerance</t>
+  </si>
+  <si>
+    <t>いかなる違反も許さない.</t>
+  </si>
+  <si>
+    <t>We finished it with flying colors.</t>
+  </si>
+  <si>
+    <t>私たちはそれを見事に成功させた.</t>
+  </si>
+  <si>
+    <t>Let's take it all in.</t>
+  </si>
+  <si>
+    <t>じっくりこの目に焼き付けよう.</t>
+  </si>
+  <si>
+    <t>We should start calling each other by out first names.</t>
+  </si>
+  <si>
+    <t>お互い下の名前で呼び合いましょう.</t>
+  </si>
+  <si>
+    <t>I've noticed the subtle change in her.</t>
+  </si>
+  <si>
+    <t>彼女のわずかな変化に気づいていた.</t>
+  </si>
+  <si>
+    <t>I didn't want to cause you troble.</t>
+  </si>
+  <si>
+    <t>あなたに迷惑をかけたくなかった.</t>
+  </si>
+  <si>
+    <t>Let's play it safe.</t>
+  </si>
+  <si>
+    <t>安全策を取ろう.</t>
+  </si>
+  <si>
+    <t>There has been a rumor that 〜</t>
+  </si>
+  <si>
+    <t>〜と言う噂が流れている.</t>
+  </si>
+  <si>
+    <t>a backhanded apology</t>
+  </si>
+  <si>
+    <t>誠意のない謝罪</t>
+  </si>
+  <si>
+    <t>目が覚めた. / 気づかされた</t>
   </si>
 </sst>
 </file>
@@ -2283,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5739,543 +6300,1107 @@
       <c r="A308" s="2">
         <v>307</v>
       </c>
+      <c r="B308" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
+      <c r="B309" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
+      <c r="B310" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C310" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
+      <c r="B311" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C311" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
+      <c r="B312" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C312" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
+      <c r="B313" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C313" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
+      <c r="B314" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C314" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
+      <c r="B315" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C315" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
+      <c r="B316" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C316" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
+      <c r="B317" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C317" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
+      <c r="B318" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C318" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
+      <c r="B319" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C319" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C320" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C321" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C322" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C323" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C324" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C325" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C326" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C327" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C328" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C329" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C330" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C331" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C332" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B333" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C333" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B334" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C334" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B335" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C335" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B336" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C336" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B337" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C337" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B338" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C338" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B339" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C339" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B340" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C340" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B341" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C341" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B342" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B343" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C343" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B344" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C344" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B345" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C345" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B346" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C346" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B347" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C347" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B348" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B349" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C349" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B350" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C350" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B351" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C351" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B352" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B353" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C353" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B354" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C354" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B355" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C355" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B356" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B357" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B358" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C358" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B359" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C359" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B360" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C360" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B361" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C361" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B362" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C362" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B363" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C363" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B364" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C364" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B365" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C365" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B366" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C366" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B367" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C367" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B368" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B369" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C369" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B370" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C370" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B371" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C371" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B372" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C372" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B373" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C373" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B374" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C374" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B375" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C375" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B376" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C376" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B377" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C377" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B378" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C378" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B379" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C379" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B380" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C380" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B381" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C381" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B382" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C382" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B383" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C383" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C384" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C385" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C386" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C387" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C388" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B389" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C389" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B390" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C390" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B391" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C391" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B392" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C392" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B393" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C393" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B394" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C394" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B395" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C395" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B396" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C396" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B397" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C397" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B398" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C398" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B399" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C399" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B400" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C400" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B401" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="C401" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>415</v>
       </c>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C7DDF8-9CE1-CA4E-86EE-42F144FA6430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FAAAD0-A64F-4F40-8E2C-834BF1595116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="460" windowWidth="13880" windowHeight="8860" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="11720" yWindow="460" windowWidth="13880" windowHeight="8380" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="886">
   <si>
     <t>No.</t>
   </si>
@@ -2439,6 +2439,258 @@
   </si>
   <si>
     <t>目が覚めた. / 気づかされた</t>
+  </si>
+  <si>
+    <t>I feel your pain.</t>
+  </si>
+  <si>
+    <t>君の痛みがわかる</t>
+  </si>
+  <si>
+    <t>happy-go-lucky personality</t>
+  </si>
+  <si>
+    <t>楽天的な性格</t>
+  </si>
+  <si>
+    <t>a fly on the wall</t>
+  </si>
+  <si>
+    <t>周りに気づかれないように観察する人</t>
+  </si>
+  <si>
+    <t>She's making a comeback</t>
+  </si>
+  <si>
+    <t>彼女は再ブレイク中だ.</t>
+  </si>
+  <si>
+    <t>I don't have a clue.</t>
+  </si>
+  <si>
+    <t>見当もつかない. / 全くわからない.</t>
+  </si>
+  <si>
+    <t>He's clueless.</t>
+  </si>
+  <si>
+    <t>彼は何もわかっちゃいない. / 彼は何も知らない.</t>
+  </si>
+  <si>
+    <t>It could have been worse.</t>
+  </si>
+  <si>
+    <t>もっと悪い結果にだってなりかねなかった.</t>
+  </si>
+  <si>
+    <t>It'll call back around that time.</t>
+  </si>
+  <si>
+    <t>その頃もう一度かけなおします.</t>
+  </si>
+  <si>
+    <t>That's so true.</t>
+  </si>
+  <si>
+    <t>本当にそうですよね.</t>
+  </si>
+  <si>
+    <t>Can you space chairs evenly throughout the room?</t>
+  </si>
+  <si>
+    <t>均等な間隔で部屋に椅子を並べてください.</t>
+  </si>
+  <si>
+    <t>walk a tightrope</t>
+  </si>
+  <si>
+    <t>危ない橋を渡る.</t>
+  </si>
+  <si>
+    <t>There's no place like home.</t>
+  </si>
+  <si>
+    <t>我が家が1番</t>
+  </si>
+  <si>
+    <t>I'm dealing with my own feelings.</t>
+  </si>
+  <si>
+    <t>自分自身の気持ちと向き合っている.</t>
+  </si>
+  <si>
+    <t>You got caught red-handed.</t>
+  </si>
+  <si>
+    <t>現場を押さえた.</t>
+  </si>
+  <si>
+    <t>People come and go.</t>
+  </si>
+  <si>
+    <t>出会いがあれば別れもある.</t>
+  </si>
+  <si>
+    <t>I was on the edge of my seat.</t>
+  </si>
+  <si>
+    <t>ハラハラしながら見ていた.</t>
+  </si>
+  <si>
+    <t>Your life will never be the same.</t>
+  </si>
+  <si>
+    <t>あなたの人生が大きく変わる.</t>
+  </si>
+  <si>
+    <t>It will all blow over by tomorrow.</t>
+  </si>
+  <si>
+    <t>明日は全て丸く収まっているでしょう.</t>
+  </si>
+  <si>
+    <t>It's called figure of speech.</t>
+  </si>
+  <si>
+    <t>それは言葉のあやってやつでしょう.</t>
+  </si>
+  <si>
+    <t>you have every right to be upset.</t>
+  </si>
+  <si>
+    <t>あなたが怒るのも当然.</t>
+  </si>
+  <si>
+    <t>I have a mind of my own.</t>
+  </si>
+  <si>
+    <t>私には私なりの考えがある.</t>
+  </si>
+  <si>
+    <t>Now is not a good time.</t>
+  </si>
+  <si>
+    <t>今はタイミングが悪い.</t>
+  </si>
+  <si>
+    <t>He made an inappropriate comment to our client.</t>
+  </si>
+  <si>
+    <t>彼はクライアントに対して不適切な発言をした.</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time out of your busy schedule.</t>
+  </si>
+  <si>
+    <t>忙しい中、時間を作ってくれてありがとう.</t>
+  </si>
+  <si>
+    <t>I want to move forward.</t>
+  </si>
+  <si>
+    <t>前向きに進みたい.</t>
+  </si>
+  <si>
+    <t>out of the blue</t>
+  </si>
+  <si>
+    <t>突然 / 前触れなく</t>
+  </si>
+  <si>
+    <t>go straight home</t>
+  </si>
+  <si>
+    <t>寄り道せず家に帰る.</t>
+  </si>
+  <si>
+    <t>and whatnot</t>
+  </si>
+  <si>
+    <t>〜やら〜やら諸々 / その他色々</t>
+  </si>
+  <si>
+    <t>I wish you would stay in your lane.</t>
+  </si>
+  <si>
+    <t>干渉しないで欲しい.</t>
+  </si>
+  <si>
+    <t>I know you're coming from a good place, but</t>
+  </si>
+  <si>
+    <t>良かれと思ってやっているのはわかるけど</t>
+  </si>
+  <si>
+    <t>I spent all night binge-watching the show the other day.</t>
+  </si>
+  <si>
+    <t>昨晩そのドラマを一気見した.</t>
+  </si>
+  <si>
+    <t>we need to nip this kind of behavior in the bud.</t>
+  </si>
+  <si>
+    <t>このような悪い行いは未然に断ち切るべきです.</t>
+  </si>
+  <si>
+    <t>The company recognizes your effort.</t>
+  </si>
+  <si>
+    <t>会社はあなたの努力を認めている.</t>
+  </si>
+  <si>
+    <t>I recognized her voice.</t>
+  </si>
+  <si>
+    <t>声で彼女だとわかった.</t>
+  </si>
+  <si>
+    <t>I'm not throwing in the towel yet.</t>
+  </si>
+  <si>
+    <t>まだ諦めていない.</t>
+  </si>
+  <si>
+    <t>That doesn't sound like her at all.</t>
+  </si>
+  <si>
+    <t>彼女らしくない.</t>
+  </si>
+  <si>
+    <t>That was when I saw red.</t>
+  </si>
+  <si>
+    <t>それでついカットなってしまった.</t>
+  </si>
+  <si>
+    <t>It's the best feeling in the world.</t>
+  </si>
+  <si>
+    <t>最高の気分だ./これ以上の喜びはない.</t>
+  </si>
+  <si>
+    <t>I should cut back on my work hours next year.</t>
+  </si>
+  <si>
+    <t>来年は仕事時間を減らさなくちゃ.</t>
+  </si>
+  <si>
+    <t>I bet they're worth a pretty penny now.</t>
+  </si>
+  <si>
+    <t>それは今かなりの価値があるでしょう.</t>
+  </si>
+  <si>
+    <t>He never picks up on the phone.</t>
+  </si>
+  <si>
+    <t>彼はいつ電話しても出ない.</t>
+  </si>
+  <si>
+    <t>You can keep the change.</t>
+  </si>
+  <si>
+    <t>お釣りは結構です.</t>
   </si>
 </sst>
 </file>
@@ -2844,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
   <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7334,233 +7586,485 @@
       <c r="A402" s="2">
         <v>401</v>
       </c>
+      <c r="B402" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C402" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>402</v>
       </c>
+      <c r="B403" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C403" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>403</v>
       </c>
+      <c r="B404" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C404" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>404</v>
       </c>
+      <c r="B405" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C405" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>405</v>
       </c>
+      <c r="B406" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="C406" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>406</v>
       </c>
+      <c r="B407" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C407" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>407</v>
       </c>
+      <c r="B408" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C408" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>408</v>
       </c>
+      <c r="B409" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C409" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>409</v>
       </c>
+      <c r="B410" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C410" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>410</v>
       </c>
+      <c r="B411" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C411" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>411</v>
       </c>
+      <c r="B412" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="C412" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>412</v>
       </c>
+      <c r="B413" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C413" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>413</v>
       </c>
+      <c r="B414" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C414" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>414</v>
       </c>
+      <c r="B415" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C415" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C416" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C417" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C418" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C419" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="C420" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C421" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="C422" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C423" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="C424" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C425" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C426" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C427" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C428" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C429" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C430" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C431" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="C432" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C433" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C434" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C435" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C436" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="C437" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C438" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C439" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B440" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C440" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B441" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C441" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B442" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C442" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B443" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="C443" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>447</v>
       </c>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FAAAD0-A64F-4F40-8E2C-834BF1595116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02AF9AF-9A24-244F-9C97-9EA0678FD785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="460" windowWidth="13880" windowHeight="8380" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="8200" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1004">
   <si>
     <t>No.</t>
   </si>
@@ -2691,13 +2691,367 @@
   </si>
   <si>
     <t>お釣りは結構です.</t>
+  </si>
+  <si>
+    <t>You're a natural-born singer.</t>
+  </si>
+  <si>
+    <t>君は天性の才能を持ったシンガーだ.</t>
+  </si>
+  <si>
+    <t>Let's cut loose tonight.</t>
+  </si>
+  <si>
+    <t>今夜は羽目を外して楽しもう.</t>
+  </si>
+  <si>
+    <t>He seems a little off today.</t>
+  </si>
+  <si>
+    <t>今日の彼はいつもとちょっと様子が違う.</t>
+  </si>
+  <si>
+    <t>I'm getting over a cold.</t>
+  </si>
+  <si>
+    <t>風邪の治りかけです.</t>
+  </si>
+  <si>
+    <t>Let's order a few dishes and share.</t>
+  </si>
+  <si>
+    <t>何品かの頼んでシェアしよう.</t>
+  </si>
+  <si>
+    <t>I've got to take this.</t>
+  </si>
+  <si>
+    <t>この電話は出なきゃまずい.</t>
+  </si>
+  <si>
+    <t>I feel disconnected.</t>
+  </si>
+  <si>
+    <t>気持ちが離れていると感じる.</t>
+  </si>
+  <si>
+    <t>It's budget-friendly, too.</t>
+  </si>
+  <si>
+    <t>それはお財布にも優しい.</t>
+  </si>
+  <si>
+    <t>We're having company tonight.</t>
+  </si>
+  <si>
+    <t>今夜はお客さんが来ることになっているんだ.</t>
+  </si>
+  <si>
+    <t>I lost out on a business opportunity.</t>
+  </si>
+  <si>
+    <t>ビジネスチャンスを逃してしまった.</t>
+  </si>
+  <si>
+    <t>This is the Japanese version.</t>
+  </si>
+  <si>
+    <t>これはその日本版です.</t>
+  </si>
+  <si>
+    <t>I got caught speeding.</t>
+  </si>
+  <si>
+    <t>スピード違反で捕まっちゃった.</t>
+  </si>
+  <si>
+    <t>You are so protective of her.</t>
+  </si>
+  <si>
+    <t>君は彼女に対してとても過保護だ.</t>
+  </si>
+  <si>
+    <t>She's a Namie Amuro wannabe.</t>
+  </si>
+  <si>
+    <t>あの子は安室奈美恵気取りだ.</t>
+  </si>
+  <si>
+    <t>He's a Elvis Presley look-alike.</t>
+  </si>
+  <si>
+    <t>彼はエルビス・プレスリーのそっくりさんだ.</t>
+  </si>
+  <si>
+    <t>Basically, yes.</t>
+  </si>
+  <si>
+    <t>基本的にね. / 根本的にね.</t>
+  </si>
+  <si>
+    <t>You were rocking on the court!</t>
+  </si>
+  <si>
+    <t>コートでの姿、すごく決まっていたよ.</t>
+  </si>
+  <si>
+    <t>I'm a sophomore in high school.</t>
+  </si>
+  <si>
+    <t>高校2年生です.</t>
+  </si>
+  <si>
+    <t>I most definitely will.</t>
+  </si>
+  <si>
+    <t>必ずそうする. / 絶対〜するよ.</t>
+  </si>
+  <si>
+    <t>Special how?</t>
+  </si>
+  <si>
+    <t>特別ってどこが？</t>
+  </si>
+  <si>
+    <t>I have a stopover in Vancouver,</t>
+  </si>
+  <si>
+    <t>バンクーバーで乗り継ぎがあります.</t>
+  </si>
+  <si>
+    <t>Sorry for spaming you.</t>
+  </si>
+  <si>
+    <t>何度もメールしてごめん.</t>
+  </si>
+  <si>
+    <t>It's nice and tangy.</t>
+  </si>
+  <si>
+    <t>酸味があって美味しいね.</t>
+  </si>
+  <si>
+    <t>She's not touchy-feely at all.</t>
+  </si>
+  <si>
+    <t>彼女は全然スキンシップをするタイプじゃない.</t>
+  </si>
+  <si>
+    <t>He's a hugger.</t>
+  </si>
+  <si>
+    <t>彼はハグ派です.</t>
+  </si>
+  <si>
+    <t>It's cold enogh to see my breath.</t>
+  </si>
+  <si>
+    <t>息が白く見えるくらい寒いよ.</t>
+  </si>
+  <si>
+    <t>You shouldn't gang up on him like this.</t>
+  </si>
+  <si>
+    <t>こんな風に寄ってたかって彼を攻撃すべきではない.</t>
+  </si>
+  <si>
+    <t>That's insane!</t>
+  </si>
+  <si>
+    <t>そんなのおかしいよ！正気の沙汰じゃない.</t>
+  </si>
+  <si>
+    <t>You're just being paranoid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考え過ぎなだけだよ </t>
+  </si>
+  <si>
+    <t>Let's gear up for the holiday.</t>
+  </si>
+  <si>
+    <t>ホリデーに向けて準備をしよう.</t>
+  </si>
+  <si>
+    <t>Are you bailing out on us?</t>
+  </si>
+  <si>
+    <t>途中で逃げ出すつもり？</t>
+  </si>
+  <si>
+    <t>We just have to chip away at it.</t>
+  </si>
+  <si>
+    <t>それはコツコツと取り組むしかない.</t>
+  </si>
+  <si>
+    <t>You can start without me.</t>
+  </si>
+  <si>
+    <t>先に始めてください.</t>
+  </si>
+  <si>
+    <t>You're such a show-off.</t>
+  </si>
+  <si>
+    <t>本当に見栄っ張りだな.</t>
+  </si>
+  <si>
+    <t>I brought it all on myself.</t>
+  </si>
+  <si>
+    <t>全て自分でまいた種だ</t>
+  </si>
+  <si>
+    <t>My eyes are burning.</t>
+  </si>
+  <si>
+    <t>目がひりひりする.</t>
+  </si>
+  <si>
+    <t>She left the company on good terms.</t>
+  </si>
+  <si>
+    <t>彼女は円満退社したよ.</t>
+  </si>
+  <si>
+    <t>I felt like I slipped back into the 90's.</t>
+  </si>
+  <si>
+    <t>90年代に戻ったみたいに感じた.</t>
+  </si>
+  <si>
+    <t>Everything's going against my way these days.</t>
+  </si>
+  <si>
+    <t>最近何もかも上手く行かない／思い通りにならない</t>
+  </si>
+  <si>
+    <t>Everything's going my way these days.</t>
+  </si>
+  <si>
+    <t>最近何もかも上手く行っている／思い通りだ</t>
+  </si>
+  <si>
+    <t>It's nice to finally meet you in person.</t>
+  </si>
+  <si>
+    <t>やっと実際にお会い出来てうれしいです</t>
+  </si>
+  <si>
+    <t>I was up all night talking.</t>
+  </si>
+  <si>
+    <t>一晩中起きて話し込んでた</t>
+  </si>
+  <si>
+    <t>起きてたよ.</t>
+  </si>
+  <si>
+    <t>I've been up.</t>
+  </si>
+  <si>
+    <t>Your eyes are puffy.</t>
+  </si>
+  <si>
+    <t>目、腫れてるよ.</t>
+  </si>
+  <si>
+    <t>You're more than welcome.</t>
+  </si>
+  <si>
+    <t>大歓迎ですよ.</t>
+  </si>
+  <si>
+    <t>Do you want to put your name on the waitlist?</t>
+  </si>
+  <si>
+    <t>キャンセル待ちのリストにお名前を載せますか？</t>
+  </si>
+  <si>
+    <t>What's the hold-up?</t>
+  </si>
+  <si>
+    <t>何に手間取ってるの？</t>
+  </si>
+  <si>
+    <t>You'll have the last laugh.</t>
+  </si>
+  <si>
+    <t>最後に笑うのは君だ</t>
+  </si>
+  <si>
+    <t>I found a few typos in your article.</t>
+  </si>
+  <si>
+    <t>君の記事に数カ所タイプミスがあった.</t>
+  </si>
+  <si>
+    <t>Not in a million years.</t>
+  </si>
+  <si>
+    <t>絶対あり得ない. そんなこと起こるわけない.</t>
+  </si>
+  <si>
+    <t>気持ちを切り替えろよ.</t>
+  </si>
+  <si>
+    <t>Snap out of it.</t>
+  </si>
+  <si>
+    <t>He always looks out for his little sister.</t>
+  </si>
+  <si>
+    <t>彼はいつだって妹を見守っている.</t>
+  </si>
+  <si>
+    <t>Look out!</t>
+  </si>
+  <si>
+    <t>危ない！</t>
+  </si>
+  <si>
+    <t>Pardon my reach.</t>
+  </si>
+  <si>
+    <t>前を失礼します. 前をすみません.</t>
+  </si>
+  <si>
+    <t>Excuse my language.</t>
+  </si>
+  <si>
+    <t>下品な言葉遣いで申し訳ないですが.</t>
+  </si>
+  <si>
+    <t>It's quite a hike.</t>
+  </si>
+  <si>
+    <t>歩くと結構あるよ.</t>
+  </si>
+  <si>
+    <t>fool around</t>
+  </si>
+  <si>
+    <t>ふざける.</t>
+  </si>
+  <si>
+    <t>Lighten up</t>
+  </si>
+  <si>
+    <t>元気出して.</t>
+  </si>
+  <si>
+    <t>Let's talk things over tonight.</t>
+  </si>
+  <si>
+    <t>今夜じっくり話し合おう.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2714,6 +3068,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
       <name val="MS UI Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2765,7 +3133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2780,6 +3148,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3094,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444"/>
+    <sheetView tabSelected="1" topLeftCell="B490" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C502" sqref="C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8048,70 +8418,514 @@
       <c r="A444" s="2">
         <v>443</v>
       </c>
+      <c r="B444" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="C444" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>444</v>
       </c>
+      <c r="B445" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C445" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>445</v>
       </c>
+      <c r="B446" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C446" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>446</v>
       </c>
+      <c r="B447" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C447" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C448" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C449" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C450" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C451" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C452" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C453" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C454" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C455" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C456" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>456</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C457" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B458" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C458" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B459" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="C459" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B460" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="C460" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B461" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="C461" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B462" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="C462" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B463" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="C463" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B464" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="C464" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B465" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="C465" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="C466" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B467" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C467" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B468" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="C468" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="C469" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B470" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C470" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="C471" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="C472" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B473" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="C473" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="C474" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B475" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="C475" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B476" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="C477" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B478" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="C478" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="C479" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="C480" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="C481" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B490" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02AF9AF-9A24-244F-9C97-9EA0678FD785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7496502-B175-1A4E-B14C-FA1A77BD6362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="8200" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="8360" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1224">
   <si>
     <t>No.</t>
   </si>
@@ -3045,6 +3045,666 @@
   </si>
   <si>
     <t>今夜じっくり話し合おう.</t>
+  </si>
+  <si>
+    <t>bundle up</t>
+  </si>
+  <si>
+    <t>着込む</t>
+  </si>
+  <si>
+    <t>I have a prior engagement.</t>
+  </si>
+  <si>
+    <t>先約があります.</t>
+  </si>
+  <si>
+    <t>It's having a blowout sale.</t>
+  </si>
+  <si>
+    <t>激安セールをやっている.</t>
+  </si>
+  <si>
+    <t>Who's with me?</t>
+  </si>
+  <si>
+    <t>賛成の人は？</t>
+  </si>
+  <si>
+    <t>You can't put a price tag on our safety.</t>
+  </si>
+  <si>
+    <t>私たちの安全に値段はつけられない./安全は大切だ.</t>
+  </si>
+  <si>
+    <t>You'll know for sure by then.</t>
+  </si>
+  <si>
+    <t>それまでにははっきりわかる.</t>
+  </si>
+  <si>
+    <t>It's just another superhero story.</t>
+  </si>
+  <si>
+    <t>ありきたりのヒーローものに過ぎない.</t>
+  </si>
+  <si>
+    <t>Take it or leave it.</t>
+  </si>
+  <si>
+    <t>これ以上の交渉の価値はありません.</t>
+  </si>
+  <si>
+    <t>I'm a nervous wreck.</t>
+  </si>
+  <si>
+    <t>めちゃくちゃ緊張している.</t>
+  </si>
+  <si>
+    <t>If that works better for you</t>
+  </si>
+  <si>
+    <t>もしそっちの都合が良ければ</t>
+  </si>
+  <si>
+    <t>You always put yourself first.</t>
+  </si>
+  <si>
+    <t>君はいつだって自分本位だ.</t>
+  </si>
+  <si>
+    <t>He's such a humble person</t>
+  </si>
+  <si>
+    <t>彼は本当に謙虚な人だ.</t>
+  </si>
+  <si>
+    <t>This is the highlight of my day.</t>
+  </si>
+  <si>
+    <t>これが私の至福の時間です.</t>
+  </si>
+  <si>
+    <t>as much time as possible</t>
+  </si>
+  <si>
+    <t>時間の許す限り/可能な限り多くの時間</t>
+  </si>
+  <si>
+    <t>Where does this book go?</t>
+  </si>
+  <si>
+    <t>この本、どこにしまったらいい？</t>
+  </si>
+  <si>
+    <t>英語学習に多くの時間を費やしました.</t>
+  </si>
+  <si>
+    <t>I invested a lot of time in studying English.</t>
+  </si>
+  <si>
+    <t>No pressure.</t>
+  </si>
+  <si>
+    <t>できれば、でいいよ</t>
+  </si>
+  <si>
+    <t>His face spoke volumes.</t>
+  </si>
+  <si>
+    <t>彼の表情が多くを物語っていた.</t>
+  </si>
+  <si>
+    <t>He has a yellow streak down his back.</t>
+  </si>
+  <si>
+    <t>彼には臆病なところがある.</t>
+  </si>
+  <si>
+    <t>He's a fast killer.</t>
+  </si>
+  <si>
+    <t>あいつは口がうまい.</t>
+  </si>
+  <si>
+    <t>He's been out of touch for a few years.</t>
+  </si>
+  <si>
+    <t>彼とはもう数年音信不通です.</t>
+  </si>
+  <si>
+    <t>It's been a long three months.</t>
+  </si>
+  <si>
+    <t>長い3ヶ月だった.</t>
+  </si>
+  <si>
+    <t>It might sound foreign to you.</t>
+  </si>
+  <si>
+    <t>奇妙に聞こえるかもしれないけど.</t>
+  </si>
+  <si>
+    <t>You pulled two all-nighters in a row.</t>
+  </si>
+  <si>
+    <t>二晩連続で徹夜した.</t>
+  </si>
+  <si>
+    <t>I have to pull an all-nighter.</t>
+  </si>
+  <si>
+    <t>今夜は徹夜だ.</t>
+  </si>
+  <si>
+    <t>Don't thank me yet.</t>
+  </si>
+  <si>
+    <t>お礼を言うのはまだ早い.</t>
+  </si>
+  <si>
+    <t>run out of options</t>
+  </si>
+  <si>
+    <t>もう打つ手がない. / 策が尽きる</t>
+  </si>
+  <si>
+    <t>It's a nail-biter.</t>
+  </si>
+  <si>
+    <t>ハラハラ・ドキドキの展開.</t>
+  </si>
+  <si>
+    <t>It's to die for.</t>
+  </si>
+  <si>
+    <t>最高に素晴らしい. / 死ぬほどすごい</t>
+  </si>
+  <si>
+    <t>It's a sketchy neighborhood.</t>
+  </si>
+  <si>
+    <t>あのあたりは優しい.</t>
+  </si>
+  <si>
+    <t>私の記憶はちょっと曖昧です.</t>
+  </si>
+  <si>
+    <t>My memories are a bit sketchy.</t>
+  </si>
+  <si>
+    <t>Is that project still in limbo?</t>
+  </si>
+  <si>
+    <t>そのプロジェクトは依然として宙に浮いたままなの？</t>
+  </si>
+  <si>
+    <t>out of this world</t>
+  </si>
+  <si>
+    <t>この世のものとは思えない</t>
+  </si>
+  <si>
+    <t>Don't make an assumption</t>
+  </si>
+  <si>
+    <t>決めてかからないで / 憶測を立てないで</t>
+  </si>
+  <si>
+    <t>It was a load off my mind.</t>
+  </si>
+  <si>
+    <t>肩の荷が降りたよ./気が楽になった</t>
+  </si>
+  <si>
+    <t>We had a great turnout.</t>
+  </si>
+  <si>
+    <t>大盛況でした. / たくさんの人が来てくれた.</t>
+  </si>
+  <si>
+    <t>dressed up to the nines</t>
+  </si>
+  <si>
+    <t>おめかしして/ 完璧な装いで</t>
+  </si>
+  <si>
+    <t>rough around the edges</t>
+  </si>
+  <si>
+    <t>荒削りで/ まだ十分に洗練されていない</t>
+  </si>
+  <si>
+    <t>You'll be missed by everyone here.</t>
+  </si>
+  <si>
+    <t>君がいなくなると、みんなが寂しがるよ.</t>
+  </si>
+  <si>
+    <t>Don't give her a hard time.</t>
+  </si>
+  <si>
+    <t>お母さん(彼女)を困らせるな</t>
+  </si>
+  <si>
+    <t>the traffic is thinning out now.</t>
+  </si>
+  <si>
+    <t>やっと交通量がまばらになってきた.</t>
+  </si>
+  <si>
+    <t>We should wait for the heat to die down.</t>
+  </si>
+  <si>
+    <t>ほとぼりが冷めるまで待ったほうがいい.</t>
+  </si>
+  <si>
+    <t>She is near and dear to my heart.</t>
+  </si>
+  <si>
+    <t>彼女は私にとってとても大切な存在だ.</t>
+  </si>
+  <si>
+    <t>I'm happy with his decision.</t>
+  </si>
+  <si>
+    <t>彼がそう決めてくれて嬉しい.</t>
+  </si>
+  <si>
+    <t>Are you expecting someone?</t>
+  </si>
+  <si>
+    <t>誰か来るの？</t>
+  </si>
+  <si>
+    <t>He likes to have a finger in every pie.</t>
+  </si>
+  <si>
+    <t>彼はいろんなことに首を突っ込みたがる.</t>
+  </si>
+  <si>
+    <t>We hugged it out.</t>
+  </si>
+  <si>
+    <t>ハグで仲直りをした</t>
+  </si>
+  <si>
+    <t>In the end, it was the veteran who carried the day.</t>
+  </si>
+  <si>
+    <t>最後に試合を制したのは、ベテラン選手だった.</t>
+  </si>
+  <si>
+    <t>He's a pretty self-sufficient.</t>
+  </si>
+  <si>
+    <t>彼は大抵のことは自分でできる.</t>
+  </si>
+  <si>
+    <t>I'm cosumed with guilt.</t>
+  </si>
+  <si>
+    <t>罪悪感に駆られている.</t>
+  </si>
+  <si>
+    <t>We are still in each other's lives.</t>
+  </si>
+  <si>
+    <t>今でも互いの人生に関わっている.</t>
+  </si>
+  <si>
+    <t>I feel left out.</t>
+  </si>
+  <si>
+    <t>孤立しているように感じる. / 疎外感を味わう.</t>
+  </si>
+  <si>
+    <t>She is business-savvy.</t>
+  </si>
+  <si>
+    <t>彼女はビジネス手腕がある.</t>
+  </si>
+  <si>
+    <t>We ran halfway around the track.</t>
+  </si>
+  <si>
+    <t>トラックを半周した.</t>
+  </si>
+  <si>
+    <t>I hope it won't break the bank.</t>
+  </si>
+  <si>
+    <t>高額にならないといいけど.</t>
+  </si>
+  <si>
+    <t>I'll throw something together.</t>
+  </si>
+  <si>
+    <t>有り合わせのもので何か作るね.</t>
+  </si>
+  <si>
+    <t>It was the best birthday I could have ever asked for.</t>
+  </si>
+  <si>
+    <t>最高の誕生日だった.</t>
+  </si>
+  <si>
+    <t>You'd better come clean.</t>
+  </si>
+  <si>
+    <t>白状したほうがいいぞ.</t>
+  </si>
+  <si>
+    <t>This is a whole new ball game.</t>
+  </si>
+  <si>
+    <t>全く勝手が異なる.</t>
+  </si>
+  <si>
+    <t>Try not to make waves.</t>
+  </si>
+  <si>
+    <t>波風を立てないようにしてね.</t>
+  </si>
+  <si>
+    <t>It's making waves across the country.</t>
+  </si>
+  <si>
+    <t>それは全国で大ヒットしている.</t>
+  </si>
+  <si>
+    <t>I will stuck to my guns.</t>
+  </si>
+  <si>
+    <t>考えを変えるつもりはない.</t>
+  </si>
+  <si>
+    <t>No one wants to pull the trigger.</t>
+  </si>
+  <si>
+    <t>誰も行動を起こしたがらない.</t>
+  </si>
+  <si>
+    <t>The children were as good as gold.</t>
+  </si>
+  <si>
+    <t>子供たちはとても行儀が良かった.</t>
+  </si>
+  <si>
+    <t>We were provileged to work with him.</t>
+  </si>
+  <si>
+    <t>僕らが彼と一緒に仕事をする機会があったのは恵まれていた.</t>
+  </si>
+  <si>
+    <t>She went through my phone.</t>
+  </si>
+  <si>
+    <t>彼女にスマホを盗み見された.</t>
+  </si>
+  <si>
+    <t>before you know it.</t>
+  </si>
+  <si>
+    <t>あっという間に</t>
+  </si>
+  <si>
+    <t>He's reached his breaking point.</t>
+  </si>
+  <si>
+    <t>彼はもう限界だ</t>
+  </si>
+  <si>
+    <t>Speak your mind.</t>
+  </si>
+  <si>
+    <t>本音を話してください.</t>
+  </si>
+  <si>
+    <t>It's in mint condition.</t>
+  </si>
+  <si>
+    <t>新品同様です.</t>
+  </si>
+  <si>
+    <t>Can I trouble you to repeat that, please?</t>
+  </si>
+  <si>
+    <t>申し訳ないですが、もう一度お願いできますか？</t>
+  </si>
+  <si>
+    <t>Just checking in on you.</t>
+  </si>
+  <si>
+    <t>どうしているのかなと思って</t>
+  </si>
+  <si>
+    <t>Don't sweat it.</t>
+  </si>
+  <si>
+    <t>心配するな</t>
+  </si>
+  <si>
+    <t>Are they available in different colors?</t>
+  </si>
+  <si>
+    <t>違う色はありますか？</t>
+  </si>
+  <si>
+    <t>He put his heart and soul into his business.</t>
+  </si>
+  <si>
+    <t>彼は自分のビジネスに全身全霊を捧げて打ち込んだ</t>
+  </si>
+  <si>
+    <t>The jacket is truly versatile.</t>
+  </si>
+  <si>
+    <t>それは実に多目的に使えるジャケットです.</t>
+  </si>
+  <si>
+    <t>He broke in on our conversation.</t>
+  </si>
+  <si>
+    <t>彼が会話に割り込んできた.</t>
+  </si>
+  <si>
+    <t>I'm breaking in a new pair of boots.</t>
+  </si>
+  <si>
+    <t>新しいブーツを履き鳴らしているところだ.</t>
+  </si>
+  <si>
+    <t>It's going to be a struggle.</t>
+  </si>
+  <si>
+    <t>苦戦を強いられそうだ.</t>
+  </si>
+  <si>
+    <t>It's been scientifically proven.</t>
+  </si>
+  <si>
+    <t>それは科学的に証明されている.</t>
+  </si>
+  <si>
+    <t>It's been my dream since I was a little kid.</t>
+  </si>
+  <si>
+    <t>子供の頃からの夢だったんです.</t>
+  </si>
+  <si>
+    <t>It was my assistants who did most of the work.</t>
+  </si>
+  <si>
+    <t>実際の製作に携わったのは、主に私のアシスタントたちです.</t>
+  </si>
+  <si>
+    <t>She's underrated.</t>
+  </si>
+  <si>
+    <t>彼女はもっと評価されてもいいのに.</t>
+  </si>
+  <si>
+    <t>You're like a ray of sunshine.</t>
+  </si>
+  <si>
+    <t>あなたが私を明るい気持ちにさせてくれる.</t>
+  </si>
+  <si>
+    <t>You always bring the rain with you.</t>
+  </si>
+  <si>
+    <t>あなたって雨男だよね.</t>
+  </si>
+  <si>
+    <t>You're the greatest coach I could ever ask for!</t>
+  </si>
+  <si>
+    <t>あなたはこれ以上望めないほど、最高のコーチです！</t>
+  </si>
+  <si>
+    <t>You mean more to me than anything else in the whole wide world.</t>
+  </si>
+  <si>
+    <t>あなたのことはこの広い世界で何よりも大切に思っている.</t>
+  </si>
+  <si>
+    <t>I'm not 100% convinced.</t>
+  </si>
+  <si>
+    <t>100%確信しているわけじゃない.</t>
+  </si>
+  <si>
+    <t>You're convinced me.</t>
+  </si>
+  <si>
+    <t>君の意見に納得だよ.</t>
+  </si>
+  <si>
+    <t>There's more to life than your career.</t>
+  </si>
+  <si>
+    <t>キャリアだけが人生じゃない.</t>
+  </si>
+  <si>
+    <t>There's more to it than that.</t>
+  </si>
+  <si>
+    <t>それだけじゃない. / つづきがある.</t>
+  </si>
+  <si>
+    <t>It's staticky.</t>
+  </si>
+  <si>
+    <t>ひどい雑音だ.</t>
+  </si>
+  <si>
+    <t>My PC is laggy.</t>
+  </si>
+  <si>
+    <t>PCが重い.</t>
+  </si>
+  <si>
+    <t>They share anything and everything.</t>
+  </si>
+  <si>
+    <t>彼らは何から何まで共有する仲だ.</t>
+  </si>
+  <si>
+    <t>Let's wait for the dust to settle.</t>
+  </si>
+  <si>
+    <t>ほとぼりが冷めるまで待とう</t>
+  </si>
+  <si>
+    <t>He always shies away from making decisions.</t>
+  </si>
+  <si>
+    <t>彼はいつだって尻込みをして決断を避ける.</t>
+  </si>
+  <si>
+    <t>Sounds like you've missed the boat.</t>
+  </si>
+  <si>
+    <t>チャンスを逃してしまったようだね</t>
+  </si>
+  <si>
+    <t>Don't butter me up.</t>
+  </si>
+  <si>
+    <t>ごまをするのはやめて.</t>
+  </si>
+  <si>
+    <t>It had a snowball effect.</t>
+  </si>
+  <si>
+    <t>雪だるま式の効果が見られた.</t>
+  </si>
+  <si>
+    <t>It's a no-frills restaurant with excellent food.</t>
+  </si>
+  <si>
+    <t>地味なレストランだけど、すごくおいしいよ.</t>
+  </si>
+  <si>
+    <t>I was given the red-carpet tratment.</t>
+  </si>
+  <si>
+    <t>手厚い歓迎を受けた.</t>
+  </si>
+  <si>
+    <t>I haven' heard a word from him.</t>
+  </si>
+  <si>
+    <t>彼から全く音沙汰がない.</t>
+  </si>
+  <si>
+    <t>Today is the day.</t>
+  </si>
+  <si>
+    <t>いよいよ今日が勝負だ.</t>
+  </si>
+  <si>
+    <t>It has a become the new normal.</t>
+  </si>
+  <si>
+    <t>これが新常識になっている.</t>
+  </si>
+  <si>
+    <t>I need to deliver good results.</t>
+  </si>
+  <si>
+    <t>しっかり結果を残さなければならない.</t>
+  </si>
+  <si>
+    <t>It was a bit far-fetched.</t>
+  </si>
+  <si>
+    <t>ちょっと現実離れしていた.</t>
+  </si>
+  <si>
+    <t>picture-perfect</t>
+  </si>
+  <si>
+    <t>絵に描いたような</t>
+  </si>
+  <si>
+    <t>It doesn't mean we can just throw money around.</t>
+  </si>
+  <si>
+    <t>お金を湯水のように使っていいというわけではない</t>
+  </si>
+  <si>
+    <t>That's a deal breaker for me.</t>
+  </si>
+  <si>
+    <t>それは私にとって致命的だ.</t>
+  </si>
+  <si>
+    <t>He's a very hands-on dad.</t>
+  </si>
+  <si>
+    <t>彼は父親として積極的に子育てに関わっている.</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B490" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C502" sqref="C502"/>
+    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8928,6 +9588,886 @@
         <v>1003</v>
       </c>
     </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B503" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B504" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B506" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B507" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B508" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B509" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B512" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B513" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B516" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B518" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B521" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B522" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B523" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B524" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C540" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B545" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B564" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B565" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C566" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B567" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B569" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C570" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B571" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B572" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C572" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B573" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C574" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B575" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B576" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C576" s="10" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B577" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B578" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B579" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B580" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B581" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B582" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B583" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B584" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B585" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B586" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C586" s="10" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B587" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B588" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B589" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B590" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B591" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B592" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B595" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B596" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C596" s="10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B597" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B598" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B600" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C600" s="10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B601" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B602" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B603" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B604" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B605" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B606" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B608" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B609" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B610" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B611" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B612" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C612" s="10" t="s">
+        <v>1223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7496502-B175-1A4E-B14C-FA1A77BD6362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65C255-57B3-9648-8E1B-E6D9453B3F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="8360" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="-2060" yWindow="-23540" windowWidth="19200" windowHeight="23540" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1476">
   <si>
     <t>No.</t>
   </si>
@@ -3705,6 +3705,762 @@
   </si>
   <si>
     <t>彼は父親として積極的に子育てに関わっている.</t>
+  </si>
+  <si>
+    <t>do whatever it takes to</t>
+  </si>
+  <si>
+    <t>〜するためならなんでもする</t>
+  </si>
+  <si>
+    <t>What's your winning formula?</t>
+  </si>
+  <si>
+    <t>あなたの必勝法は何ですか？</t>
+  </si>
+  <si>
+    <t>It's not rocket science.</t>
+  </si>
+  <si>
+    <t>それは難しいことではない.</t>
+  </si>
+  <si>
+    <t>He's a loose cannon.</t>
+  </si>
+  <si>
+    <t>あいつは何をしでかすかわからない.</t>
+  </si>
+  <si>
+    <t>He's a late boomer as a writer.</t>
+  </si>
+  <si>
+    <t>彼は作家として遅咲きだ.</t>
+  </si>
+  <si>
+    <t>I always keep an umbrella close at hand at this time of the year.</t>
+  </si>
+  <si>
+    <t>この時期はいつも傘を手元に用意しておく.</t>
+  </si>
+  <si>
+    <t>Mr. Know-it all.</t>
+  </si>
+  <si>
+    <t>知ったかぶりな人</t>
+  </si>
+  <si>
+    <t>Don't rock the boat.</t>
+  </si>
+  <si>
+    <t>波風を立てないでください.</t>
+  </si>
+  <si>
+    <t>Can I top-up my card?</t>
+  </si>
+  <si>
+    <t>カードにチャージをお願いします.</t>
+  </si>
+  <si>
+    <t>Do you want a top-up?</t>
+  </si>
+  <si>
+    <t>（飲み物を）注ぎ足そうか？</t>
+  </si>
+  <si>
+    <t>Just mention my name.</t>
+  </si>
+  <si>
+    <t>私の紹介だと言ってください.</t>
+  </si>
+  <si>
+    <t>at a crossroads</t>
+  </si>
+  <si>
+    <t>岐路に立って</t>
+  </si>
+  <si>
+    <t>They're pretty tight.</t>
+  </si>
+  <si>
+    <t>あの2人はすごく仲がいい.</t>
+  </si>
+  <si>
+    <t>My schedule is quite tight next week.</t>
+  </si>
+  <si>
+    <t>来週は予定がかなり詰まっています.</t>
+  </si>
+  <si>
+    <t>It takes more than a day.</t>
+  </si>
+  <si>
+    <t>1日じゃ終わらないよ</t>
+  </si>
+  <si>
+    <t>I got a speeding ticket.</t>
+  </si>
+  <si>
+    <t>スピード違反の切符を切られた</t>
+  </si>
+  <si>
+    <t>I was holding back my tears</t>
+  </si>
+  <si>
+    <t>涙を堪えていた</t>
+  </si>
+  <si>
+    <t>Don't hold back.</t>
+  </si>
+  <si>
+    <t>遠慮しないで</t>
+  </si>
+  <si>
+    <t>deep down inside</t>
+  </si>
+  <si>
+    <t>心の底では</t>
+  </si>
+  <si>
+    <t>He wouldn't take no for an answer.</t>
+  </si>
+  <si>
+    <t>彼はノーという返事を受け入れてくれないんだよ</t>
+  </si>
+  <si>
+    <t>Hospitality at its fines</t>
+  </si>
+  <si>
+    <t>究極のおもてなしだ</t>
+  </si>
+  <si>
+    <t>I made the wrong choice.</t>
+  </si>
+  <si>
+    <t>選択を誤った.</t>
+  </si>
+  <si>
+    <t>I'm lost for words.</t>
+  </si>
+  <si>
+    <t>言葉が見つからない.</t>
+  </si>
+  <si>
+    <t>They've  been in an on-again, off-again relationship for five years.</t>
+  </si>
+  <si>
+    <t>2人はくっついたり離れたりを繰り返して5年になる.</t>
+  </si>
+  <si>
+    <t>She walks all over him.</t>
+  </si>
+  <si>
+    <t>彼女は彼をいいようにこき使っている.</t>
+  </si>
+  <si>
+    <t>He was ready to jump ship.</t>
+  </si>
+  <si>
+    <t>あいつはライバル会社への転職を考えていた.</t>
+  </si>
+  <si>
+    <t>Why don't we shoot for next Friday?</t>
+  </si>
+  <si>
+    <t>今度の金曜日を目標にしよう</t>
+  </si>
+  <si>
+    <t>I was talking to myself.</t>
+  </si>
+  <si>
+    <t>独り言だよ</t>
+  </si>
+  <si>
+    <t>You shouldn't take this lightly.</t>
+  </si>
+  <si>
+    <t>これは軽視すべきことではない</t>
+  </si>
+  <si>
+    <t>You've been so self-involved lately.</t>
+  </si>
+  <si>
+    <t>君は最近自分のことで頭がいっぱいだ.</t>
+  </si>
+  <si>
+    <t>I'm in debt to you.</t>
+  </si>
+  <si>
+    <t>恩に着るよ</t>
+  </si>
+  <si>
+    <t>Can I ask you why?</t>
+  </si>
+  <si>
+    <t>理由を聞いていい？</t>
+  </si>
+  <si>
+    <t>The first day back at work is always tough one.</t>
+  </si>
+  <si>
+    <t>休み明けの仕事初日はいつもキツイ</t>
+  </si>
+  <si>
+    <t>It was just a fluke.</t>
+  </si>
+  <si>
+    <t>まぐれだっただけです.</t>
+  </si>
+  <si>
+    <t>They took the world by storm.</t>
+  </si>
+  <si>
+    <t>彼らは一世を風靡した.</t>
+  </si>
+  <si>
+    <t>Can someone bring me up to speed on this?</t>
+  </si>
+  <si>
+    <t>この件について誰か状況を教えてくれる人はいませんか？</t>
+  </si>
+  <si>
+    <t>It took me a while to get back up to speed.</t>
+  </si>
+  <si>
+    <t>いつもの調子に戻すのに時間がかかった</t>
+  </si>
+  <si>
+    <t>I'm wide open next week</t>
+  </si>
+  <si>
+    <t>来週の予定はガラ空きだ.</t>
+  </si>
+  <si>
+    <t>I just don't feel up for it.</t>
+  </si>
+  <si>
+    <t>そういう気分じゃない.</t>
+  </si>
+  <si>
+    <t>Does it sound like something you'd be interested in?</t>
+  </si>
+  <si>
+    <t>興味がわく感じでしょうか？／乗り気な感じですか？</t>
+  </si>
+  <si>
+    <t>Don't be so uptight.</t>
+  </si>
+  <si>
+    <t>そうピリピリしないで</t>
+  </si>
+  <si>
+    <t>We're related.</t>
+  </si>
+  <si>
+    <t>私たちは血の繋がった兄弟です.</t>
+  </si>
+  <si>
+    <t>I'll probably be gone by then.</t>
+  </si>
+  <si>
+    <t>その頃にはおそらくいないと思う</t>
+  </si>
+  <si>
+    <t>My bad.</t>
+  </si>
+  <si>
+    <t>ごめん.</t>
+  </si>
+  <si>
+    <t>I'll tell you what.</t>
+  </si>
+  <si>
+    <t>じゃあ、こうしようよ.</t>
+  </si>
+  <si>
+    <t>I need your candid opinion.</t>
+  </si>
+  <si>
+    <t>君の率直な意見が欲しい</t>
+  </si>
+  <si>
+    <t>This rain shows no sign of stopping.</t>
+  </si>
+  <si>
+    <t>この雨、やみそうにないよ</t>
+  </si>
+  <si>
+    <t>He looks mature for his age.</t>
+  </si>
+  <si>
+    <t>彼は年齢のわりに大人びている.</t>
+  </si>
+  <si>
+    <t>She looks younger than her age.</t>
+  </si>
+  <si>
+    <t>彼女は年齢よりも若く見える.</t>
+  </si>
+  <si>
+    <t>She has a baby face.</t>
+  </si>
+  <si>
+    <t>彼女は童顔だ.</t>
+  </si>
+  <si>
+    <t>I had to jump through hoops to get here.</t>
+  </si>
+  <si>
+    <t>ここまで来るのに大変な思いをした.</t>
+  </si>
+  <si>
+    <t>Sometimes she sends me mixed signals.</t>
+  </si>
+  <si>
+    <t>時々、彼女の意図がよくわらかない</t>
+  </si>
+  <si>
+    <t>Let's set aside our differences.</t>
+  </si>
+  <si>
+    <t>互いの相違点には目を瞑ろう.</t>
+  </si>
+  <si>
+    <t>Don't play the victim card.</t>
+  </si>
+  <si>
+    <t>被害者ヅラしないで</t>
+  </si>
+  <si>
+    <t>I'm a little rusty.</t>
+  </si>
+  <si>
+    <t>ちょっと腕が鈍っている.</t>
+  </si>
+  <si>
+    <t>You need some downtime.</t>
+  </si>
+  <si>
+    <t>少しゆっくりする時間が必要.</t>
+  </si>
+  <si>
+    <t>I owe my success to my famiy.</t>
+  </si>
+  <si>
+    <t>僕の成功は家族のおかげです.</t>
+  </si>
+  <si>
+    <t>That would be pushing it.</t>
+  </si>
+  <si>
+    <t>それは無理をすることになるだろう.</t>
+  </si>
+  <si>
+    <t>You're ruining everything.</t>
+  </si>
+  <si>
+    <t>君のせいで何もかもめちゃくちゃだ.</t>
+  </si>
+  <si>
+    <t>I keep running into you.</t>
+  </si>
+  <si>
+    <t>よくばったり会うね</t>
+  </si>
+  <si>
+    <t>I'm willing to do anything.</t>
+  </si>
+  <si>
+    <t>なんだってするつもりだ.</t>
+  </si>
+  <si>
+    <t>It could have a positive impact on your career.</t>
+  </si>
+  <si>
+    <t>それは君のキャリアにプラスに働く可能性もある</t>
+  </si>
+  <si>
+    <t>These are happy tears.</t>
+  </si>
+  <si>
+    <t>これは嬉し涙だよ.</t>
+  </si>
+  <si>
+    <t>The letter brought tears into my eyes.</t>
+  </si>
+  <si>
+    <t>その手紙を読んだら涙が出た.</t>
+  </si>
+  <si>
+    <t>He has big shoes to fill.</t>
+  </si>
+  <si>
+    <t>責任重大だ.</t>
+  </si>
+  <si>
+    <t>We can't judge someone until we walk a mile in his shoes.</t>
+  </si>
+  <si>
+    <t>他人を判断する前に、その人の立場になって考えてみなくちゃ</t>
+  </si>
+  <si>
+    <t>I wish I could rewind time.</t>
+  </si>
+  <si>
+    <t>時間を巻き戻せたらいいのに.</t>
+  </si>
+  <si>
+    <t>You should be prepared.</t>
+  </si>
+  <si>
+    <t>覚悟しておいた方がいいよ.</t>
+  </si>
+  <si>
+    <t>I'm choked up.</t>
+  </si>
+  <si>
+    <t>うまく言葉にならない.</t>
+  </si>
+  <si>
+    <t>I got cut from the team.</t>
+  </si>
+  <si>
+    <t>チームから外されてしまった.</t>
+  </si>
+  <si>
+    <t>The news came out of left field.</t>
+  </si>
+  <si>
+    <t>それは思いもよらない知らせだった.</t>
+  </si>
+  <si>
+    <t>It is what it is.</t>
+  </si>
+  <si>
+    <t>これが現実だ.</t>
+  </si>
+  <si>
+    <t>I like it the way it is.</t>
+  </si>
+  <si>
+    <t>今のままでいい.</t>
+  </si>
+  <si>
+    <t>You just hit the mark.</t>
+  </si>
+  <si>
+    <t>大成功だったよ</t>
+  </si>
+  <si>
+    <t>Our campaign message missed the mark.</t>
+  </si>
+  <si>
+    <t>キャンペーンのメッセージは的外れだった.</t>
+  </si>
+  <si>
+    <t>I hear you loud and clear.</t>
+  </si>
+  <si>
+    <t>君の言うことはよくわかるよ.</t>
+  </si>
+  <si>
+    <t>That set him apart from other agents.</t>
+  </si>
+  <si>
+    <t>そこが彼が他の業者と違った点でした.</t>
+  </si>
+  <si>
+    <t>Please make a point of arriving on time.</t>
+  </si>
+  <si>
+    <t>時間通りに到着す量に心がけてください.</t>
+  </si>
+  <si>
+    <t>carry a touch for</t>
+  </si>
+  <si>
+    <t>恋い焦がれる.</t>
+  </si>
+  <si>
+    <t>carry the torch</t>
+  </si>
+  <si>
+    <t>思いをつなぐ</t>
+  </si>
+  <si>
+    <t>It just came out of anger.</t>
+  </si>
+  <si>
+    <t>怒りに任せてあんな行動に出てしまった.</t>
+  </si>
+  <si>
+    <t>as of today</t>
+  </si>
+  <si>
+    <t>今日現在で</t>
+  </si>
+  <si>
+    <t>We remain good friends to this day.</t>
+  </si>
+  <si>
+    <t>私たちは今でも中の良い友達です.</t>
+  </si>
+  <si>
+    <t>Be on the lookout for a tall guy with a Scottish accent.</t>
+  </si>
+  <si>
+    <t>背の高い、スコットランド訛りの男を探してください</t>
+  </si>
+  <si>
+    <t>We share a similar family background.</t>
+  </si>
+  <si>
+    <t>私たちは育った家庭環境が似ている</t>
+  </si>
+  <si>
+    <t>He seems a bit iffy.</t>
+  </si>
+  <si>
+    <t>彼は怪しい感じがする.</t>
+  </si>
+  <si>
+    <t>I'm going to take a power nap.</t>
+  </si>
+  <si>
+    <t>仮眠をとるよ.</t>
+  </si>
+  <si>
+    <t>It's stuffy in here.</t>
+  </si>
+  <si>
+    <t>蒸し暑い</t>
+  </si>
+  <si>
+    <t>Come see your grandson's proud moment.</t>
+  </si>
+  <si>
+    <t>孫息子の晴れの姿を見に来て</t>
+  </si>
+  <si>
+    <t>We should raise the bar.</t>
+  </si>
+  <si>
+    <t>基準を引き上げるべきだ.</t>
+  </si>
+  <si>
+    <t>You've set the bar high.</t>
+  </si>
+  <si>
+    <t>君がレベルを高く設定してしまった.</t>
+  </si>
+  <si>
+    <t>You'll go far in life.</t>
+  </si>
+  <si>
+    <t>きっと成功した人生を送れるよ.</t>
+  </si>
+  <si>
+    <t>follow your heart.</t>
+  </si>
+  <si>
+    <t>心に従う.</t>
+  </si>
+  <si>
+    <t>everything from A to Z</t>
+  </si>
+  <si>
+    <t>あらゆること/ 何から何まで</t>
+  </si>
+  <si>
+    <t>Who's in the driver's seat?</t>
+  </si>
+  <si>
+    <t>誰が管理しているのですか？</t>
+  </si>
+  <si>
+    <t>もう何年も車を運転していない.</t>
+  </si>
+  <si>
+    <t>I haven't been behind the wheel for years.</t>
+  </si>
+  <si>
+    <t>He was forced to close down his buisiness.</t>
+  </si>
+  <si>
+    <t>彼らは廃業を余儀なくされた.</t>
+  </si>
+  <si>
+    <t>I acted on anger.</t>
+  </si>
+  <si>
+    <t>怒りに任せて行動してしまった.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pay the bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生活費を稼ぐ </t>
+  </si>
+  <si>
+    <t>under no circumstances</t>
+  </si>
+  <si>
+    <t>どんな場合でも</t>
+  </si>
+  <si>
+    <t>under the circumstances</t>
+  </si>
+  <si>
+    <t>こんな状況なので</t>
+  </si>
+  <si>
+    <t>I had to wait in line for hours on end</t>
+  </si>
+  <si>
+    <t>何時間も列で待たされた.</t>
+  </si>
+  <si>
+    <t>It left a bad taste in my mouth.</t>
+  </si>
+  <si>
+    <t>後味の悪い思いをした.</t>
+  </si>
+  <si>
+    <t>We speak the same language.</t>
+  </si>
+  <si>
+    <t>私たちは感覚が似ている.</t>
+  </si>
+  <si>
+    <t>We're on the horns of a dilemma.</t>
+  </si>
+  <si>
+    <t>どうするべきか / どちらを選んでもいいことはない.</t>
+  </si>
+  <si>
+    <t>All eyes were on him.</t>
+  </si>
+  <si>
+    <t>みんなの視線は彼に集まった</t>
+  </si>
+  <si>
+    <t>I love you to the moon and back.</t>
+  </si>
+  <si>
+    <t>すごくすごく愛しています.</t>
+  </si>
+  <si>
+    <t>He followed his father’s footsteps and became a doctor.</t>
+  </si>
+  <si>
+    <t>彼は父と同じ、医者の道に進んだ.</t>
+  </si>
+  <si>
+    <t>I can't imagine life without you</t>
+  </si>
+  <si>
+    <t>君のいない人生なんて想像できないよ</t>
+  </si>
+  <si>
+    <t>Don't be so quick to give up.</t>
+  </si>
+  <si>
+    <t>そんなに簡単に諦めちゃダメだ.</t>
+  </si>
+  <si>
+    <t>Our team is in top-shape.</t>
+  </si>
+  <si>
+    <t>我々のチームは万全な状態です.</t>
+  </si>
+  <si>
+    <t>She is old-school.</t>
+  </si>
+  <si>
+    <t>彼女は古風な女性だ.</t>
+  </si>
+  <si>
+    <t>I want to focus on my career.</t>
+  </si>
+  <si>
+    <t>自分のキャリアに集中したいんだ.</t>
+  </si>
+  <si>
+    <t>beyond excited</t>
+  </si>
+  <si>
+    <t>最高に興奮している.</t>
+  </si>
+  <si>
+    <t>everything in beween</t>
+  </si>
+  <si>
+    <t>ありとあらゆるもの</t>
+  </si>
+  <si>
+    <t>It's all in the past</t>
+  </si>
+  <si>
+    <t>それはもう過去のことだ</t>
+  </si>
+  <si>
+    <t>Clue me in.</t>
+  </si>
+  <si>
+    <t>説明してもらえる</t>
+  </si>
+  <si>
+    <t>It brings me peace of mind.</t>
+  </si>
+  <si>
+    <t>安心感を与えてくれる.</t>
+  </si>
+  <si>
+    <t>I'm skeptical.</t>
+  </si>
+  <si>
+    <t>怪しいと思っている.</t>
+  </si>
+  <si>
+    <t>That's a first.</t>
+  </si>
+  <si>
+    <t>初めてのことだ.</t>
+  </si>
+  <si>
+    <t>I'd love to trade places with you.</t>
+  </si>
+  <si>
+    <t>あなたと立場を変わりたい</t>
+  </si>
+  <si>
+    <t>I knew it from day one.</t>
+  </si>
+  <si>
+    <t>初めからわかっていた.</t>
+  </si>
+  <si>
+    <t>Thank you for your kind words.</t>
+  </si>
+  <si>
+    <t>優しい言葉をありがとう</t>
+  </si>
+  <si>
+    <t>おばさんの家はどうも寛げない</t>
+  </si>
+  <si>
+    <t>I don't feel at home at your aunt's .</t>
+  </si>
+  <si>
+    <t>Is there anything in particular you want to have?</t>
+  </si>
+  <si>
+    <t>特に何か食べたいものはある？</t>
+  </si>
+  <si>
+    <t>We had to carry box after box.</t>
+  </si>
+  <si>
+    <t>私たちは箱を次々と運ばなければならなかった</t>
   </si>
 </sst>
 </file>
@@ -4124,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
-  <dimension ref="A1:D612"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B613" sqref="B613"/>
+    <sheetView tabSelected="1" topLeftCell="A713" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C738" sqref="C738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9229,6 +9985,9 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
       <c r="B458" s="5" t="s">
         <v>914</v>
       </c>
@@ -9237,6 +9996,9 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
       <c r="B459" s="6" t="s">
         <v>916</v>
       </c>
@@ -9245,6 +10007,9 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
       <c r="B460" s="6" t="s">
         <v>918</v>
       </c>
@@ -9253,6 +10018,9 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
       <c r="B461" s="6" t="s">
         <v>920</v>
       </c>
@@ -9261,6 +10029,9 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
       <c r="B462" s="6" t="s">
         <v>922</v>
       </c>
@@ -9269,6 +10040,9 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
       <c r="B463" s="6" t="s">
         <v>924</v>
       </c>
@@ -9277,6 +10051,9 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
       <c r="B464" s="6" t="s">
         <v>926</v>
       </c>
@@ -9284,7 +10061,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
+        <v>464</v>
+      </c>
       <c r="B465" s="6" t="s">
         <v>928</v>
       </c>
@@ -9292,7 +10072,10 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="2">
+        <v>465</v>
+      </c>
       <c r="B466" s="6" t="s">
         <v>930</v>
       </c>
@@ -9300,7 +10083,10 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>466</v>
+      </c>
       <c r="B467" s="6" t="s">
         <v>932</v>
       </c>
@@ -9308,7 +10094,10 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="2">
+        <v>467</v>
+      </c>
       <c r="B468" s="6" t="s">
         <v>934</v>
       </c>
@@ -9316,7 +10105,10 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>468</v>
+      </c>
       <c r="B469" s="6" t="s">
         <v>936</v>
       </c>
@@ -9324,7 +10116,10 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="2">
+        <v>469</v>
+      </c>
       <c r="B470" s="6" t="s">
         <v>938</v>
       </c>
@@ -9332,7 +10127,10 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="2">
+        <v>470</v>
+      </c>
       <c r="B471" s="6" t="s">
         <v>940</v>
       </c>
@@ -9340,7 +10138,10 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="2">
+        <v>471</v>
+      </c>
       <c r="B472" s="6" t="s">
         <v>942</v>
       </c>
@@ -9348,7 +10149,10 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>472</v>
+      </c>
       <c r="B473" s="6" t="s">
         <v>944</v>
       </c>
@@ -9356,7 +10160,10 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="2">
+        <v>473</v>
+      </c>
       <c r="B474" s="6" t="s">
         <v>946</v>
       </c>
@@ -9364,7 +10171,10 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
+        <v>474</v>
+      </c>
       <c r="B475" s="6" t="s">
         <v>948</v>
       </c>
@@ -9372,7 +10182,10 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="2">
+        <v>475</v>
+      </c>
       <c r="B476" s="6" t="s">
         <v>950</v>
       </c>
@@ -9380,7 +10193,10 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="2">
+        <v>476</v>
+      </c>
       <c r="B477" s="6" t="s">
         <v>952</v>
       </c>
@@ -9388,7 +10204,10 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="2">
+        <v>477</v>
+      </c>
       <c r="B478" s="6" t="s">
         <v>954</v>
       </c>
@@ -9396,7 +10215,10 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="2">
+        <v>478</v>
+      </c>
       <c r="B479" s="6" t="s">
         <v>956</v>
       </c>
@@ -9404,7 +10226,10 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="2">
+        <v>479</v>
+      </c>
       <c r="B480" s="6" t="s">
         <v>958</v>
       </c>
@@ -9412,7 +10237,10 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="2">
+        <v>480</v>
+      </c>
       <c r="B481" s="6" t="s">
         <v>960</v>
       </c>
@@ -9420,7 +10248,10 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="2">
+        <v>481</v>
+      </c>
       <c r="B482" s="6" t="s">
         <v>962</v>
       </c>
@@ -9428,7 +10259,10 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="2">
+        <v>482</v>
+      </c>
       <c r="B483" s="11" t="s">
         <v>964</v>
       </c>
@@ -9436,7 +10270,10 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="2">
+        <v>483</v>
+      </c>
       <c r="B484" s="11" t="s">
         <v>966</v>
       </c>
@@ -9444,7 +10281,10 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>484</v>
+      </c>
       <c r="B485" s="6" t="s">
         <v>968</v>
       </c>
@@ -9452,7 +10292,10 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="2">
+        <v>485</v>
+      </c>
       <c r="B486" s="6" t="s">
         <v>971</v>
       </c>
@@ -9460,7 +10303,10 @@
         <v>970</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>486</v>
+      </c>
       <c r="B487" s="6" t="s">
         <v>972</v>
       </c>
@@ -9468,7 +10314,10 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="2">
+        <v>487</v>
+      </c>
       <c r="B488" s="6" t="s">
         <v>974</v>
       </c>
@@ -9476,7 +10325,10 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>488</v>
+      </c>
       <c r="B489" s="6" t="s">
         <v>976</v>
       </c>
@@ -9484,7 +10336,10 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="2">
+        <v>489</v>
+      </c>
       <c r="B490" s="10" t="s">
         <v>978</v>
       </c>
@@ -9492,7 +10347,10 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>490</v>
+      </c>
       <c r="B491" s="6" t="s">
         <v>980</v>
       </c>
@@ -9500,7 +10358,10 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>491</v>
+      </c>
       <c r="B492" s="6" t="s">
         <v>982</v>
       </c>
@@ -9508,7 +10369,10 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>492</v>
+      </c>
       <c r="B493" s="6" t="s">
         <v>984</v>
       </c>
@@ -9516,7 +10380,10 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="2">
+        <v>493</v>
+      </c>
       <c r="B494" s="6" t="s">
         <v>987</v>
       </c>
@@ -9524,7 +10391,10 @@
         <v>986</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>494</v>
+      </c>
       <c r="B495" s="6" t="s">
         <v>988</v>
       </c>
@@ -9532,7 +10402,10 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="2">
+        <v>495</v>
+      </c>
       <c r="B496" s="6" t="s">
         <v>990</v>
       </c>
@@ -9540,7 +10413,10 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>496</v>
+      </c>
       <c r="B497" s="6" t="s">
         <v>992</v>
       </c>
@@ -9548,7 +10424,10 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="2">
+        <v>497</v>
+      </c>
       <c r="B498" s="6" t="s">
         <v>994</v>
       </c>
@@ -9556,7 +10435,10 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="2">
+        <v>498</v>
+      </c>
       <c r="B499" s="6" t="s">
         <v>996</v>
       </c>
@@ -9564,7 +10446,10 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="2">
+        <v>499</v>
+      </c>
       <c r="B500" s="6" t="s">
         <v>998</v>
       </c>
@@ -9572,7 +10457,10 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>500</v>
+      </c>
       <c r="B501" s="6" t="s">
         <v>1000</v>
       </c>
@@ -9580,7 +10468,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>501</v>
+      </c>
       <c r="B502" s="6" t="s">
         <v>1002</v>
       </c>
@@ -9588,7 +10479,10 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>502</v>
+      </c>
       <c r="B503" s="6" t="s">
         <v>1004</v>
       </c>
@@ -9596,7 +10490,10 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>503</v>
+      </c>
       <c r="B504" s="6" t="s">
         <v>1006</v>
       </c>
@@ -9604,7 +10501,10 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>504</v>
+      </c>
       <c r="B505" s="6" t="s">
         <v>1008</v>
       </c>
@@ -9612,7 +10512,10 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
+        <v>505</v>
+      </c>
       <c r="B506" s="6" t="s">
         <v>1010</v>
       </c>
@@ -9620,7 +10523,10 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>506</v>
+      </c>
       <c r="B507" s="6" t="s">
         <v>1012</v>
       </c>
@@ -9628,7 +10534,10 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>507</v>
+      </c>
       <c r="B508" s="6" t="s">
         <v>1014</v>
       </c>
@@ -9636,7 +10545,10 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>508</v>
+      </c>
       <c r="B509" s="6" t="s">
         <v>1016</v>
       </c>
@@ -9644,7 +10556,10 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>509</v>
+      </c>
       <c r="B510" s="6" t="s">
         <v>1018</v>
       </c>
@@ -9652,7 +10567,10 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>510</v>
+      </c>
       <c r="B511" s="6" t="s">
         <v>1020</v>
       </c>
@@ -9660,7 +10578,10 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>511</v>
+      </c>
       <c r="B512" s="6" t="s">
         <v>1022</v>
       </c>
@@ -9668,7 +10589,10 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>512</v>
+      </c>
       <c r="B513" s="6" t="s">
         <v>1024</v>
       </c>
@@ -9676,7 +10600,10 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>513</v>
+      </c>
       <c r="B514" s="6" t="s">
         <v>1026</v>
       </c>
@@ -9684,7 +10611,10 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>514</v>
+      </c>
       <c r="B515" s="6" t="s">
         <v>1028</v>
       </c>
@@ -9692,7 +10622,10 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>515</v>
+      </c>
       <c r="B516" s="6" t="s">
         <v>1030</v>
       </c>
@@ -9700,7 +10633,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>516</v>
+      </c>
       <c r="B517" s="6" t="s">
         <v>1032</v>
       </c>
@@ -9708,7 +10644,10 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>517</v>
+      </c>
       <c r="B518" s="6" t="s">
         <v>1035</v>
       </c>
@@ -9716,7 +10655,10 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>518</v>
+      </c>
       <c r="B519" s="6" t="s">
         <v>1036</v>
       </c>
@@ -9724,7 +10666,10 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>519</v>
+      </c>
       <c r="B520" s="6" t="s">
         <v>1038</v>
       </c>
@@ -9732,7 +10677,10 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="2">
+        <v>520</v>
+      </c>
       <c r="B521" s="6" t="s">
         <v>1040</v>
       </c>
@@ -9740,7 +10688,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>521</v>
+      </c>
       <c r="B522" s="6" t="s">
         <v>1042</v>
       </c>
@@ -9748,7 +10699,10 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="2">
+        <v>522</v>
+      </c>
       <c r="B523" s="6" t="s">
         <v>1044</v>
       </c>
@@ -9756,7 +10710,10 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="2">
+        <v>523</v>
+      </c>
       <c r="B524" s="6" t="s">
         <v>1046</v>
       </c>
@@ -9764,7 +10721,10 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="2">
+        <v>524</v>
+      </c>
       <c r="B525" s="6" t="s">
         <v>1048</v>
       </c>
@@ -9772,7 +10732,10 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="2">
+        <v>525</v>
+      </c>
       <c r="B526" s="6" t="s">
         <v>1050</v>
       </c>
@@ -9780,7 +10743,10 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>526</v>
+      </c>
       <c r="B527" s="6" t="s">
         <v>1052</v>
       </c>
@@ -9788,7 +10754,10 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="2">
+        <v>527</v>
+      </c>
       <c r="B528" s="6" t="s">
         <v>1054</v>
       </c>
@@ -9796,7 +10765,10 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="2">
+        <v>528</v>
+      </c>
       <c r="B529" s="6" t="s">
         <v>1056</v>
       </c>
@@ -9804,7 +10776,10 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="2">
+        <v>529</v>
+      </c>
       <c r="B530" s="6" t="s">
         <v>1058</v>
       </c>
@@ -9812,7 +10787,10 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="2">
+        <v>530</v>
+      </c>
       <c r="B531" s="6" t="s">
         <v>1060</v>
       </c>
@@ -9820,7 +10798,10 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>531</v>
+      </c>
       <c r="B532" s="6" t="s">
         <v>1062</v>
       </c>
@@ -9828,7 +10809,10 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="2">
+        <v>532</v>
+      </c>
       <c r="B533" s="6" t="s">
         <v>1065</v>
       </c>
@@ -9836,7 +10820,10 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="2">
+        <v>533</v>
+      </c>
       <c r="B534" s="6" t="s">
         <v>1066</v>
       </c>
@@ -9844,7 +10831,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="2">
+        <v>534</v>
+      </c>
       <c r="B535" s="6" t="s">
         <v>1068</v>
       </c>
@@ -9852,7 +10842,10 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="2">
+        <v>535</v>
+      </c>
       <c r="B536" s="6" t="s">
         <v>1070</v>
       </c>
@@ -9860,7 +10853,10 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="2">
+        <v>536</v>
+      </c>
       <c r="B537" s="6" t="s">
         <v>1072</v>
       </c>
@@ -9868,7 +10864,10 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>537</v>
+      </c>
       <c r="B538" s="6" t="s">
         <v>1074</v>
       </c>
@@ -9876,7 +10875,10 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="2">
+        <v>538</v>
+      </c>
       <c r="B539" s="6" t="s">
         <v>1076</v>
       </c>
@@ -9884,7 +10886,10 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="2">
+        <v>539</v>
+      </c>
       <c r="B540" s="6" t="s">
         <v>1078</v>
       </c>
@@ -9892,7 +10897,10 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="2">
+        <v>540</v>
+      </c>
       <c r="B541" s="6" t="s">
         <v>1080</v>
       </c>
@@ -9900,7 +10908,10 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="2">
+        <v>541</v>
+      </c>
       <c r="B542" s="6" t="s">
         <v>1082</v>
       </c>
@@ -9908,7 +10919,10 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="2">
+        <v>542</v>
+      </c>
       <c r="B543" s="6" t="s">
         <v>1084</v>
       </c>
@@ -9916,7 +10930,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="2">
+        <v>543</v>
+      </c>
       <c r="B544" s="6" t="s">
         <v>1086</v>
       </c>
@@ -9924,7 +10941,10 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="2">
+        <v>544</v>
+      </c>
       <c r="B545" s="6" t="s">
         <v>1088</v>
       </c>
@@ -9932,7 +10952,10 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="2">
+        <v>545</v>
+      </c>
       <c r="B546" s="6" t="s">
         <v>1090</v>
       </c>
@@ -9940,7 +10963,10 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="2">
+        <v>546</v>
+      </c>
       <c r="B547" s="6" t="s">
         <v>1092</v>
       </c>
@@ -9948,7 +10974,10 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="2">
+        <v>547</v>
+      </c>
       <c r="B548" s="6" t="s">
         <v>1094</v>
       </c>
@@ -9956,7 +10985,10 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="2">
+        <v>548</v>
+      </c>
       <c r="B549" s="6" t="s">
         <v>1096</v>
       </c>
@@ -9964,7 +10996,10 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="2">
+        <v>549</v>
+      </c>
       <c r="B550" s="6" t="s">
         <v>1098</v>
       </c>
@@ -9972,7 +11007,10 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="2">
+        <v>550</v>
+      </c>
       <c r="B551" s="6" t="s">
         <v>1100</v>
       </c>
@@ -9980,7 +11018,10 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="2">
+        <v>551</v>
+      </c>
       <c r="B552" s="6" t="s">
         <v>1102</v>
       </c>
@@ -9988,7 +11029,10 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="2">
+        <v>552</v>
+      </c>
       <c r="B553" s="6" t="s">
         <v>1104</v>
       </c>
@@ -9996,7 +11040,10 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="2">
+        <v>553</v>
+      </c>
       <c r="B554" s="6" t="s">
         <v>1106</v>
       </c>
@@ -10004,7 +11051,10 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="2">
+        <v>554</v>
+      </c>
       <c r="B555" s="6" t="s">
         <v>1108</v>
       </c>
@@ -10012,7 +11062,10 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="2">
+        <v>555</v>
+      </c>
       <c r="B556" s="6" t="s">
         <v>1110</v>
       </c>
@@ -10020,7 +11073,10 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="2">
+        <v>556</v>
+      </c>
       <c r="B557" s="6" t="s">
         <v>1112</v>
       </c>
@@ -10028,7 +11084,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="2">
+        <v>557</v>
+      </c>
       <c r="B558" s="6" t="s">
         <v>1114</v>
       </c>
@@ -10036,7 +11095,10 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="2">
+        <v>558</v>
+      </c>
       <c r="B559" s="6" t="s">
         <v>1116</v>
       </c>
@@ -10044,7 +11106,10 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="2">
+        <v>559</v>
+      </c>
       <c r="B560" s="6" t="s">
         <v>1118</v>
       </c>
@@ -10052,7 +11117,10 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="2">
+        <v>560</v>
+      </c>
       <c r="B561" s="6" t="s">
         <v>1120</v>
       </c>
@@ -10060,7 +11128,10 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="2">
+        <v>561</v>
+      </c>
       <c r="B562" s="6" t="s">
         <v>1122</v>
       </c>
@@ -10068,7 +11139,10 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="2">
+        <v>562</v>
+      </c>
       <c r="B563" s="6" t="s">
         <v>1124</v>
       </c>
@@ -10076,7 +11150,10 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="2">
+        <v>563</v>
+      </c>
       <c r="B564" s="6" t="s">
         <v>1126</v>
       </c>
@@ -10084,7 +11161,10 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="2">
+        <v>564</v>
+      </c>
       <c r="B565" s="6" t="s">
         <v>1128</v>
       </c>
@@ -10092,7 +11172,10 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>565</v>
+      </c>
       <c r="B566" s="6" t="s">
         <v>1130</v>
       </c>
@@ -10100,7 +11183,10 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="2">
+        <v>566</v>
+      </c>
       <c r="B567" s="6" t="s">
         <v>1132</v>
       </c>
@@ -10108,7 +11194,10 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="2">
+        <v>567</v>
+      </c>
       <c r="B568" s="6" t="s">
         <v>1134</v>
       </c>
@@ -10116,7 +11205,10 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>568</v>
+      </c>
       <c r="B569" s="6" t="s">
         <v>1136</v>
       </c>
@@ -10124,7 +11216,10 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>569</v>
+      </c>
       <c r="B570" s="6" t="s">
         <v>1138</v>
       </c>
@@ -10132,7 +11227,10 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>570</v>
+      </c>
       <c r="B571" s="6" t="s">
         <v>1140</v>
       </c>
@@ -10140,7 +11238,10 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>571</v>
+      </c>
       <c r="B572" s="6" t="s">
         <v>1142</v>
       </c>
@@ -10148,7 +11249,10 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>572</v>
+      </c>
       <c r="B573" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10156,7 +11260,10 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>573</v>
+      </c>
       <c r="B574" s="6" t="s">
         <v>1146</v>
       </c>
@@ -10164,7 +11271,10 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>574</v>
+      </c>
       <c r="B575" s="6" t="s">
         <v>1148</v>
       </c>
@@ -10172,7 +11282,10 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>575</v>
+      </c>
       <c r="B576" s="6" t="s">
         <v>1150</v>
       </c>
@@ -10180,7 +11293,10 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>576</v>
+      </c>
       <c r="B577" s="6" t="s">
         <v>1152</v>
       </c>
@@ -10188,7 +11304,10 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>577</v>
+      </c>
       <c r="B578" s="6" t="s">
         <v>1154</v>
       </c>
@@ -10196,7 +11315,10 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>578</v>
+      </c>
       <c r="B579" s="6" t="s">
         <v>1156</v>
       </c>
@@ -10204,7 +11326,10 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>579</v>
+      </c>
       <c r="B580" s="6" t="s">
         <v>1158</v>
       </c>
@@ -10212,7 +11337,10 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>580</v>
+      </c>
       <c r="B581" s="6" t="s">
         <v>1160</v>
       </c>
@@ -10220,7 +11348,10 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>581</v>
+      </c>
       <c r="B582" s="6" t="s">
         <v>1162</v>
       </c>
@@ -10228,7 +11359,10 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>582</v>
+      </c>
       <c r="B583" s="6" t="s">
         <v>1164</v>
       </c>
@@ -10236,7 +11370,10 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>583</v>
+      </c>
       <c r="B584" s="6" t="s">
         <v>1166</v>
       </c>
@@ -10244,7 +11381,10 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>584</v>
+      </c>
       <c r="B585" s="6" t="s">
         <v>1168</v>
       </c>
@@ -10252,7 +11392,10 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>585</v>
+      </c>
       <c r="B586" s="6" t="s">
         <v>1170</v>
       </c>
@@ -10260,7 +11403,10 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="2">
+        <v>586</v>
+      </c>
       <c r="B587" s="6" t="s">
         <v>1172</v>
       </c>
@@ -10268,7 +11414,10 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>587</v>
+      </c>
       <c r="B588" s="6" t="s">
         <v>1174</v>
       </c>
@@ -10276,7 +11425,10 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>588</v>
+      </c>
       <c r="B589" s="6" t="s">
         <v>1176</v>
       </c>
@@ -10284,7 +11436,10 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>589</v>
+      </c>
       <c r="B590" s="6" t="s">
         <v>1178</v>
       </c>
@@ -10292,7 +11447,10 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="2">
+        <v>590</v>
+      </c>
       <c r="B591" s="6" t="s">
         <v>1180</v>
       </c>
@@ -10300,7 +11458,10 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="2">
+        <v>591</v>
+      </c>
       <c r="B592" s="6" t="s">
         <v>1182</v>
       </c>
@@ -10308,7 +11469,10 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="2">
+        <v>592</v>
+      </c>
       <c r="B593" s="6" t="s">
         <v>1184</v>
       </c>
@@ -10316,7 +11480,10 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="2">
+        <v>593</v>
+      </c>
       <c r="B594" s="6" t="s">
         <v>1186</v>
       </c>
@@ -10324,7 +11491,10 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="2">
+        <v>594</v>
+      </c>
       <c r="B595" s="6" t="s">
         <v>1188</v>
       </c>
@@ -10332,7 +11502,10 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="2">
+        <v>595</v>
+      </c>
       <c r="B596" s="6" t="s">
         <v>1190</v>
       </c>
@@ -10340,7 +11513,10 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="2">
+        <v>596</v>
+      </c>
       <c r="B597" s="6" t="s">
         <v>1192</v>
       </c>
@@ -10348,7 +11524,10 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="2">
+        <v>597</v>
+      </c>
       <c r="B598" s="6" t="s">
         <v>1194</v>
       </c>
@@ -10356,7 +11535,10 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="2">
+        <v>598</v>
+      </c>
       <c r="B599" s="6" t="s">
         <v>1196</v>
       </c>
@@ -10364,7 +11546,10 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="2">
+        <v>599</v>
+      </c>
       <c r="B600" s="6" t="s">
         <v>1198</v>
       </c>
@@ -10372,7 +11557,10 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="2">
+        <v>600</v>
+      </c>
       <c r="B601" s="6" t="s">
         <v>1200</v>
       </c>
@@ -10380,7 +11568,10 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="2">
+        <v>601</v>
+      </c>
       <c r="B602" s="6" t="s">
         <v>1202</v>
       </c>
@@ -10388,7 +11579,10 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="2">
+        <v>602</v>
+      </c>
       <c r="B603" s="6" t="s">
         <v>1204</v>
       </c>
@@ -10396,7 +11590,10 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="2">
+        <v>603</v>
+      </c>
       <c r="B604" s="6" t="s">
         <v>1206</v>
       </c>
@@ -10404,7 +11601,10 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="2">
+        <v>604</v>
+      </c>
       <c r="B605" s="6" t="s">
         <v>1208</v>
       </c>
@@ -10412,7 +11612,10 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="2">
+        <v>605</v>
+      </c>
       <c r="B606" s="6" t="s">
         <v>1210</v>
       </c>
@@ -10420,7 +11623,10 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>606</v>
+      </c>
       <c r="B607" s="6" t="s">
         <v>1212</v>
       </c>
@@ -10428,7 +11634,10 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="2">
+        <v>607</v>
+      </c>
       <c r="B608" s="6" t="s">
         <v>1214</v>
       </c>
@@ -10436,7 +11645,10 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="2">
+        <v>608</v>
+      </c>
       <c r="B609" s="6" t="s">
         <v>1216</v>
       </c>
@@ -10444,7 +11656,10 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="2">
+        <v>609</v>
+      </c>
       <c r="B610" s="6" t="s">
         <v>1218</v>
       </c>
@@ -10452,7 +11667,10 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="2">
+        <v>610</v>
+      </c>
       <c r="B611" s="6" t="s">
         <v>1220</v>
       </c>
@@ -10460,12 +11678,2716 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="2">
+        <v>611</v>
+      </c>
       <c r="B612" s="6" t="s">
         <v>1222</v>
       </c>
       <c r="C612" s="10" t="s">
         <v>1223</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="2">
+        <v>612</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="2">
+        <v>613</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="2">
+        <v>614</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="2">
+        <v>615</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C616" s="10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="2">
+        <v>616</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="2">
+        <v>617</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="2">
+        <v>618</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="2">
+        <v>619</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="2">
+        <v>620</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="2">
+        <v>621</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>622</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>623</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>624</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>625</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>626</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>627</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C628" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>628</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>629</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>630</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>631</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>632</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>633</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>634</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>635</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>636</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>637</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>638</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>639</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>640</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>641</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="2">
+        <v>642</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="2">
+        <v>643</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="2">
+        <v>644</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>645</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>646</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>647</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C648" s="10" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>648</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>649</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C650" s="10" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>650</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>651</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C652" s="10" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>652</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>653</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C654" s="10" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>654</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>655</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C656" s="10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>656</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>657</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C658" s="10" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>658</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>659</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C660" s="10" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>660</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>661</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C662" s="10" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>662</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>663</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C664" s="10" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>664</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>665</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C666" s="10" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="2">
+        <v>666</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="2">
+        <v>667</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C668" s="10" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="2">
+        <v>668</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="2">
+        <v>669</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C670" s="10" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>670</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>671</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>672</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>673</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C674" s="10" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>674</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>675</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C676" s="10" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>676</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>677</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C678" s="10" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>678</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>679</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C680" s="10" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>680</v>
+      </c>
+      <c r="B681" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>681</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C682" s="10" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>682</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>683</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C684" s="10" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>684</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>685</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C686" s="10" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="2">
+        <v>686</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="2">
+        <v>687</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C688" s="10" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="2">
+        <v>688</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="2">
+        <v>689</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C690" s="10" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="2">
+        <v>690</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="2">
+        <v>691</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C692" s="10" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="2">
+        <v>692</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="2">
+        <v>693</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C694" s="10" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="2">
+        <v>694</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C695" s="10" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="2">
+        <v>695</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C696" s="10" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="2">
+        <v>696</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="2">
+        <v>697</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C698" s="10" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="2">
+        <v>698</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C699" s="10" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="2">
+        <v>699</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C700" s="10" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>700</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="2">
+        <v>701</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C702" s="10" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="2">
+        <v>702</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C703" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="2">
+        <v>703</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C704" s="10" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="2">
+        <v>704</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="2">
+        <v>705</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C706" s="10" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="2">
+        <v>706</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C707" s="10" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="2">
+        <v>707</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C708" s="10" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="2">
+        <v>708</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C709" s="10" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="2">
+        <v>709</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C710" s="10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="2">
+        <v>710</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C711" s="10" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="2">
+        <v>711</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C712" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="2">
+        <v>712</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C713" s="10" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="2">
+        <v>713</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C714" s="10" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="2">
+        <v>714</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C715" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="2">
+        <v>715</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C716" s="10" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="2">
+        <v>716</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C717" s="10" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="2">
+        <v>717</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C718" s="10" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="2">
+        <v>718</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C719" s="10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="2">
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C720" s="10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="2">
+        <v>720</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C721" s="10" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="2">
+        <v>721</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C722" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="2">
+        <v>722</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C723" s="10" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="2">
+        <v>723</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C724" s="10" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="2">
+        <v>724</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C725" s="10" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="2">
+        <v>725</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C726" s="10" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="2">
+        <v>726</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C727" s="10" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="2">
+        <v>727</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C728" s="10" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="2">
+        <v>728</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C729" s="10" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="2">
+        <v>729</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C730" s="10" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="2">
+        <v>730</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C731" s="10" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A732" s="2">
+        <v>731</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C732" s="10" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="2">
+        <v>732</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C733" s="10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="2">
+        <v>733</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C734" s="10" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="2">
+        <v>734</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C735" s="10" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="2">
+        <v>735</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C736" s="10" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="2">
+        <v>736</v>
+      </c>
+      <c r="B737" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="2">
+        <v>737</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C738" s="10" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" s="2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" s="2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" s="2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859" s="2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" s="2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" s="2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864" s="2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" s="2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" s="2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" s="2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" s="2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" s="2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" s="2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" s="2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" s="2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" s="2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" s="2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" s="2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" s="2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" s="2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" s="2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" s="2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" s="2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" s="2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" s="2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" s="2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" s="2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" s="2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" s="2">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" s="2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" s="2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" s="2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" s="2">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" s="2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" s="2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" s="2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" s="2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" s="2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" s="2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" s="2">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" s="2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" s="2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" s="2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" s="2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" s="2">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" s="2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" s="2">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" s="2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" s="2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" s="2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" s="2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" s="2">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" s="2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" s="2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" s="2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" s="2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" s="2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" s="2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" s="2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" s="2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" s="2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" s="2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" s="2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" s="2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" s="2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" s="2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" s="2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" s="2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" s="2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" s="2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" s="2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" s="2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" s="2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" s="2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" s="2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" s="2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" s="2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" s="2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" s="2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" s="2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" s="2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" s="2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" s="2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" s="2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" s="2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" s="2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" s="2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" s="2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" s="2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" s="2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" s="2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" s="2">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" s="2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" s="2">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" s="2">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" s="2">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" s="2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" s="2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" s="2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" s="2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" s="2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" s="2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65C255-57B3-9648-8E1B-E6D9453B3F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB791506-AE67-1B48-A71F-2C7E86F2FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2060" yWindow="-23540" windowWidth="19200" windowHeight="23540" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="11980" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1838">
   <si>
     <t>No.</t>
   </si>
@@ -4461,6 +4461,1092 @@
   </si>
   <si>
     <t>私たちは箱を次々と運ばなければならなかった</t>
+  </si>
+  <si>
+    <t>His interest petered out.</t>
+  </si>
+  <si>
+    <t>彼の興味はだんだん薄れていった</t>
+  </si>
+  <si>
+    <t>Mrs. Williams must bring out the best in her students.</t>
+  </si>
+  <si>
+    <t>ウィリアムズ先生が子供たちの能力を引き出してくれているのだろう</t>
+  </si>
+  <si>
+    <t>新鮮なミントは味を引き立たせる.</t>
+  </si>
+  <si>
+    <t>Fresh mint brings out the flavor.</t>
+  </si>
+  <si>
+    <t>That's what matters.</t>
+  </si>
+  <si>
+    <t>重要なのはそこだよ.</t>
+  </si>
+  <si>
+    <t>to the best of my knowledge.</t>
+  </si>
+  <si>
+    <t>私の知る限りでは</t>
+  </si>
+  <si>
+    <t>I'll do my job to the best of my ability.</t>
+  </si>
+  <si>
+    <t>全力を尽くして頑張ります.</t>
+  </si>
+  <si>
+    <t>She was all done up for the party.</t>
+  </si>
+  <si>
+    <t>彼女はパーティーのために着飾っていた</t>
+  </si>
+  <si>
+    <t>They are getting fired up for the game.</t>
+  </si>
+  <si>
+    <t>試合に向けてみんな気合が入っている</t>
+  </si>
+  <si>
+    <t>They are getting paid under the table.</t>
+  </si>
+  <si>
+    <t>彼らは違法収入を得ている.</t>
+  </si>
+  <si>
+    <t>I can hold my own.</t>
+  </si>
+  <si>
+    <t>自分の力でできる.</t>
+  </si>
+  <si>
+    <t>Please pass on my thanks to the staff.</t>
+  </si>
+  <si>
+    <t>スタッフの皆さんに私からの感謝の気持ちを伝えてください.</t>
+  </si>
+  <si>
+    <t>put things in perspective.</t>
+  </si>
+  <si>
+    <t>物事を広い視野で見る.</t>
+  </si>
+  <si>
+    <t>slowly but surely</t>
+  </si>
+  <si>
+    <t>ゆっくりだけど確実に</t>
+  </si>
+  <si>
+    <t>Don't keep me in suspense.</t>
+  </si>
+  <si>
+    <t>中途半端にしないで</t>
+  </si>
+  <si>
+    <t>I'd choose this one over that.</t>
+  </si>
+  <si>
+    <t>僕ならそれよりもこっちを選ぶよ.</t>
+  </si>
+  <si>
+    <t>I'll take it with a pinch of salt.</t>
+  </si>
+  <si>
+    <t>話半分にして聞いておくよ.</t>
+  </si>
+  <si>
+    <t>I've haerd nothing but good things about you.</t>
+  </si>
+  <si>
+    <t>あなたの評判は常に耳にしていました.</t>
+  </si>
+  <si>
+    <t>I could see nothing but a thick fog.</t>
+  </si>
+  <si>
+    <t>深い霧しか見えなかった.</t>
+  </si>
+  <si>
+    <t>It takes a village to raise a child.</t>
+  </si>
+  <si>
+    <t>子供は社会に育てられるものです.</t>
+  </si>
+  <si>
+    <t>sort out</t>
+  </si>
+  <si>
+    <t>物事を整理する</t>
+  </si>
+  <si>
+    <t>Let's brainstorm ideas.</t>
+  </si>
+  <si>
+    <t>アイディアを出し合ってみようよ.</t>
+  </si>
+  <si>
+    <t>I'm struggling.</t>
+  </si>
+  <si>
+    <t>苦戦しています.</t>
+  </si>
+  <si>
+    <t>I hate to admit it, but…</t>
+  </si>
+  <si>
+    <t>認めたくないけれど</t>
+  </si>
+  <si>
+    <t>I hate to say this, but</t>
+  </si>
+  <si>
+    <t>言いたくないんだけれど</t>
+  </si>
+  <si>
+    <t>He is very intimidating.</t>
+  </si>
+  <si>
+    <t>彼はものすごく威圧的だ.</t>
+  </si>
+  <si>
+    <t>I felt like I was on my back foot throughout the meeting.</t>
+  </si>
+  <si>
+    <t>ミーティング中、終始押され気味の感じだった.</t>
+  </si>
+  <si>
+    <t>Let's raise the roof!</t>
+  </si>
+  <si>
+    <t>盛り上がろう！</t>
+  </si>
+  <si>
+    <t>He's my idol.</t>
+  </si>
+  <si>
+    <t>彼は僕の尊敬する人です.</t>
+  </si>
+  <si>
+    <t>We're off to a good start.</t>
+  </si>
+  <si>
+    <t>滑り出しは好調です.</t>
+  </si>
+  <si>
+    <t>We'll see how it goes.</t>
+  </si>
+  <si>
+    <t>様子を見ましょう.</t>
+  </si>
+  <si>
+    <t>Surprise, surprise!</t>
+  </si>
+  <si>
+    <t>驚いたでしょう！</t>
+  </si>
+  <si>
+    <t>Surprise me.</t>
+  </si>
+  <si>
+    <t>お任せするよ</t>
+  </si>
+  <si>
+    <t>I was deeply affected by his films.</t>
+  </si>
+  <si>
+    <t>彼の映画に深く影響を受けました.</t>
+  </si>
+  <si>
+    <t>It's a great place to relax and gather you throughs</t>
+  </si>
+  <si>
+    <t>リラックスしたり、考え事を整理するのに最適な場所です</t>
+  </si>
+  <si>
+    <t>I have a good excuese.</t>
+  </si>
+  <si>
+    <t>私にはちゃんとした理由があります.</t>
+  </si>
+  <si>
+    <t>Talking in public isn't my strong suit.</t>
+  </si>
+  <si>
+    <t>人前で話すのは苦手.</t>
+  </si>
+  <si>
+    <t>Do you have any requests?</t>
+  </si>
+  <si>
+    <t>何かリクエストはある？</t>
+  </si>
+  <si>
+    <t>Let's put ideas on the table.</t>
+  </si>
+  <si>
+    <t>案を出し合いましょう.</t>
+  </si>
+  <si>
+    <t>There's always room for dessert.</t>
+  </si>
+  <si>
+    <t>甘いものは別腹</t>
+  </si>
+  <si>
+    <t>Don't put him down.</t>
+  </si>
+  <si>
+    <t>彼の悪口をを言わないで</t>
+  </si>
+  <si>
+    <t>Put your phone down.</t>
+  </si>
+  <si>
+    <t>電話を下に置きなさい.</t>
+  </si>
+  <si>
+    <t>The ceremony went off without a hitch.</t>
+  </si>
+  <si>
+    <t>セレモニーは滞りなく進みました.</t>
+  </si>
+  <si>
+    <t>I don't know where to start</t>
+  </si>
+  <si>
+    <t>どこから手をつけたらいいのかわからない.</t>
+  </si>
+  <si>
+    <t>Let's take it down a notch.</t>
+  </si>
+  <si>
+    <t>少し落ち着こうよ</t>
+  </si>
+  <si>
+    <t>We have to kick it up a notch.</t>
+  </si>
+  <si>
+    <t>もう少し本腰を入れないといけないな.</t>
+  </si>
+  <si>
+    <t>He will receive top-notch training.</t>
+  </si>
+  <si>
+    <t>トップレベルのトレーニングが受けられます.</t>
+  </si>
+  <si>
+    <t>She'll gradually get comfortable in her new role.</t>
+  </si>
+  <si>
+    <t>彼女は新しい役割に徐々に慣れるだろう.</t>
+  </si>
+  <si>
+    <t>He keeps me on my toes.</t>
+  </si>
+  <si>
+    <t>彼には油断できない.</t>
+  </si>
+  <si>
+    <t>I can't think of anything at this moment.</t>
+  </si>
+  <si>
+    <t>今は何も思いつきません.</t>
+  </si>
+  <si>
+    <t>I'm at the end of my rope.</t>
+  </si>
+  <si>
+    <t>もうお手上げです.</t>
+  </si>
+  <si>
+    <t>Don't give me a half-hearted response.</t>
+  </si>
+  <si>
+    <t>生返事はしないで</t>
+  </si>
+  <si>
+    <t>Take a little breather.</t>
+  </si>
+  <si>
+    <t>一息つく</t>
+  </si>
+  <si>
+    <t>You should allow yourself plenty of time.</t>
+  </si>
+  <si>
+    <t>時間には十分余裕を持った方がいいよ</t>
+  </si>
+  <si>
+    <t>You have a magic touch.</t>
+  </si>
+  <si>
+    <t>すごい才能だよ.</t>
+  </si>
+  <si>
+    <t>It may take a few hours for the medicine to work its magic.</t>
+  </si>
+  <si>
+    <t>薬の効き目が表れるまでに数時間ほどかかるでしょう</t>
+  </si>
+  <si>
+    <t>Our team came so close to winning the tournament.</t>
+  </si>
+  <si>
+    <t>私たちのチームは優勝まであと一歩のところだった</t>
+  </si>
+  <si>
+    <t>It went viral on YouTube.</t>
+  </si>
+  <si>
+    <t>YouTubeで大きな話題になった. /炎上した.</t>
+  </si>
+  <si>
+    <t>pick a date and time</t>
+  </si>
+  <si>
+    <t>日にちと時間を決める</t>
+  </si>
+  <si>
+    <t>How dare you!</t>
+  </si>
+  <si>
+    <t>よくそんなことができたよ.</t>
+  </si>
+  <si>
+    <t>He's always on my case.</t>
+  </si>
+  <si>
+    <t>父はいつも僕にうるさく干渉します.</t>
+  </si>
+  <si>
+    <t>No news is good news.</t>
+  </si>
+  <si>
+    <t>頼りのないのは良い便り</t>
+  </si>
+  <si>
+    <t>予算の一括引き下げが必要です.</t>
+  </si>
+  <si>
+    <t>We need across-the-board budget cuts.</t>
+  </si>
+  <si>
+    <t>I must have pocket dialed you.</t>
+  </si>
+  <si>
+    <t>間違えてうっかり電話かけちゃったみたい.</t>
+  </si>
+  <si>
+    <t>I'm planning to take a break from acting.</t>
+  </si>
+  <si>
+    <t>俳優業を一時休止する予定です.</t>
+  </si>
+  <si>
+    <t>We're heading in the right direction.</t>
+  </si>
+  <si>
+    <t>方角は合っています.</t>
+  </si>
+  <si>
+    <t>引き返しましょう</t>
+  </si>
+  <si>
+    <t>Let's double back.</t>
+  </si>
+  <si>
+    <t>I'm visiting my long-lost father.</t>
+  </si>
+  <si>
+    <t>長いこと音信不通の父親に会いにいくんだ.</t>
+  </si>
+  <si>
+    <t>It's called a chain reaction.</t>
+  </si>
+  <si>
+    <t>それを連鎖反応と呼びます.</t>
+  </si>
+  <si>
+    <t>I'm low on gas.</t>
+  </si>
+  <si>
+    <t>ガソリンがもう残り少ない.</t>
+  </si>
+  <si>
+    <t>Bring a few extra.</t>
+  </si>
+  <si>
+    <t>少し多めに持ってきて</t>
+  </si>
+  <si>
+    <t>We went through them all so quickly.</t>
+  </si>
+  <si>
+    <t>あっという間に全部使い切っちゃったよ</t>
+  </si>
+  <si>
+    <t>Did you go through all the drawers?</t>
+  </si>
+  <si>
+    <t>引き出しの中は全部探してみた？</t>
+  </si>
+  <si>
+    <t>This could be a game changer.</t>
+  </si>
+  <si>
+    <t>これで大逆転を狙えるかもしれない.</t>
+  </si>
+  <si>
+    <t>We were caught in a gridlock on the highway.</t>
+  </si>
+  <si>
+    <t>高速で渋滞にハマってしまった.</t>
+  </si>
+  <si>
+    <t>May I put you on hold, please?</t>
+  </si>
+  <si>
+    <t>少々お持ちください.</t>
+  </si>
+  <si>
+    <t>You've got my vote.</t>
+  </si>
+  <si>
+    <t>私はあなたに賛成です.</t>
+  </si>
+  <si>
+    <t>I hear a big storm is rolling in.</t>
+  </si>
+  <si>
+    <t>大きな嵐が来ているらしい.</t>
+  </si>
+  <si>
+    <t>I reconnected with him recently.</t>
+  </si>
+  <si>
+    <t>あいつと最近また連絡を取るようになった.</t>
+  </si>
+  <si>
+    <t>I was tossing and turning till 4 am.</t>
+  </si>
+  <si>
+    <t>朝4時まで寝付けなかった.</t>
+  </si>
+  <si>
+    <t>She's a people-person.</t>
+  </si>
+  <si>
+    <t>彼女は人付き合いが得意だ.</t>
+  </si>
+  <si>
+    <t>I'd like to extend my thanks to all my friends.</t>
+  </si>
+  <si>
+    <t>全ての友人たちに感謝の意を表します.</t>
+  </si>
+  <si>
+    <t>I'm the point of contact.</t>
+  </si>
+  <si>
+    <t>私が連絡窓口となっている.</t>
+  </si>
+  <si>
+    <t>Is he lip-syncing?</t>
+  </si>
+  <si>
+    <t>くちパクしてない？</t>
+  </si>
+  <si>
+    <t>I just have to power through tonight.</t>
+  </si>
+  <si>
+    <t>今夜は頑張ってやるしかない.</t>
+  </si>
+  <si>
+    <t>You're my go-to person.</t>
+  </si>
+  <si>
+    <t>頼りになるね. / 詳しい</t>
+  </si>
+  <si>
+    <t>Can you scooch over a bit?</t>
+  </si>
+  <si>
+    <t>ちょっと詰めてくれる？</t>
+  </si>
+  <si>
+    <t>What did I tell you?</t>
+  </si>
+  <si>
+    <t>だから言ったでしょ.</t>
+  </si>
+  <si>
+    <t>We part ways on this issue.</t>
+  </si>
+  <si>
+    <t>この件では意見が食い違う.</t>
+  </si>
+  <si>
+    <t>At first glance</t>
+  </si>
+  <si>
+    <t>一見すると</t>
+  </si>
+  <si>
+    <t>mix business with pleasure</t>
+  </si>
+  <si>
+    <t>仕事と遊びを混同する</t>
+  </si>
+  <si>
+    <t>Six, includeing myself</t>
+  </si>
+  <si>
+    <t>僕も入れて6人</t>
+  </si>
+  <si>
+    <t>They work like a charm.</t>
+  </si>
+  <si>
+    <t>見事なほどに効く</t>
+  </si>
+  <si>
+    <t>Thank you for the reminder.</t>
+  </si>
+  <si>
+    <t>お知らせありがとう.</t>
+  </si>
+  <si>
+    <t>How so?</t>
+  </si>
+  <si>
+    <t>どうしてそう思うの？</t>
+  </si>
+  <si>
+    <t>I'm on my way out.</t>
+  </si>
+  <si>
+    <t>今出るところです.</t>
+  </si>
+  <si>
+    <t>We've been playing phone-tag.</t>
+  </si>
+  <si>
+    <t>電話してもお互いすれ違いが続いているんです.</t>
+  </si>
+  <si>
+    <t>You're making too much of it.</t>
+  </si>
+  <si>
+    <t>大袈裟だよ. / 騒ぎ過ぎだよ</t>
+  </si>
+  <si>
+    <t>go down the drain</t>
+  </si>
+  <si>
+    <t>水の泡になる</t>
+  </si>
+  <si>
+    <t>have the upper hand</t>
+  </si>
+  <si>
+    <t>優勢である.</t>
+  </si>
+  <si>
+    <t>on a scale from 1 to 10</t>
+  </si>
+  <si>
+    <t>10点満点で点数をつけるなら</t>
+  </si>
+  <si>
+    <t>The offer is off the table.</t>
+  </si>
+  <si>
+    <t>オファーは取り下げられたよ.</t>
+  </si>
+  <si>
+    <t>I have to put food on the table.</t>
+  </si>
+  <si>
+    <t>家族を養って行かなくちゃならないんだ.</t>
+  </si>
+  <si>
+    <t>Sorry for losing touch.</t>
+  </si>
+  <si>
+    <t>音信不通にしてしまってごめん.</t>
+  </si>
+  <si>
+    <t>I'm due for a haircut.</t>
+  </si>
+  <si>
+    <t>そろそろ髪を切らなくちゃ.</t>
+  </si>
+  <si>
+    <t>That says it all.</t>
+  </si>
+  <si>
+    <t>それが全てを物語っている.</t>
+  </si>
+  <si>
+    <t>next to nothing</t>
+  </si>
+  <si>
+    <t>ただ同然に/ほとんどないのと同じ</t>
+  </si>
+  <si>
+    <t>I forgot my PIN number.</t>
+  </si>
+  <si>
+    <t>暗証番号忘れちゃった.</t>
+  </si>
+  <si>
+    <t>He's desperate.</t>
+  </si>
+  <si>
+    <t>あいつ必死だよ. / 切羽詰ってる.</t>
+  </si>
+  <si>
+    <t>catch a cold.</t>
+  </si>
+  <si>
+    <t>風邪を引く.</t>
+  </si>
+  <si>
+    <t>Did you patch things up with her?</t>
+  </si>
+  <si>
+    <t>彼女と仲直りしたの？</t>
+  </si>
+  <si>
+    <t>work in your favor</t>
+  </si>
+  <si>
+    <t>君に有利に働く</t>
+  </si>
+  <si>
+    <t>I can never thank you enough.</t>
+  </si>
+  <si>
+    <t>お礼のしようもない. / 感謝してもしきれない.</t>
+  </si>
+  <si>
+    <t>The weather has been unsettled.</t>
+  </si>
+  <si>
+    <t>不安定な天気が続いている</t>
+  </si>
+  <si>
+    <t>It's nice gesture.</t>
+  </si>
+  <si>
+    <t>気が効くね. / 親切だね</t>
+  </si>
+  <si>
+    <t>Don't leave me hanging.</t>
+  </si>
+  <si>
+    <t>待たせっぱなしにしないで</t>
+  </si>
+  <si>
+    <t>It's been hectic all week.</t>
+  </si>
+  <si>
+    <t>今週はめちゃくちゃ忙しい</t>
+  </si>
+  <si>
+    <t>They decided to call off the game.</t>
+  </si>
+  <si>
+    <t>彼らは試合を中止することにした.</t>
+  </si>
+  <si>
+    <t>They are very compatible.</t>
+  </si>
+  <si>
+    <t>彼らはすごく相性がいい.</t>
+  </si>
+  <si>
+    <t>It was good overall.</t>
+  </si>
+  <si>
+    <t>概ね良かった</t>
+  </si>
+  <si>
+    <t>Apparently.</t>
+  </si>
+  <si>
+    <t>そうらしいね.</t>
+  </si>
+  <si>
+    <t>I'm so clumsy.</t>
+  </si>
+  <si>
+    <t>私とってもおっちょこちょいなんです.</t>
+  </si>
+  <si>
+    <t>It was easy as pie.</t>
+  </si>
+  <si>
+    <t>楽勝だった./朝飯前だったよ.</t>
+  </si>
+  <si>
+    <t>It's a piece of cake.</t>
+  </si>
+  <si>
+    <t>楽勝だよ./朝飯前だよ.</t>
+  </si>
+  <si>
+    <t>You got bangs.</t>
+  </si>
+  <si>
+    <t>前髪を作ったんだね.</t>
+  </si>
+  <si>
+    <t>I was frightnened.</t>
+  </si>
+  <si>
+    <t>私はギョッとした.</t>
+  </si>
+  <si>
+    <t>Don't get discouraged.</t>
+  </si>
+  <si>
+    <t>めげないで</t>
+  </si>
+  <si>
+    <t>dress as 〜</t>
+  </si>
+  <si>
+    <t>〜のような服を着る/〜の格好をする</t>
+  </si>
+  <si>
+    <t>I have no luck with the weather.</t>
+  </si>
+  <si>
+    <t>雨男、女なんです</t>
+  </si>
+  <si>
+    <t>What's cooking?</t>
+  </si>
+  <si>
+    <t>どんな準備をしているの？（料理以外の企画なども）</t>
+  </si>
+  <si>
+    <t>frightnening fact</t>
+  </si>
+  <si>
+    <t>恐ろしい事実</t>
+  </si>
+  <si>
+    <t>I just played along with him.</t>
+  </si>
+  <si>
+    <t>彼の話に合わせておいたよ</t>
+  </si>
+  <si>
+    <t>This calls for a celebration.</t>
+  </si>
+  <si>
+    <t>これはお祝いしなくちゃ.</t>
+  </si>
+  <si>
+    <t>It's not that simple.</t>
+  </si>
+  <si>
+    <t>そんな簡単にはいかない</t>
+  </si>
+  <si>
+    <t>It's complicated.</t>
+  </si>
+  <si>
+    <t>複雑なんだ/色々あるんだ</t>
+  </si>
+  <si>
+    <t>Maybe, maybe not.</t>
+  </si>
+  <si>
+    <t>そうかもしれないし、そうじゃないかもしれない.</t>
+  </si>
+  <si>
+    <t>How can I repay you?</t>
+  </si>
+  <si>
+    <t>どのようにお返ししたらいいでしょうか？</t>
+  </si>
+  <si>
+    <t>She has tunnel vision.</t>
+  </si>
+  <si>
+    <t>彼女は視野が狭い</t>
+  </si>
+  <si>
+    <t>Don't fly off the handle.</t>
+  </si>
+  <si>
+    <t>カッとならないで.</t>
+  </si>
+  <si>
+    <t>They're flying off the shelves.</t>
+  </si>
+  <si>
+    <t>それは飛ぶように売れています.</t>
+  </si>
+  <si>
+    <t>We have to scale back the budget.</t>
+  </si>
+  <si>
+    <t>予算を縮小しなければならない.</t>
+  </si>
+  <si>
+    <t>I just got in.</t>
+  </si>
+  <si>
+    <t>今着いたところ</t>
+  </si>
+  <si>
+    <t>It was a hassle.</t>
+  </si>
+  <si>
+    <t>大変だったよ.</t>
+  </si>
+  <si>
+    <t>I've learned a lot.</t>
+  </si>
+  <si>
+    <t>とっても勉強になった.</t>
+  </si>
+  <si>
+    <t>It was a painful to watch him walk away.</t>
+  </si>
+  <si>
+    <t>立ち去る彼を見るのが辛かった.</t>
+  </si>
+  <si>
+    <t>I took the liberty of ordering you another drink.</t>
+  </si>
+  <si>
+    <t>勝手に2杯目頼んじゃった.</t>
+  </si>
+  <si>
+    <t>I'll support you wholeheartedly.</t>
+  </si>
+  <si>
+    <t>心からサポートするよ.</t>
+  </si>
+  <si>
+    <t>His heart is in the right place.</t>
+  </si>
+  <si>
+    <t>彼は根はいい人です</t>
+  </si>
+  <si>
+    <t>It hasn't always been easy.</t>
+  </si>
+  <si>
+    <t>楽なことばかりではなかった.</t>
+  </si>
+  <si>
+    <t>I don't have cash on hand today.</t>
+  </si>
+  <si>
+    <t>今日は現金の持ち合わせがありません.</t>
+  </si>
+  <si>
+    <t>I'm glad to be part of the team.</t>
+  </si>
+  <si>
+    <t>チームの一員であることが嬉しいです.</t>
+  </si>
+  <si>
+    <t>I get impatient when I'm hungry.</t>
+  </si>
+  <si>
+    <t>お腹が空くとイライラする.</t>
+  </si>
+  <si>
+    <t>I'd be happy to help you.</t>
+  </si>
+  <si>
+    <t>喜んでお手伝いしますよ.</t>
+  </si>
+  <si>
+    <t>She's well on her way to becoming a star.</t>
+  </si>
+  <si>
+    <t>彼女はスターへの階段を着々とのぼっています</t>
+  </si>
+  <si>
+    <t>It hasn't sunk in yet.</t>
+  </si>
+  <si>
+    <t>まだ実感がわかないです.</t>
+  </si>
+  <si>
+    <t>He's very particular about ramen.</t>
+  </si>
+  <si>
+    <t>彼はラーメンにはかなりこだわりがある.</t>
+  </si>
+  <si>
+    <t>Let's get the show on the road.</t>
+  </si>
+  <si>
+    <t>さあ、始めましょう.</t>
+  </si>
+  <si>
+    <t>She means well.</t>
+  </si>
+  <si>
+    <t>彼女は良かれと思ってやっている./悪気はない.</t>
+  </si>
+  <si>
+    <t>We're walk-in only.</t>
+  </si>
+  <si>
+    <t>予約は受け付けていません.</t>
+  </si>
+  <si>
+    <t>I appreciate your friendship.</t>
+  </si>
+  <si>
+    <t>友達でいてくれてありがとう.</t>
+  </si>
+  <si>
+    <t>My patience is wearing thin.</t>
+  </si>
+  <si>
+    <t>そろそろ我慢の限界だ.</t>
+  </si>
+  <si>
+    <t>He was a no-show.</t>
+  </si>
+  <si>
+    <t>彼はドタキャンだった.</t>
+  </si>
+  <si>
+    <t>It's a no-go.</t>
+  </si>
+  <si>
+    <t>それは中止になった.</t>
+  </si>
+  <si>
+    <t>out of respect for</t>
+  </si>
+  <si>
+    <t>〜を配慮して/敬意を払って</t>
+  </si>
+  <si>
+    <t>He's turned the corner.</t>
+  </si>
+  <si>
+    <t>彼は峠を越した.</t>
+  </si>
+  <si>
+    <t>How do you spell your name?</t>
+  </si>
+  <si>
+    <t>名前の綴りを教えてください.</t>
+  </si>
+  <si>
+    <t>I clicked with him.</t>
+  </si>
+  <si>
+    <t>彼と意気投合した.</t>
+  </si>
+  <si>
+    <t>one after another</t>
+  </si>
+  <si>
+    <t>次々と/相次いで</t>
+  </si>
+  <si>
+    <t>I feel a sense of acomplishment.</t>
+  </si>
+  <si>
+    <t>達成感を感じる.</t>
+  </si>
+  <si>
+    <t>My emotions were running high.</t>
+  </si>
+  <si>
+    <t>私は感情が高まっていた.</t>
+  </si>
+  <si>
+    <t>She can't be trusted.</t>
+  </si>
+  <si>
+    <t>彼女は信用できない.</t>
+  </si>
+  <si>
+    <t>Can I trust you?</t>
+  </si>
+  <si>
+    <t>信用してもいい？</t>
+  </si>
+  <si>
+    <t>I've earned enough points.</t>
+  </si>
+  <si>
+    <t>ポイントが貯まった</t>
+  </si>
+  <si>
+    <t>He's modest about his success.</t>
+  </si>
+  <si>
+    <t>彼は自分の成功に対して謙虚だ.</t>
+  </si>
+  <si>
+    <t>I'm going to stock up on bottled water.</t>
+  </si>
+  <si>
+    <t>水を買いだめしておこう.</t>
+  </si>
+  <si>
+    <t>I'm useless in the kitchen.</t>
+  </si>
+  <si>
+    <t>料理は苦手なんです.</t>
+  </si>
+  <si>
+    <t>（飲み物を）新しく入れ直すよ.</t>
+  </si>
+  <si>
+    <t>I'll freshen up your drink.</t>
+  </si>
+  <si>
+    <t>I'll freshen up.</t>
+  </si>
+  <si>
+    <t>さっぱりしてくるよ./シャワーを浴びてくるよ/化粧を直してくる</t>
+  </si>
+  <si>
+    <t>chew with your mouth closed</t>
+  </si>
+  <si>
+    <t>口を閉じて噛む.</t>
+  </si>
+  <si>
+    <t>watch over</t>
+  </si>
+  <si>
+    <t>見守る</t>
+  </si>
+  <si>
+    <t>astonished</t>
+  </si>
+  <si>
+    <t>驚いてしまう</t>
+  </si>
+  <si>
+    <t>It was a bit awkward.</t>
+  </si>
+  <si>
+    <t>ちょっと気まずかった.</t>
   </si>
 </sst>
 </file>
@@ -4882,8 +5968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C738" sqref="C738"/>
+    <sheetView tabSelected="1" topLeftCell="A905" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B920" sqref="B920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13079,948 +14165,2034 @@
       <c r="A739" s="2">
         <v>738</v>
       </c>
+      <c r="B739" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C739" s="10" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>739</v>
       </c>
+      <c r="B740" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C740" s="10" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>740</v>
       </c>
+      <c r="B741" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>741</v>
       </c>
+      <c r="B742" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C742" s="10" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>742</v>
       </c>
+      <c r="B743" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C743" s="10" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>743</v>
       </c>
+      <c r="B744" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C744" s="10" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>744</v>
       </c>
+      <c r="B745" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C745" s="10" t="s">
+        <v>1489</v>
+      </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>745</v>
       </c>
+      <c r="B746" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C746" s="10" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>746</v>
       </c>
+      <c r="B747" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C747" s="10" t="s">
+        <v>1493</v>
+      </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>747</v>
       </c>
+      <c r="B748" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C748" s="10" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>748</v>
       </c>
+      <c r="B749" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C749" s="10" t="s">
+        <v>1497</v>
+      </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>749</v>
       </c>
+      <c r="B750" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C750" s="10" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>750</v>
       </c>
+      <c r="B751" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C751" s="10" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>751</v>
       </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B752" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C752" s="10" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>752</v>
       </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B753" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>753</v>
       </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B754" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C754" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>754</v>
       </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B755" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C755" s="10" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>755</v>
       </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B756" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C756" s="10" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>756</v>
       </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B757" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C757" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>757</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B758" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>758</v>
       </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B759" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C759" s="10" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>759</v>
       </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B760" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C760" s="10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>760</v>
       </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B761" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C761" s="10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>761</v>
       </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B762" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C762" s="10" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>762</v>
       </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B763" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C763" s="10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>763</v>
       </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B764" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C764" s="10" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>764</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B765" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C765" s="10" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>765</v>
       </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B766" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C766" s="10" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>766</v>
       </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B767" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C767" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>767</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B768" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C768" s="10" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>768</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B769" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C769" s="10" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>769</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B770" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C770" s="10" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>770</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B771" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C771" s="10" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <v>771</v>
       </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B772" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C772" s="10" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <v>772</v>
       </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B773" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C773" s="10" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <v>773</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B774" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C774" s="10" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <v>774</v>
       </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B775" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>775</v>
       </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B776" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C776" s="10" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <v>776</v>
       </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B777" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C777" s="10" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <v>777</v>
       </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B778" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C778" s="10" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <v>778</v>
       </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B779" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C779" s="10" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>779</v>
       </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B780" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C780" s="10" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B781" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C781" s="10" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <v>781</v>
       </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B782" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C782" s="10" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <v>782</v>
       </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B783" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C783" s="10" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <v>783</v>
       </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B784" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C784" s="10" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <v>784</v>
       </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B785" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C785" s="10" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <v>785</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B786" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C786" s="10" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <v>786</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B787" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C787" s="10" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <v>787</v>
       </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B788" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C788" s="10" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <v>788</v>
       </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B789" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C789" s="10" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <v>789</v>
       </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B790" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C790" s="10" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <v>790</v>
       </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B791" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C791" s="10" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <v>791</v>
       </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B792" s="6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C792" s="10" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <v>792</v>
       </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B793" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C793" s="10" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <v>793</v>
       </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B794" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C794" s="10" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>794</v>
       </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B795" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>795</v>
       </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B796" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <v>796</v>
       </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B797" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C797" s="10" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <v>797</v>
       </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B798" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C798" s="10" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>798</v>
       </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B799" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C799" s="10" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <v>799</v>
       </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B800" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C800" s="10" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B801" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C801" s="10" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <v>801</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B802" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C802" s="10" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <v>802</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B803" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C803" s="10" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <v>803</v>
       </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B804" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C804" s="10" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>804</v>
       </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B805" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C805" s="10" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>805</v>
       </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B806" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C806" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>806</v>
       </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B807" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C807" s="10" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>807</v>
       </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B808" s="6" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <v>808</v>
       </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B809" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C809" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
         <v>809</v>
       </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B810" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
         <v>810</v>
       </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B811" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C811" s="10" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
         <v>811</v>
       </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B812" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C812" s="10" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
         <v>812</v>
       </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B813" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C813" s="10" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
         <v>813</v>
       </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B814" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C814" s="10" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <v>814</v>
       </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B815" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C815" s="10" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
         <v>815</v>
       </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B816" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C816" s="10" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>816</v>
       </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B817" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>817</v>
       </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B818" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C818" s="10" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <v>818</v>
       </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B819" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C819" s="10" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <v>819</v>
       </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B820" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C820" s="10" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <v>820</v>
       </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B821" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>821</v>
       </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B822" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C822" s="10" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>822</v>
       </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B823" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C823" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>823</v>
       </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B824" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C824" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>824</v>
       </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B825" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C825" s="10" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>825</v>
       </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B826" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C826" s="10" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>826</v>
       </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B827" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C827" s="10" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>827</v>
       </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B828" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B829" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C829" s="10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>829</v>
       </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B830" s="6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C830" s="10" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>830</v>
       </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B831" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C831" s="10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>831</v>
       </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B832" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C832" s="10" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <v>832</v>
       </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B833" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C833" s="10" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <v>833</v>
       </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B834" s="6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C834" s="10" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <v>834</v>
       </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B835" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>835</v>
       </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B836" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C836" s="10" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>836</v>
       </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B837" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C837" s="10" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <v>837</v>
       </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B838" s="6" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C838" s="10" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <v>838</v>
       </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B839" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C839" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>839</v>
       </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B840" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C840" s="10" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
         <v>840</v>
       </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B841" s="6" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C841" s="10" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
         <v>841</v>
       </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B842" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C842" s="10" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>842</v>
       </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B843" s="6" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C843" s="10" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
         <v>843</v>
       </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B844" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>844</v>
       </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B845" s="6" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C845" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
         <v>845</v>
       </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B846" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C846" s="10" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
         <v>846</v>
       </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B847" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C847" s="10" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
         <v>847</v>
       </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B848" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C848" s="10" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
         <v>848</v>
       </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B849" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C849" s="10" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>849</v>
       </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B850" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C850" s="10" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
         <v>850</v>
       </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B851" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C851" s="10" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
         <v>851</v>
       </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B852" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C852" s="10" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>852</v>
       </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B853" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C853" s="10" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
         <v>853</v>
       </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B854" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C854" s="10" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
         <v>854</v>
       </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B855" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B856" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C856" s="10" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
         <v>856</v>
       </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B857" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C857" s="10" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
         <v>857</v>
       </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B858" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C858" s="10" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
         <v>858</v>
       </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B859" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C859" s="10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
         <v>859</v>
       </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B860" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C860" s="10" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
         <v>860</v>
       </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B861" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C861" s="10" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
         <v>861</v>
       </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B862" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C862" s="10" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
         <v>862</v>
       </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B863" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C863" s="10" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
         <v>863</v>
       </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B864" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C864" s="10" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>864</v>
       </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B865" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C865" s="10" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
         <v>865</v>
       </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B866" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B867" s="6" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C867" s="10" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="2">
         <v>867</v>
       </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B868" s="6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C868" s="10" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="2">
         <v>868</v>
       </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B869" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C869" s="10" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
         <v>869</v>
       </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B870" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C870" s="10" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
         <v>870</v>
       </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B871" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C871" s="10" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
         <v>871</v>
       </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B872" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
         <v>872</v>
       </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B873" s="6" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C873" s="10" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>873</v>
       </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B874" s="6" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C874" s="10" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
         <v>874</v>
       </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B875" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C875" s="10" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
         <v>875</v>
       </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B876" s="6" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C876" s="10" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
         <v>876</v>
       </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B877" s="6" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C877" s="10" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
         <v>877</v>
       </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B878" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C878" s="10" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
         <v>878</v>
       </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B879" s="6" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C879" s="10" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B880" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C880" s="10" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
         <v>880</v>
       </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B881" s="6" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C881" s="10" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="2">
         <v>881</v>
       </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B882" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C882" s="10" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>882</v>
       </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B883" s="6" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C883" s="10" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>883</v>
       </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B884" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C884" s="10" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>884</v>
       </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B885" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C885" s="10" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>885</v>
       </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B886" s="6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C886" s="10" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>886</v>
       </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B887" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C887" s="10" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>887</v>
       </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B888" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C888" s="10" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>888</v>
       </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B889" s="6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C889" s="10" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>889</v>
       </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B890" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C890" s="10" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>890</v>
       </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B891" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C891" s="10" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>891</v>
       </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B892" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C892" s="10" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>892</v>
       </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B893" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C893" s="10" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>893</v>
       </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B894" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C894" s="10" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>894</v>
       </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B895" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C895" s="10" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>895</v>
       </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B896" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C896" s="10" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>896</v>
       </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B897" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C897" s="10" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>897</v>
       </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B898" s="6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C898" s="10" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>898</v>
       </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B899" s="6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C899" s="10" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>899</v>
       </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B900" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C900" s="10" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B901" s="6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C901" s="10" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
         <v>901</v>
       </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B902" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C902" s="10" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
         <v>902</v>
       </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B903" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C903" s="10" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
         <v>903</v>
       </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B904" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C904" s="10" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
         <v>904</v>
       </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B905" s="6" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C905" s="10" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
         <v>905</v>
       </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B906" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C906" s="10" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
         <v>906</v>
       </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B907" s="6" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C907" s="10" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
         <v>907</v>
       </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B908" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C908" s="10" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B909" s="6" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C909" s="10" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
         <v>909</v>
       </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B910" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C910" s="10" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B911" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C911" s="10" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
         <v>911</v>
       </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B912" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C912" s="10" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
         <v>912</v>
       </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B913" s="6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C913" s="10" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
         <v>913</v>
       </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B914" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C914" s="10" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>914</v>
       </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B915" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C915" s="10" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
         <v>915</v>
       </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B916" s="6" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C916" s="10" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
         <v>916</v>
       </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B917" s="6" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C917" s="10" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B918" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C918" s="10" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" s="2">
         <v>918</v>
       </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B919" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C919" s="10" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" s="2">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" s="2">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" s="2">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" s="2">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" s="2">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" s="2">
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" s="2">
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" s="2">
         <v>927</v>
       </c>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB791506-AE67-1B48-A71F-2C7E86F2FE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83325D3C-202A-4C40-80B3-DBE9E799E001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="8440" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="2000">
   <si>
     <t>No.</t>
   </si>
@@ -5547,6 +5547,492 @@
   </si>
   <si>
     <t>ちょっと気まずかった.</t>
+  </si>
+  <si>
+    <t>We're coming down to the wire.</t>
+  </si>
+  <si>
+    <t>いよいよ大詰め</t>
+  </si>
+  <si>
+    <t>You're on thin ice.</t>
+  </si>
+  <si>
+    <t>首の皮一枚でつながっている.</t>
+  </si>
+  <si>
+    <t>laser-focused</t>
+  </si>
+  <si>
+    <t>1つのことに集中する.</t>
+  </si>
+  <si>
+    <t>You're burning up!</t>
+  </si>
+  <si>
+    <t>すごい熱！</t>
+  </si>
+  <si>
+    <t>rush into 〜</t>
+  </si>
+  <si>
+    <t>早まって〜する</t>
+  </si>
+  <si>
+    <t>as a peace offering</t>
+  </si>
+  <si>
+    <t>仲直りのしるしに</t>
+  </si>
+  <si>
+    <t>get the most bang for our buck</t>
+  </si>
+  <si>
+    <t>費用に見合う最高の価値を得る</t>
+  </si>
+  <si>
+    <t>Let's send out for pizza.</t>
+  </si>
+  <si>
+    <t>ピザのデリバリーを頼もう</t>
+  </si>
+  <si>
+    <t>You should spoil yourself sometime.</t>
+  </si>
+  <si>
+    <t>贅沢する</t>
+  </si>
+  <si>
+    <t>I'm going to treat myself to a foot massage.</t>
+  </si>
+  <si>
+    <t>自分へのご褒美に足マッサージに行く.</t>
+  </si>
+  <si>
+    <t>runny eggs.</t>
+  </si>
+  <si>
+    <t>半熟卵</t>
+  </si>
+  <si>
+    <t>over ice.</t>
+  </si>
+  <si>
+    <t>氷と一緒に</t>
+  </si>
+  <si>
+    <t>heat up</t>
+  </si>
+  <si>
+    <t>温める</t>
+  </si>
+  <si>
+    <t>junk food</t>
+  </si>
+  <si>
+    <t>体に悪い食べ物</t>
+  </si>
+  <si>
+    <t>I completely agree with you.</t>
+  </si>
+  <si>
+    <t>全くあなたに同感です</t>
+  </si>
+  <si>
+    <t>clam up</t>
+  </si>
+  <si>
+    <t>緊張して固まる</t>
+  </si>
+  <si>
+    <t>stuff my face</t>
+  </si>
+  <si>
+    <t>たくさん食べる</t>
+  </si>
+  <si>
+    <t>old-fashinoned</t>
+  </si>
+  <si>
+    <t>時代遅れ</t>
+  </si>
+  <si>
+    <t>have bigger fish to fry</t>
+  </si>
+  <si>
+    <t>もっと大切なことがある.</t>
+  </si>
+  <si>
+    <t>go to bed with the chickens</t>
+  </si>
+  <si>
+    <t>早寝をする</t>
+  </si>
+  <si>
+    <t>birthday suit</t>
+  </si>
+  <si>
+    <t>生まれたままの格好/裸で</t>
+  </si>
+  <si>
+    <t>two peas in a pod</t>
+  </si>
+  <si>
+    <t>そっくり</t>
+  </si>
+  <si>
+    <t>She stormed off</t>
+  </si>
+  <si>
+    <t>彼女、怒って出て行っちゃったんだ.</t>
+  </si>
+  <si>
+    <t>light of my life</t>
+  </si>
+  <si>
+    <t>心の支え</t>
+  </si>
+  <si>
+    <t>It's such a hassle.</t>
+  </si>
+  <si>
+    <t>それはとっても面倒だ.</t>
+  </si>
+  <si>
+    <t>sitting pretty</t>
+  </si>
+  <si>
+    <t>苦労を知らない.</t>
+  </si>
+  <si>
+    <t>Where do the rumors come from?</t>
+  </si>
+  <si>
+    <t>噂はどこからくるのか？</t>
+  </si>
+  <si>
+    <t>He went to great lengths to get that job.</t>
+  </si>
+  <si>
+    <t>彼はその仕事を得るために相当努力をした.</t>
+  </si>
+  <si>
+    <t>clear choice</t>
+  </si>
+  <si>
+    <t>明確な選択</t>
+  </si>
+  <si>
+    <t>beat the clock</t>
+  </si>
+  <si>
+    <t>時間内に終わらせる</t>
+  </si>
+  <si>
+    <t>wet blanket</t>
+  </si>
+  <si>
+    <t>雰囲気を壊す人</t>
+  </si>
+  <si>
+    <t>walking on air</t>
+  </si>
+  <si>
+    <t>とても幸せな気分</t>
+  </si>
+  <si>
+    <t>Could you lend a hand?</t>
+  </si>
+  <si>
+    <t>手伝ってもらえますか？</t>
+  </si>
+  <si>
+    <t>early bird</t>
+  </si>
+  <si>
+    <t>早起きの人</t>
+  </si>
+  <si>
+    <t>carry the ball</t>
+  </si>
+  <si>
+    <t>責任を持つ</t>
+  </si>
+  <si>
+    <t>mishmash</t>
+  </si>
+  <si>
+    <t>ごちゃ混ぜ</t>
+  </si>
+  <si>
+    <t>She's getting panicky.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彼女は焦ってアタフタしてきている </t>
+  </si>
+  <si>
+    <t>chicken feed</t>
+  </si>
+  <si>
+    <t>少額のお金</t>
+  </si>
+  <si>
+    <t>rush hour</t>
+  </si>
+  <si>
+    <t>渋滞の時間帯</t>
+  </si>
+  <si>
+    <t>like pulling teeth</t>
+  </si>
+  <si>
+    <t>困難を極める</t>
+  </si>
+  <si>
+    <t>I'm as blind as a bat without glasses.</t>
+  </si>
+  <si>
+    <t>メガネがないと何も見えない</t>
+  </si>
+  <si>
+    <t>I missed the last part of the show.</t>
+  </si>
+  <si>
+    <t>番組の最後を見逃した</t>
+  </si>
+  <si>
+    <t>get creative</t>
+  </si>
+  <si>
+    <t>想像力を働かせて</t>
+  </si>
+  <si>
+    <t>I've hit a brick wall</t>
+  </si>
+  <si>
+    <t>壁に突き当たった</t>
+  </si>
+  <si>
+    <t>That's a bit pricey.</t>
+  </si>
+  <si>
+    <t>それはちょっと高いな.</t>
+  </si>
+  <si>
+    <t>He's well suited for the job.</t>
+  </si>
+  <si>
+    <t>その仕事には彼が適任です.</t>
+  </si>
+  <si>
+    <t>How would you like your eggs?</t>
+  </si>
+  <si>
+    <t>卵はどう調理しましょうか？</t>
+  </si>
+  <si>
+    <t>Isn't it out there somewhere?</t>
+  </si>
+  <si>
+    <t>どこかその辺にないかい？</t>
+  </si>
+  <si>
+    <t>Friendship should be a two-way street.</t>
+  </si>
+  <si>
+    <t>友情は持ちつ持たれつであるべきだ.</t>
+  </si>
+  <si>
+    <t>Sometimes red wine gives me a headache.</t>
+  </si>
+  <si>
+    <t>赤ワインを飲むと時々頭が痛くなる.</t>
+  </si>
+  <si>
+    <t>He looks great on paper.</t>
+  </si>
+  <si>
+    <t>経歴は立派なんだけど…</t>
+  </si>
+  <si>
+    <t>How many years have you been married?</t>
+  </si>
+  <si>
+    <t>結婚して何年ですか？</t>
+  </si>
+  <si>
+    <t>To whom do you report?</t>
+  </si>
+  <si>
+    <t>あなたの上司は誰ですか？</t>
+  </si>
+  <si>
+    <t>Let's hit the beach.</t>
+  </si>
+  <si>
+    <t>ビーチに行こう</t>
+  </si>
+  <si>
+    <t>Let's firm up plans later.</t>
+  </si>
+  <si>
+    <t>（計画の）詳細は後で決めましょう.</t>
+  </si>
+  <si>
+    <t>You have to be firm.</t>
+  </si>
+  <si>
+    <t>毅然としてなくちゃ</t>
+  </si>
+  <si>
+    <t>Let's have a water break.</t>
+  </si>
+  <si>
+    <t>水飲み休憩にしましょう.</t>
+  </si>
+  <si>
+    <t>She's going places.</t>
+  </si>
+  <si>
+    <t>彼女はどんどん成功していっている.</t>
+  </si>
+  <si>
+    <t>He took me under his wing.</t>
+  </si>
+  <si>
+    <t>彼が私の面倒を見てくれました.</t>
+  </si>
+  <si>
+    <t>Let's move to the shade.</t>
+  </si>
+  <si>
+    <t>日陰に移動しよう.</t>
+  </si>
+  <si>
+    <t>You brought it up.</t>
+  </si>
+  <si>
+    <t>君が言い出したんじゃないか.</t>
+  </si>
+  <si>
+    <t>Don't settle for less.</t>
+  </si>
+  <si>
+    <t>妥協しちゃダメだ.</t>
+  </si>
+  <si>
+    <t>I forgot to tell you.</t>
+  </si>
+  <si>
+    <t>言い忘れてた.</t>
+  </si>
+  <si>
+    <t>You're attached to your old guitar.</t>
+  </si>
+  <si>
+    <t>古いギターに愛着があるんだね.</t>
+  </si>
+  <si>
+    <t>Take his advice to heart.</t>
+  </si>
+  <si>
+    <t>彼のアドバイスを真剣に受け止めて.</t>
+  </si>
+  <si>
+    <t>You're overreacting.</t>
+  </si>
+  <si>
+    <t>大げさすぎだよ.</t>
+  </si>
+  <si>
+    <t>It's good thing that I didn't go.</t>
+  </si>
+  <si>
+    <t>行かなくてよかった.</t>
+  </si>
+  <si>
+    <t>I hope your luck changes soon.</t>
+  </si>
+  <si>
+    <t>そのうち風向きが変わるといいね.</t>
+  </si>
+  <si>
+    <t>This heat wears me down.</t>
+  </si>
+  <si>
+    <t>この暑さには参るな.</t>
+  </si>
+  <si>
+    <t>I'll put in a good word for you.</t>
+  </si>
+  <si>
+    <t>君のことを推薦しておくよ.</t>
+  </si>
+  <si>
+    <t>Don't put pressure on me.</t>
+  </si>
+  <si>
+    <t>プレッシャーかけないで.</t>
+  </si>
+  <si>
+    <t>Welcome abroad.</t>
+  </si>
+  <si>
+    <t>ご乗船、登場ありがとうございます. / 我が社へようこそ</t>
+  </si>
+  <si>
+    <t>I couldn't ask you to do that.</t>
+  </si>
+  <si>
+    <t>そんなことあなたに頼めません.</t>
+  </si>
+  <si>
+    <t>Let's say, next Monday?</t>
+  </si>
+  <si>
+    <t>例えば来週の月曜日とか？</t>
+  </si>
+  <si>
+    <t>It's just sour grapes.</t>
+  </si>
+  <si>
+    <t>ただの負け惜しみだよ.</t>
+  </si>
+  <si>
+    <t>You're on duty today.</t>
+  </si>
+  <si>
+    <t>君今日当番だよ.</t>
+  </si>
+  <si>
+    <t>At least you tired.</t>
+  </si>
+  <si>
+    <t>少なくとも君は努力したんだ.</t>
+  </si>
+  <si>
+    <t>I don't want to get into trouble with my boss.</t>
+  </si>
+  <si>
+    <t>上司と面倒なことになりたくない.</t>
+  </si>
+  <si>
+    <t>Two more sleeps until my birthday.</t>
+  </si>
+  <si>
+    <t>あと2晩寝たら誕生日だ.</t>
+  </si>
+  <si>
+    <t>I got a splinter in my foot.</t>
+  </si>
+  <si>
+    <t>足にトゲが刺さっている.</t>
+  </si>
+  <si>
+    <t>Can you wrap the rest to go, please?</t>
+  </si>
+  <si>
+    <t>残りを持ち帰り用に包んでいただけますか？</t>
   </si>
 </sst>
 </file>
@@ -5968,8 +6454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A905" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B920" sqref="B920"/>
+    <sheetView tabSelected="1" topLeftCell="B990" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C1001" sqref="C1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16156,408 +16642,894 @@
       <c r="A920" s="2">
         <v>919</v>
       </c>
+      <c r="B920" s="6" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C920" s="10" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>920</v>
       </c>
+      <c r="B921" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C921" s="10" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" s="2">
         <v>921</v>
       </c>
+      <c r="B922" s="6" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C922" s="10" t="s">
+        <v>1843</v>
+      </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" s="2">
         <v>922</v>
       </c>
+      <c r="B923" s="6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C923" s="10" t="s">
+        <v>1845</v>
+      </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" s="2">
         <v>923</v>
       </c>
+      <c r="B924" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C924" s="10" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" s="2">
         <v>924</v>
       </c>
+      <c r="B925" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C925" s="10" t="s">
+        <v>1849</v>
+      </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" s="2">
         <v>925</v>
       </c>
+      <c r="B926" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C926" s="10" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" s="2">
         <v>926</v>
       </c>
+      <c r="B927" s="6" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C927" s="10" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" s="2">
         <v>927</v>
       </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B928" s="6" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C928" s="10" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" s="2">
         <v>928</v>
       </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B929" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C929" s="10" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" s="2">
         <v>929</v>
       </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B930" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C930" s="10" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" s="2">
         <v>930</v>
       </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B931" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C931" s="10" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" s="2">
         <v>931</v>
       </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B932" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C932" s="10" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" s="2">
         <v>932</v>
       </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B933" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" s="2">
         <v>933</v>
       </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B934" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C934" s="10" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" s="2">
         <v>934</v>
       </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B935" s="6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C935" s="10" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" s="2">
         <v>935</v>
       </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B936" s="6" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C936" s="10" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" s="2">
         <v>936</v>
       </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B937" s="6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C937" s="10" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" s="2">
         <v>937</v>
       </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B938" s="6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C938" s="10" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" s="2">
         <v>938</v>
       </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B939" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C939" s="10" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" s="2">
         <v>939</v>
       </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B940" s="6" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C940" s="10" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" s="2">
         <v>940</v>
       </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B941" s="6" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C941" s="10" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" s="2">
         <v>941</v>
       </c>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B942" s="6" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C942" s="10" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" s="2">
         <v>942</v>
       </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B943" s="6" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C943" s="10" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" s="2">
         <v>943</v>
       </c>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B944" s="6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C944" s="10" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" s="2">
         <v>944</v>
       </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B945" s="6" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C945" s="10" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" s="2">
         <v>945</v>
       </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B946" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C946" s="10" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" s="2">
         <v>946</v>
       </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B947" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C947" s="10" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" s="2">
         <v>947</v>
       </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B948" s="6" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C948" s="10" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="2">
         <v>948</v>
       </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B949" s="6" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C949" s="10" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="2">
         <v>949</v>
       </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B950" s="6" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C950" s="10" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="2">
         <v>950</v>
       </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B951" s="6" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C951" s="10" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="2">
         <v>951</v>
       </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B952" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C952" s="10" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="2">
         <v>952</v>
       </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B953" s="6" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C953" s="10" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="2">
         <v>953</v>
       </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B954" s="6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C954" s="10" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" s="2">
         <v>954</v>
       </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B955" s="6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C955" s="10" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" s="2">
         <v>955</v>
       </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B956" s="6" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C956" s="10" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="2">
         <v>956</v>
       </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B957" s="6" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C957" s="10" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="2">
         <v>957</v>
       </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B958" s="6" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C958" s="10" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="2">
         <v>958</v>
       </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B959" s="6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="2">
         <v>959</v>
       </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B960" s="6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="2">
         <v>960</v>
       </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B961" s="6" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C961" s="10" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="2">
         <v>961</v>
       </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B962" s="6" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C962" s="10" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="2">
         <v>962</v>
       </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B963" s="6" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C963" s="10" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="2">
         <v>963</v>
       </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B964" s="6" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C964" s="10" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="2">
         <v>964</v>
       </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B965" s="6" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C965" s="10" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="2">
         <v>965</v>
       </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B966" s="6" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C966" s="10" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="2">
         <v>966</v>
       </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B967" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C967" s="10" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="2">
         <v>967</v>
       </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B968" s="6" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C968" s="10" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="2">
         <v>968</v>
       </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B969" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C969" s="10" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="2">
         <v>969</v>
       </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B970" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C970" s="10" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="2">
         <v>970</v>
       </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B971" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C971" s="10" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="2">
         <v>971</v>
       </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B972" s="6" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C972" s="10" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="2">
         <v>972</v>
       </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B973" s="6" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C973" s="10" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="2">
         <v>973</v>
       </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B974" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C974" s="10" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" s="2">
         <v>974</v>
       </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B975" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C975" s="10" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" s="2">
         <v>975</v>
       </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B976" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C976" s="10" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="2">
         <v>976</v>
       </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B977" s="6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C977" s="10" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="2">
         <v>977</v>
       </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B978" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C978" s="10" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" s="2">
         <v>978</v>
       </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B979" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="2">
         <v>979</v>
       </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B980" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C980" s="10" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B981" s="6" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C981" s="10" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="2">
         <v>981</v>
       </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B982" s="6" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C982" s="10" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="2">
         <v>982</v>
       </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B983" s="6" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="2">
         <v>983</v>
       </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B984" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C984" s="10" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" s="2">
         <v>984</v>
       </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B985" s="6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C985" s="10" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="2">
         <v>985</v>
       </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B986" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C986" s="10" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="2">
         <v>986</v>
       </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B987" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C987" s="10" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="2">
         <v>987</v>
       </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B988" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C988" s="10" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="2">
         <v>988</v>
       </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B989" s="6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C989" s="10" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="2">
         <v>989</v>
       </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B990" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C990" s="10" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B991" s="6" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C991" s="10" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="2">
         <v>991</v>
       </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B992" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C992" s="10" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" s="2">
         <v>992</v>
       </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B993" s="6" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C993" s="10" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" s="2">
         <v>993</v>
       </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B994" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C994" s="10" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" s="2">
         <v>994</v>
       </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B995" s="6" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C995" s="10" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" s="2">
         <v>995</v>
       </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B996" s="6" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C996" s="10" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" s="2">
         <v>996</v>
       </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B997" s="6" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C997" s="10" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" s="2">
         <v>997</v>
       </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B998" s="6" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C998" s="10" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" s="2">
         <v>998</v>
       </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B999" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C999" s="10" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" s="2">
         <v>999</v>
       </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1000" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1000" s="10" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" s="2">
         <v>1000</v>
       </c>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83325D3C-202A-4C40-80B3-DBE9E799E001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76DA58-96E1-2142-BACD-F9333D181008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="8440" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="2401">
   <si>
     <t>No.</t>
   </si>
@@ -6033,6 +6033,1209 @@
   </si>
   <si>
     <t>残りを持ち帰り用に包んでいただけますか？</t>
+  </si>
+  <si>
+    <t>She ghosted you.</t>
+  </si>
+  <si>
+    <t>君は彼女に疎遠にされた.</t>
+  </si>
+  <si>
+    <t>Who's the boss in your family?</t>
+  </si>
+  <si>
+    <t>家族を牛耳っているのは誰？</t>
+  </si>
+  <si>
+    <t>"Failure" is not in my vocabulary.</t>
+  </si>
+  <si>
+    <t>私の辞書に"失敗"という文字はない.</t>
+  </si>
+  <si>
+    <t>I put my foot in my mouth.</t>
+  </si>
+  <si>
+    <t>うっかり口を滑らせてしまった.</t>
+  </si>
+  <si>
+    <t>Can I have a to-go box, please?</t>
+  </si>
+  <si>
+    <t>持ち帰り用の容器をいただけますか？</t>
+  </si>
+  <si>
+    <t>I'm not going anywhere</t>
+  </si>
+  <si>
+    <t>僕はずっとそばにいる.</t>
+  </si>
+  <si>
+    <t>It's not going anywhere.</t>
+  </si>
+  <si>
+    <t>何も進展がない. / どうにもならない</t>
+  </si>
+  <si>
+    <t>I finally paid off my student loan.</t>
+  </si>
+  <si>
+    <t>やっと学生ローンの支払いが終わった.</t>
+  </si>
+  <si>
+    <t>Everything is falling into place.</t>
+  </si>
+  <si>
+    <t>落ち着くべきところに落ち着いてきている.</t>
+  </si>
+  <si>
+    <t>Your opinion carries a lot of weight.</t>
+  </si>
+  <si>
+    <t>君の意見には影響力がある. / 君の意見は影響力を持つ.</t>
+  </si>
+  <si>
+    <t>do you mind putting your seat up?</t>
+  </si>
+  <si>
+    <t>席を元に戻していただいても構わないでしょうか？</t>
+  </si>
+  <si>
+    <t>I'm afraid you're sitting in my seat.</t>
+  </si>
+  <si>
+    <t>そこは私の席だと思うのですが.</t>
+  </si>
+  <si>
+    <t>They've grown so much.</t>
+  </si>
+  <si>
+    <t>すっかり大きくなったね.</t>
+  </si>
+  <si>
+    <t>She was larger than life.</t>
+  </si>
+  <si>
+    <t>彼女は偉大な存在でした</t>
+  </si>
+  <si>
+    <t>She's taking advantage of his good nature.</t>
+  </si>
+  <si>
+    <t>彼女は彼の性格の良さを利用している.</t>
+  </si>
+  <si>
+    <t>It might work to your advantage.</t>
+  </si>
+  <si>
+    <t>それが君に有利に働くかもね. / それは君にとって好都合かもね.</t>
+  </si>
+  <si>
+    <t>There's always light at the end of the tunnel.</t>
+  </si>
+  <si>
+    <t>トンネルの先には必ず光が見える.</t>
+  </si>
+  <si>
+    <t>Apply this medicine twice a day.</t>
+  </si>
+  <si>
+    <t>このお薬は1日2回塗ってください.</t>
+  </si>
+  <si>
+    <t>It's been long overdue.</t>
+  </si>
+  <si>
+    <t>延び延びになっている. / 機嫌がとっくに過ぎている.</t>
+  </si>
+  <si>
+    <t>These books are overdue.</t>
+  </si>
+  <si>
+    <t>本の返却期限が切れている.</t>
+  </si>
+  <si>
+    <t>May I offer you something to drink?</t>
+  </si>
+  <si>
+    <t>何かお飲み物はいかがですか？</t>
+  </si>
+  <si>
+    <t>I'm grateful to you for your support.</t>
+  </si>
+  <si>
+    <t>あなたのサポートをありがたく思っています.</t>
+  </si>
+  <si>
+    <t>I will try my hardest.</t>
+  </si>
+  <si>
+    <t>一生懸命頑張るよ.</t>
+  </si>
+  <si>
+    <t>Do you have a table for three?</t>
+  </si>
+  <si>
+    <t>3人なんですが空いてますか？</t>
+  </si>
+  <si>
+    <t>I'm taking baby steps each day.</t>
+  </si>
+  <si>
+    <t>毎日焦らず少しずつ前進している.</t>
+  </si>
+  <si>
+    <t>He's taling behind your back.</t>
+  </si>
+  <si>
+    <t>彼が隠れて君の悪口を言っている.</t>
+  </si>
+  <si>
+    <t>Say it to my face.</t>
+  </si>
+  <si>
+    <t>面と向かってはっきり言ってよ. / 僕に直接言ってよ.</t>
+  </si>
+  <si>
+    <t>Thank you for bending over backwards for me.</t>
+  </si>
+  <si>
+    <t>精一杯取り組んでくれてありがとう./ 最大限の努力をしてくれてありがとう</t>
+  </si>
+  <si>
+    <t>You've got your shirt on backwards.</t>
+  </si>
+  <si>
+    <t>シャツが後ろ前だよ.</t>
+  </si>
+  <si>
+    <t>You left it out all night.</t>
+  </si>
+  <si>
+    <t>一晩中出しっぱなしにしてた.</t>
+  </si>
+  <si>
+    <t>それなら私の得意分野です.</t>
+  </si>
+  <si>
+    <t>It's a real time-saver.</t>
+  </si>
+  <si>
+    <t>それはすごい時間の節約になるね</t>
+  </si>
+  <si>
+    <t>It's right up my alley.</t>
+  </si>
+  <si>
+    <t>I have no interest in getting married.</t>
+  </si>
+  <si>
+    <t>結婚には興味がないんだ.</t>
+  </si>
+  <si>
+    <t>It's been quite some time.</t>
+  </si>
+  <si>
+    <t>しばらくぶりですね.</t>
+  </si>
+  <si>
+    <t>I work there by choice.</t>
+  </si>
+  <si>
+    <t>自分の意思であそこで働いている.</t>
+  </si>
+  <si>
+    <t>It'll take some getting used to.</t>
+  </si>
+  <si>
+    <t>慣れるまで時間がかかるよ</t>
+  </si>
+  <si>
+    <t>Those were the good old days.</t>
+  </si>
+  <si>
+    <t>あの頃はよかったな. / 昔が懐かしいよ.</t>
+  </si>
+  <si>
+    <t>That's my first pick.</t>
+  </si>
+  <si>
+    <t>それが私の第一候補です. / それが私の第一希望です</t>
+  </si>
+  <si>
+    <t>お腹を空かせてきてね.</t>
+  </si>
+  <si>
+    <t>Put your phone on vibrate.</t>
+  </si>
+  <si>
+    <t>電話をマナーモードにしてね.</t>
+  </si>
+  <si>
+    <t>I'll be back in town next week.</t>
+  </si>
+  <si>
+    <t>来週出張から戻ります.</t>
+  </si>
+  <si>
+    <t>I was out of town last week.</t>
+  </si>
+  <si>
+    <t>先週は出張中でした.</t>
+  </si>
+  <si>
+    <t>That sounds apeealing to me.</t>
+  </si>
+  <si>
+    <t>それは私には魅力的だ.</t>
+  </si>
+  <si>
+    <t>I was considering that.</t>
+  </si>
+  <si>
+    <t>それにしようか考えていたところでした.</t>
+  </si>
+  <si>
+    <t>Don't point the finger at me.</t>
+  </si>
+  <si>
+    <t>僕を責めないでよ/僕のせいにしないで</t>
+  </si>
+  <si>
+    <t>The elevator is up and runnning now.</t>
+  </si>
+  <si>
+    <t>エレベーターは今正常に稼働している.</t>
+  </si>
+  <si>
+    <t>I was caught up in the movie.</t>
+  </si>
+  <si>
+    <t>映画に夢中になってたよ.</t>
+  </si>
+  <si>
+    <t>I have to catch up on my work.</t>
+  </si>
+  <si>
+    <t>仕事の遅れを取り戻さないと.</t>
+  </si>
+  <si>
+    <t>That's a plus for me.</t>
+  </si>
+  <si>
+    <t>それは都合がいいです. /私にとって好都合だ</t>
+  </si>
+  <si>
+    <t>Can I help you find something?</t>
+  </si>
+  <si>
+    <t>何かお探しですか？</t>
+  </si>
+  <si>
+    <t>気合を入れて</t>
+  </si>
+  <si>
+    <t>Put your game face on.</t>
+  </si>
+  <si>
+    <t>You have a great selection of cheese.</t>
+  </si>
+  <si>
+    <t>チーズの品揃えが豊富ですね.</t>
+  </si>
+  <si>
+    <t>I ran into your sister at the mall yesterday.</t>
+  </si>
+  <si>
+    <t>昨日モールで君のお姉さんにあったよ.</t>
+  </si>
+  <si>
+    <t>You're so photogenic.</t>
+  </si>
+  <si>
+    <t>超写真写りいいね.</t>
+  </si>
+  <si>
+    <t>I'm camera-shy.</t>
+  </si>
+  <si>
+    <t>私は写真が苦手です./ 写真嫌いです.</t>
+  </si>
+  <si>
+    <t>This is hands down the best movie of the year.</t>
+  </si>
+  <si>
+    <t>これは間違い無く今年一の映画だ.</t>
+  </si>
+  <si>
+    <t>We won hands down.</t>
+  </si>
+  <si>
+    <t>楽勝だったよ.</t>
+  </si>
+  <si>
+    <t>Stop making fun of him.</t>
+  </si>
+  <si>
+    <t>彼を揶揄うのはやめなよ.</t>
+  </si>
+  <si>
+    <t>Are you pulling my leg?</t>
+  </si>
+  <si>
+    <t>からかってるの？</t>
+  </si>
+  <si>
+    <t>Don't get in my way.</t>
+  </si>
+  <si>
+    <t>足を引張らないでくれ/邪魔しないで</t>
+  </si>
+  <si>
+    <t>problem solving</t>
+  </si>
+  <si>
+    <t>問題解決</t>
+  </si>
+  <si>
+    <t>poke a hole</t>
+  </si>
+  <si>
+    <t>穴を開ける</t>
+  </si>
+  <si>
+    <t>flick</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>What's your favorite flick?</t>
+  </si>
+  <si>
+    <t>好きな映画は何？</t>
+  </si>
+  <si>
+    <t>hide the truth</t>
+  </si>
+  <si>
+    <t>真実を隠す</t>
+  </si>
+  <si>
+    <t>stick with it</t>
+  </si>
+  <si>
+    <t>諦めないで頑張る / 諦めずに突き通す.</t>
+  </si>
+  <si>
+    <t>It is bland.</t>
+  </si>
+  <si>
+    <t>味がしない. / おいしくない.</t>
+  </si>
+  <si>
+    <t>hot sauce</t>
+  </si>
+  <si>
+    <t>辛いソース</t>
+  </si>
+  <si>
+    <t>who would have thought</t>
+  </si>
+  <si>
+    <t>理解できない / 信じられない</t>
+  </si>
+  <si>
+    <t>My heart sinks.</t>
+  </si>
+  <si>
+    <t>心が重く感じる. / 気落ちする.</t>
+  </si>
+  <si>
+    <t>sip one some tea</t>
+  </si>
+  <si>
+    <t>お茶を飲む.</t>
+  </si>
+  <si>
+    <t>look for a job</t>
+  </si>
+  <si>
+    <t>仕事を探す.</t>
+  </si>
+  <si>
+    <t>skip rope</t>
+  </si>
+  <si>
+    <t>縄跳びをする.</t>
+  </si>
+  <si>
+    <t>newbie</t>
+  </si>
+  <si>
+    <t>新人/新入り</t>
+  </si>
+  <si>
+    <t>corner seat</t>
+  </si>
+  <si>
+    <t>角の席</t>
+  </si>
+  <si>
+    <t>salivate over 〜</t>
+  </si>
+  <si>
+    <t>〜が美味しいだろうと想像する./よだれが出るほど〜が欲しい.</t>
+  </si>
+  <si>
+    <t>mouth watering</t>
+  </si>
+  <si>
+    <t>とても美味しい. / 食欲をそそる.</t>
+  </si>
+  <si>
+    <t>soft serve</t>
+  </si>
+  <si>
+    <t>ソフトクリーム</t>
+  </si>
+  <si>
+    <t>jump for joy</t>
+  </si>
+  <si>
+    <t>喜んで飛び跳ねる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">picky eater </t>
+  </si>
+  <si>
+    <t>食べ物の好き嫌いが多い人</t>
+  </si>
+  <si>
+    <t>What a joyful day.</t>
+  </si>
+  <si>
+    <t>なんて素晴らしい日</t>
+  </si>
+  <si>
+    <t>crack a problem.</t>
+  </si>
+  <si>
+    <t>難しい問題を解く / 問題を解決する.</t>
+  </si>
+  <si>
+    <t>daydream</t>
+  </si>
+  <si>
+    <t>空想にふける / 妄想する.</t>
+  </si>
+  <si>
+    <t>行き過ぎた / やり過ぎた</t>
+  </si>
+  <si>
+    <t>went too far</t>
+  </si>
+  <si>
+    <t>eye-popper</t>
+  </si>
+  <si>
+    <t>目立つ</t>
+  </si>
+  <si>
+    <t>Keep stil.</t>
+  </si>
+  <si>
+    <t>動かないで.</t>
+  </si>
+  <si>
+    <t>no words</t>
+  </si>
+  <si>
+    <t>言葉がない.</t>
+  </si>
+  <si>
+    <t>care too much.</t>
+  </si>
+  <si>
+    <t>心配しすぎる.</t>
+  </si>
+  <si>
+    <t>conk out</t>
+  </si>
+  <si>
+    <t>（突然）寝てしまう/ 眠り込む</t>
+  </si>
+  <si>
+    <t>elephants fly</t>
+  </si>
+  <si>
+    <t>ありえないこと / ありえない話</t>
+  </si>
+  <si>
+    <t>dead center</t>
+  </si>
+  <si>
+    <t>ど真ん中/ ちょうど中心</t>
+  </si>
+  <si>
+    <t>quick second</t>
+  </si>
+  <si>
+    <t>すぐに / 短い間</t>
+  </si>
+  <si>
+    <t>sail through</t>
+  </si>
+  <si>
+    <t>問題なく進む / 楽に進む</t>
+  </si>
+  <si>
+    <t>full plate</t>
+  </si>
+  <si>
+    <t>やることが多い. /お皿がいっぱいの</t>
+  </si>
+  <si>
+    <t>I don't think I can. I have a full plate.</t>
+  </si>
+  <si>
+    <t>ちょっと無理かな. やることが多くて.</t>
+  </si>
+  <si>
+    <t>musclehead</t>
+  </si>
+  <si>
+    <t>運動ばかりする人 / 筋骨隆々の人</t>
+  </si>
+  <si>
+    <t>murmur</t>
+  </si>
+  <si>
+    <t>ぶつぶつ言う.</t>
+  </si>
+  <si>
+    <t>mushroom into 〜</t>
+  </si>
+  <si>
+    <t>〜の(事態に)発展する</t>
+  </si>
+  <si>
+    <t>such music to my ears</t>
+  </si>
+  <si>
+    <t>それは素晴らしい</t>
+  </si>
+  <si>
+    <t>skip a meal</t>
+  </si>
+  <si>
+    <t>食事を抜く / 食事をしない</t>
+  </si>
+  <si>
+    <t>pig out</t>
+  </si>
+  <si>
+    <t>たくさん食べる / 大食いする</t>
+  </si>
+  <si>
+    <t>take the leftovers</t>
+  </si>
+  <si>
+    <t>残りのものを持って帰る.</t>
+  </si>
+  <si>
+    <t>clear the table</t>
+  </si>
+  <si>
+    <t>テーブルのものを片付ける.</t>
+  </si>
+  <si>
+    <t>weak as a baby</t>
+  </si>
+  <si>
+    <t>弱くて力がない</t>
+  </si>
+  <si>
+    <t>link up</t>
+  </si>
+  <si>
+    <t>一緒に作業をする</t>
+  </si>
+  <si>
+    <t>go fly a kite</t>
+  </si>
+  <si>
+    <t>放っておく. / 邪魔をするな</t>
+  </si>
+  <si>
+    <t>ちょっと好きにさせてくれるかな</t>
+  </si>
+  <si>
+    <t>I'm going to go fly a kite.</t>
+  </si>
+  <si>
+    <t>drift off to sleep.</t>
+  </si>
+  <si>
+    <t>静かに眠りにつく.</t>
+  </si>
+  <si>
+    <t>dream job.</t>
+  </si>
+  <si>
+    <t>理想の仕事/憧れの仕事</t>
+  </si>
+  <si>
+    <t>pursue my dream</t>
+  </si>
+  <si>
+    <t>自分の夢を追う.</t>
+  </si>
+  <si>
+    <t>drop everything</t>
+  </si>
+  <si>
+    <t>全てをやめる / 全てを投げ打つ</t>
+  </si>
+  <si>
+    <t>sticky situation</t>
+  </si>
+  <si>
+    <t>複雑なシチュエーション / 大変なシチュエーション</t>
+  </si>
+  <si>
+    <t>arraival time</t>
+  </si>
+  <si>
+    <t>到着時間</t>
+  </si>
+  <si>
+    <t>Don't drop the ball</t>
+  </si>
+  <si>
+    <t>失敗しないように</t>
+  </si>
+  <si>
+    <t>down the road</t>
+  </si>
+  <si>
+    <t>いずれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point taken </t>
+  </si>
+  <si>
+    <t>おっしゃる通りです</t>
+  </si>
+  <si>
+    <t>join a tour group</t>
+  </si>
+  <si>
+    <t>団体旅行に参加する.</t>
+  </si>
+  <si>
+    <t>stay positive</t>
+  </si>
+  <si>
+    <t>前向きに考える</t>
+  </si>
+  <si>
+    <t>nap time</t>
+  </si>
+  <si>
+    <t>昼寝の時間</t>
+  </si>
+  <si>
+    <t>put your hair up</t>
+  </si>
+  <si>
+    <t>髪の毛を結ぶ</t>
+  </si>
+  <si>
+    <t>pick up coffee</t>
+  </si>
+  <si>
+    <t>コーヒーを買う</t>
+  </si>
+  <si>
+    <t>grab some food.</t>
+  </si>
+  <si>
+    <t>食べ物を買いにいく/ 手に入れる／(さっと)食べる</t>
+  </si>
+  <si>
+    <t>stay out of troble</t>
+  </si>
+  <si>
+    <t>トラブルを起こさない.</t>
+  </si>
+  <si>
+    <t>take a break</t>
+  </si>
+  <si>
+    <t>少し休む / ちょっと休む</t>
+  </si>
+  <si>
+    <t>don't put it off</t>
+  </si>
+  <si>
+    <t>先延ばしはいけない.</t>
+  </si>
+  <si>
+    <t>no complaints</t>
+  </si>
+  <si>
+    <t>文句はない</t>
+  </si>
+  <si>
+    <t>membership fee</t>
+  </si>
+  <si>
+    <t>会費</t>
+  </si>
+  <si>
+    <t>airtight</t>
+  </si>
+  <si>
+    <t>密閉した / 隙間のない</t>
+  </si>
+  <si>
+    <t>hit the nail</t>
+  </si>
+  <si>
+    <t>うまく言い当てる</t>
+  </si>
+  <si>
+    <t>flying out</t>
+  </si>
+  <si>
+    <t>出発する</t>
+  </si>
+  <si>
+    <t>Do you hear me?</t>
+  </si>
+  <si>
+    <t>聞こえる？ / 言ってることがわかる？</t>
+  </si>
+  <si>
+    <t>take a day off</t>
+  </si>
+  <si>
+    <t>１日のお休みをもらう</t>
+  </si>
+  <si>
+    <t>good behavior</t>
+  </si>
+  <si>
+    <t>良い態度 / 良い振る舞い</t>
+  </si>
+  <si>
+    <t>Let's get started.</t>
+  </si>
+  <si>
+    <t>始めましょう.</t>
+  </si>
+  <si>
+    <t>eat better</t>
+  </si>
+  <si>
+    <t>体に良いものを食べる.</t>
+  </si>
+  <si>
+    <t>at your own pace.</t>
+  </si>
+  <si>
+    <t>自分のペースで</t>
+  </si>
+  <si>
+    <t>fitness goal</t>
+  </si>
+  <si>
+    <t>フィットネスの目標</t>
+  </si>
+  <si>
+    <t>can't fit in my pants</t>
+  </si>
+  <si>
+    <t>ズボンが入らない.</t>
+  </si>
+  <si>
+    <t>ate too much.</t>
+  </si>
+  <si>
+    <t>食べ過ぎた</t>
+  </si>
+  <si>
+    <t>comes with it.</t>
+  </si>
+  <si>
+    <t>(もれなく)ついてくる</t>
+  </si>
+  <si>
+    <t>Don't listen to rumors</t>
+  </si>
+  <si>
+    <t>噂はあてにしてはいけない.</t>
+  </si>
+  <si>
+    <t>He was like a kid in a candy store.</t>
+  </si>
+  <si>
+    <t>彼は興奮して目移りしっぱなしだった.</t>
+  </si>
+  <si>
+    <t>She's a little too quiet for me.</t>
+  </si>
+  <si>
+    <t>彼女は僕にはちょっと物静かすぎる.</t>
+  </si>
+  <si>
+    <t>Everything has been going well</t>
+  </si>
+  <si>
+    <t>万事順調です.</t>
+  </si>
+  <si>
+    <t>Your driving is making me nervous.</t>
+  </si>
+  <si>
+    <t>君の運転にはヒヤヒヤするよ.</t>
+  </si>
+  <si>
+    <t>There's no way!</t>
+  </si>
+  <si>
+    <t>そんなこと絶対にありえない.</t>
+  </si>
+  <si>
+    <t>It's been quite a whole.</t>
+  </si>
+  <si>
+    <t>随分久しぶりだね.</t>
+  </si>
+  <si>
+    <t>I just can't stop smiling.</t>
+  </si>
+  <si>
+    <t>思わずにやけてしまって.</t>
+  </si>
+  <si>
+    <t>She is the life of the party.</t>
+  </si>
+  <si>
+    <t>彼女はパーティーの盛り上げ役だ/彼女はムードメーカーだ</t>
+  </si>
+  <si>
+    <t>I have a problem with your sister.</t>
+  </si>
+  <si>
+    <t>君のお姉さんが苦手なんだ.</t>
+  </si>
+  <si>
+    <t>What is wrong with me?</t>
+  </si>
+  <si>
+    <t>僕どうしちゃったんだろう？</t>
+  </si>
+  <si>
+    <t>Can you spice it up a little?</t>
+  </si>
+  <si>
+    <t>少し面白みを加えてくれる？</t>
+  </si>
+  <si>
+    <t>I'm done for the day.</t>
+  </si>
+  <si>
+    <t>今日はこの辺で切り上げます/今日はもう終わりにします</t>
+  </si>
+  <si>
+    <t>I can't get it out of my mind.</t>
+  </si>
+  <si>
+    <t>そのことが頭から離れないんだ.</t>
+  </si>
+  <si>
+    <t>Any minute now.</t>
+  </si>
+  <si>
+    <t>そろそろです.</t>
+  </si>
+  <si>
+    <t>I coult eat a horse.</t>
+  </si>
+  <si>
+    <t>お腹ペコペコ.</t>
+  </si>
+  <si>
+    <t>He eats like a horse.</t>
+  </si>
+  <si>
+    <t>彼はたくさん食べる.</t>
+  </si>
+  <si>
+    <t>She eats like a bird.</t>
+  </si>
+  <si>
+    <t>彼女は小食です.</t>
+  </si>
+  <si>
+    <t>I have to eat my words.</t>
+  </si>
+  <si>
+    <t>前言を撤回しなくちゃ. / 自分の非を認めなくてはならない.</t>
+  </si>
+  <si>
+    <t>Give me another 15 minutes.</t>
+  </si>
+  <si>
+    <t>あと15ふんちょうだい.</t>
+  </si>
+  <si>
+    <t>Don't hog the remote.</t>
+  </si>
+  <si>
+    <t>リモコンを独り占めしないで.</t>
+  </si>
+  <si>
+    <t>Yes, you most certainly can.</t>
+  </si>
+  <si>
+    <t>もちろん良いよ. /もちろんできるよ</t>
+  </si>
+  <si>
+    <t>I have Italian blood in me.</t>
+  </si>
+  <si>
+    <t>私にはイタリアの血が流れている.</t>
+  </si>
+  <si>
+    <t>Arts in my blood.</t>
+  </si>
+  <si>
+    <t>アートは僕の体の一部です. / アートは親譲りです.</t>
+  </si>
+  <si>
+    <t>Here's the deal.</t>
+  </si>
+  <si>
+    <t>こうしよう./ よく聞いて.</t>
+  </si>
+  <si>
+    <t>I know just the place.</t>
+  </si>
+  <si>
+    <t>ぴったりな場所を知ってるよ.</t>
+  </si>
+  <si>
+    <t>You're one in a million.</t>
+  </si>
+  <si>
+    <t>君は特別な存在なんだ.</t>
+  </si>
+  <si>
+    <t>He just snaped.</t>
+  </si>
+  <si>
+    <t>彼が突然キレた.</t>
+  </si>
+  <si>
+    <t>This song put him on the map.</t>
+  </si>
+  <si>
+    <t>この歌が彼を一躍有名にした/この歌で彼の知名度が上がった</t>
+  </si>
+  <si>
+    <t>You're all over the map.</t>
+  </si>
+  <si>
+    <t>言ってることが支離滅裂だ.</t>
+  </si>
+  <si>
+    <t>This is a lot to take in.</t>
+  </si>
+  <si>
+    <t>覚えることがたくさんあって大変だ. / 複雑で理解するのに一苦労.</t>
+  </si>
+  <si>
+    <t>Can you stay for dinner?</t>
+  </si>
+  <si>
+    <t>夕食食べていかない?</t>
+  </si>
+  <si>
+    <t>We had a heart-to-heart.</t>
+  </si>
+  <si>
+    <t>本音で語り合った.</t>
+  </si>
+  <si>
+    <t>I have a craving for sweets.</t>
+  </si>
+  <si>
+    <t>無性に甘いものが食べたい.</t>
+  </si>
+  <si>
+    <t>my comfort zone</t>
+  </si>
+  <si>
+    <t>自分にとって心地よい場所.</t>
+  </si>
+  <si>
+    <t>I look for comfort over looks.</t>
+  </si>
+  <si>
+    <t>見た目より履き心地</t>
+  </si>
+  <si>
+    <t>The days are getting shorter and shorter.</t>
+  </si>
+  <si>
+    <t>ますます日が短くなってきた./ だんだん日が短くなってきた.</t>
+  </si>
+  <si>
+    <t>I made my peace with her.</t>
+  </si>
+  <si>
+    <t>彼女と和解した.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't know who else to call </t>
+  </si>
+  <si>
+    <t>他に電話できる人が思いつかなくて.</t>
+  </si>
+  <si>
+    <t>Does anybody have any thoughts on this?</t>
+  </si>
+  <si>
+    <t>誰かこれについて何か思うことはありますか？</t>
+  </si>
+  <si>
+    <t>It is the talk of the town.</t>
+  </si>
+  <si>
+    <t>その話題でもちきりです.</t>
+  </si>
+  <si>
+    <t>Our problem is snowballing.</t>
+  </si>
+  <si>
+    <t>問題は雪だるま式に大きくなっている.</t>
+  </si>
+  <si>
+    <t>We had a snowball fight.</t>
+  </si>
+  <si>
+    <t>雪合戦をした.</t>
+  </si>
+  <si>
+    <t>Keep it to yourself.</t>
+  </si>
+  <si>
+    <t>内緒にしておいて./他言しないで.</t>
+  </si>
+  <si>
+    <t>She seems to be very level-headed.</t>
+  </si>
+  <si>
+    <t>彼女はとても落ち着いて見える.</t>
+  </si>
+  <si>
+    <t>we have all the time in the world.</t>
+  </si>
+  <si>
+    <t>時間は有り余るほどある. / 時間はたっぷりある.</t>
+  </si>
+  <si>
+    <t>She's not out of the woods yet.</t>
+  </si>
+  <si>
+    <t>まだ油断は出来ない./ まだ危険な状態だ./ まだ問題が去っていない</t>
+  </si>
+  <si>
+    <t>Who are you flying with?</t>
+  </si>
+  <si>
+    <t>どこの航空会社で行くのですか？</t>
+  </si>
+  <si>
+    <t>When one door closes, another door opens.</t>
+  </si>
+  <si>
+    <t>チャンスを1つ失っても、また別のチャンスが来る</t>
+  </si>
+  <si>
+    <t>Looks that way.</t>
+  </si>
+  <si>
+    <t>そうみたいだね.</t>
+  </si>
+  <si>
+    <t>On a happier note.</t>
+  </si>
+  <si>
+    <t>もうちょっと明るめの話題に変えると</t>
+  </si>
+  <si>
+    <t>He's turned over a new leaf.</t>
+  </si>
+  <si>
+    <t>彼は心を入れ替えたんだ/改心した/心機一転した</t>
+  </si>
+  <si>
+    <t>We need to win them over.</t>
+  </si>
+  <si>
+    <t>彼らを納得させなければ.</t>
+  </si>
+  <si>
+    <t>I want to win back your trust.</t>
+  </si>
+  <si>
+    <t>君の信頼を取り戻したい.</t>
+  </si>
+  <si>
+    <t>I've decided to pull out of the tournament.</t>
+  </si>
+  <si>
+    <t>トーナメントは休場することにした.</t>
+  </si>
+  <si>
+    <t>I'm pullingout the old album.</t>
+  </si>
+  <si>
+    <t>古いアルバムを引っ張り出しているところ.</t>
+  </si>
+  <si>
+    <t>Let me return the favor soon.</t>
+  </si>
+  <si>
+    <t>近いうちお返しさせてね. / 恩返しさせてね.</t>
+  </si>
+  <si>
+    <t>I'll try to put my best foot forward.</t>
+  </si>
+  <si>
+    <t>よい印象を与えられるように頑張る./ 全力を尽くす</t>
+  </si>
+  <si>
+    <t>Let bygones be bygones.</t>
+  </si>
+  <si>
+    <t>過去は水に流そう.</t>
+  </si>
+  <si>
+    <t>That figures.</t>
+  </si>
+  <si>
+    <t>やっぱり / それは当然だ.</t>
+  </si>
+  <si>
+    <t>A little goes a long way</t>
+  </si>
+  <si>
+    <t>少しで充分./ ちょっとでいい</t>
   </si>
 </sst>
 </file>
@@ -6452,10 +7655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B990" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C1001" sqref="C1001"/>
+    <sheetView tabSelected="1" topLeftCell="B1175" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C1201" sqref="C1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17533,6 +18736,3432 @@
       <c r="A1001" s="2">
         <v>1000</v>
       </c>
+      <c r="B1001" s="6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1001" s="10" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1002" s="10" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1003" s="10" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1004" s="10" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1005" s="10" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1006" s="10" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1007" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1007" s="10" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1008" s="10" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1009" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1009" s="10" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1010" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1010" s="10" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1011" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C1011" s="10" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1012" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1012" s="10" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1013" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1013" s="10" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1014" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1014" s="10" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1015" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1015" s="10" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1016" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1016" s="10" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1017" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C1017" s="10" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1018" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1018" s="10" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1019" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C1019" s="10" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1020" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1020" s="10" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1021" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1021" s="10" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1022" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1022" s="10" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1023" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1023" s="10" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1024" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1024" s="10" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1025" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1025" s="10" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1026" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1026" s="10" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1027" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1027" s="10" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1028" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1028" s="10" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1029" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1029" s="10" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1030" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1030" s="10" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1031" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1031" s="10" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C1032" s="10" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C1033" s="10" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1034" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1034" s="10" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1035" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1035" s="10" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1036" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1036" s="10" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1037" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1037" s="10" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1038" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1038" s="10" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1039" s="10" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1040" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1040" s="10" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1041" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1041" s="10" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1042" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="6" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1042" s="10" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1043" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="6" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1043" s="10" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1044" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="6" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1044" s="10" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1045" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1045" s="10" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1046" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="6" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1046" s="10" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1047" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1047" s="10" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1048" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1048" s="10" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1049" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1049" s="10" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1050" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1050" s="10" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1051" s="2">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1051" s="10" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1052" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="6" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1052" s="10" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1053" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1053" s="10" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1054" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="6" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1054" s="10" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1055" s="2">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1055" s="10" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1056" s="2">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C1056" s="10" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1057" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1057" s="10" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1058" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1058" s="10" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1059" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C1059" s="10" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1060" s="2">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1060" s="10" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1061" s="2">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="6" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1061" s="10" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1062" s="2">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="6" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C1062" s="10" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1063" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C1063" s="10" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1064" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1064" s="10" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1065" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1065" s="10" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1066" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="6" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1066" s="10" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1067" s="2">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1067" s="10" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1068" s="2">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1068" s="10" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1069" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1069" s="10" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1070" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1070" s="10" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1071" s="2">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1071" s="10" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1072" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="6" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1072" s="10" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1073" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1073" s="10" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1074" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1074" s="10" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1075" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1075" s="10" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1076" s="2">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1076" s="10" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1077" s="2">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1077" s="10" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1078" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1078" s="10" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1079" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1079" s="10" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1080" s="2">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1080" s="10" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1081" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1081" s="10" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1082" s="2">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1082" s="10" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1083" s="2">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1084" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1084" s="10" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1085" s="2">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1085" s="10" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1086" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1086" s="10" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1087" s="2">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C1087" s="10" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1088" s="2">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C1088" s="10" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1089" s="2">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1089" s="10" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1090" s="2">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C1090" s="10" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1091" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C1091" s="10" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1092" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1092" s="10" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1093" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1093" s="10" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1094" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1094" s="10" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1095" s="2">
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="6" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C1095" s="10" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1096" s="2">
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C1096" s="10" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1097" s="2">
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="6" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C1097" s="10" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1098" s="2">
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C1098" s="10" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1099" s="2">
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1099" s="10" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1100" s="2">
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1100" s="10" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1101" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1101" s="10" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1102" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1102" s="10" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1103" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1103" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1104" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C1104" s="10" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1105" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1105" s="10" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1106" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1106" s="10" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1107" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1107" s="10" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1108" s="2">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1108" s="10" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1109" s="2">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="6" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1109" s="10" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1110" s="2">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="6" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C1110" s="10" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1111" s="2">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C1111" s="10" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1112" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C1112" s="10" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1113" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1113" s="10" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1114" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B1114" s="6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1114" s="10" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1115" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B1115" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1115" s="10" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1116" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B1116" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1116" s="10" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1117" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1117" s="10" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1118" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1118" s="10" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1119" s="2">
+        <v>1118</v>
+      </c>
+      <c r="B1119" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C1119" s="10" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1120" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B1120" s="6" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1120" s="10" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1121" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B1121" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1121" s="10" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1122" s="2">
+        <v>1121</v>
+      </c>
+      <c r="B1122" s="6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1122" s="10" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1123" s="2">
+        <v>1122</v>
+      </c>
+      <c r="B1123" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1123" s="10" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1124" s="2">
+        <v>1123</v>
+      </c>
+      <c r="B1124" s="6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1124" s="10" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1125" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1125" s="10" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1126" s="2">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="6" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1126" s="10" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1127" s="2">
+        <v>1126</v>
+      </c>
+      <c r="B1127" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1127" s="10" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1128" s="2">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1128" s="10" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1129" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1129" s="10" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1130" s="2">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1130" s="10" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1131" s="2">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="6" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1131" s="10" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1132" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1132" s="10" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1133" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1133" s="10" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1134" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1134" s="10" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1135" s="2">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="6" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1135" s="10" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1136" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1136" s="10" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1137" s="2">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1137" s="10" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1138" s="2">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1138" s="10" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1139" s="2">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1139" s="10" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1140" s="2">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="6" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1140" s="10" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1141" s="2">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1141" s="10" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1142" s="2">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1142" s="10" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1143" s="2">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1143" s="10" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1144" s="2">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C1144" s="10" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1145" s="2">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C1145" s="10" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1146" s="2">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1146" s="10" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1147" s="2">
+        <v>1146</v>
+      </c>
+      <c r="B1147" s="6" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C1147" s="10" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1148" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B1148" s="6" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1148" s="10" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1149" s="2">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="6" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1149" s="10" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1150" s="2">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="6" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1150" s="10" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1151" s="2">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="6" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1151" s="10" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1152" s="2">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="6" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C1152" s="10" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1153" s="2">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="6" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1153" s="10" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1154" s="2">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="6" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1154" s="10" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1155" s="2">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="6" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1155" s="10" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1156" s="2">
+        <v>1155</v>
+      </c>
+      <c r="B1156" s="6" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1156" s="10" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1157" s="2">
+        <v>1156</v>
+      </c>
+      <c r="B1157" s="6" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1157" s="10" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1158" s="2">
+        <v>1157</v>
+      </c>
+      <c r="B1158" s="6" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1158" s="10" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1159" s="2">
+        <v>1158</v>
+      </c>
+      <c r="B1159" s="6" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1159" s="10" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1160" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B1160" s="6" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1160" s="10" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1161" s="2">
+        <v>1160</v>
+      </c>
+      <c r="B1161" s="6" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1161" s="10" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1162" s="2">
+        <v>1161</v>
+      </c>
+      <c r="B1162" s="6" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1162" s="10" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1163" s="2">
+        <v>1162</v>
+      </c>
+      <c r="B1163" s="6" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1163" s="10" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1164" s="2">
+        <v>1163</v>
+      </c>
+      <c r="B1164" s="6" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1164" s="10" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1165" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B1165" s="6" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1165" s="10" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1166" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B1166" s="6" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1166" s="10" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1167" s="2">
+        <v>1166</v>
+      </c>
+      <c r="B1167" s="6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C1167" s="10" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1168" s="2">
+        <v>1167</v>
+      </c>
+      <c r="B1168" s="6" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1168" s="10" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1169" s="2">
+        <v>1168</v>
+      </c>
+      <c r="B1169" s="6" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C1169" s="10" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1170" s="2">
+        <v>1169</v>
+      </c>
+      <c r="B1170" s="6" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1170" s="10" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1171" s="2">
+        <v>1170</v>
+      </c>
+      <c r="B1171" s="6" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1171" s="10" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1172" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B1172" s="6" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1172" s="10" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1173" s="2">
+        <v>1172</v>
+      </c>
+      <c r="B1173" s="6" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1173" s="10" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1174" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B1174" s="6" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1174" s="10" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1175" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B1175" s="6" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1175" s="10" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1176" s="2">
+        <v>1175</v>
+      </c>
+      <c r="B1176" s="6" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1176" s="10" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1177" s="2">
+        <v>1176</v>
+      </c>
+      <c r="B1177" s="6" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1177" s="10" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1178" s="2">
+        <v>1177</v>
+      </c>
+      <c r="B1178" s="6" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1178" s="10" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1179" s="2">
+        <v>1178</v>
+      </c>
+      <c r="B1179" s="6" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C1179" s="10" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1180" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B1180" s="6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1180" s="10" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1181" s="2">
+        <v>1180</v>
+      </c>
+      <c r="B1181" s="6" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C1181" s="10" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1182" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B1182" s="6" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C1182" s="10" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1183" s="2">
+        <v>1182</v>
+      </c>
+      <c r="B1183" s="6" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1183" s="10" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1184" s="2">
+        <v>1183</v>
+      </c>
+      <c r="B1184" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1184" s="10" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1185" s="2">
+        <v>1184</v>
+      </c>
+      <c r="B1185" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1185" s="10" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1186" s="2">
+        <v>1185</v>
+      </c>
+      <c r="B1186" s="6" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C1186" s="10" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1187" s="2">
+        <v>1186</v>
+      </c>
+      <c r="B1187" s="6" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C1187" s="10" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1188" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B1188" s="6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1188" s="10" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1189" s="2">
+        <v>1188</v>
+      </c>
+      <c r="B1189" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1189" s="10" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1190" s="2">
+        <v>1189</v>
+      </c>
+      <c r="B1190" s="6" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1190" s="10" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1191" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B1191" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1191" s="10" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1192" s="2">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="6" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1192" s="10" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1193" s="2">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1193" s="10" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1194" s="2">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="6" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C1194" s="10" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1195" s="2">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="6" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C1195" s="10" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1196" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="6" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1196" s="10" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1197" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="6" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1197" s="10" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1198" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="6" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1198" s="10" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1199" s="2">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="6" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1199" s="10" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1200" s="2">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="6" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1200" s="10" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1201" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="6" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1201" s="10" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1202" s="2">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1203" s="2">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1204" s="2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1205" s="2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1206" s="2">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1207" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1208" s="2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1209" s="2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1210" s="2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1211" s="2">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1212" s="2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1213" s="2">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1214" s="2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1215" s="2">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1216" s="2">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" s="2">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" s="2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" s="2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" s="2">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" s="2">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" s="2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" s="2">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" s="2">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" s="2">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" s="2">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" s="2">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" s="2">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" s="2">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" s="2">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" s="2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" s="2">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" s="2">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" s="2">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" s="2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" s="2">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="2">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="2">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="2">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="2">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="2">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="2">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="2">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="2">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="2">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252" s="2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253" s="2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254" s="2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" s="2">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257" s="2">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258" s="2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" s="2">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" s="2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" s="2">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263" s="2">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="2">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="2">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="2">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="2">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="2">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="2">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="2">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="2">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="2">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="2">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="2">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1285" s="2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="2">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="2">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="2">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="2">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="2">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="2">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1297" s="2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1298" s="2">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="2">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="2">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1305" s="2">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="2">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="2">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1309" s="2">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1310" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="2">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1313" s="2">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="2">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1315" s="2">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="2">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1317" s="2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="2">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1319" s="2">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1320" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1321" s="2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1322" s="2">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1324" s="2">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1325" s="2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1326" s="2">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1327" s="2">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="2">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1329" s="2">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="2">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1331" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1332" s="2">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1333" s="2">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334" s="2">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" s="2">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="2">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="2">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="2">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="2">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="2">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="2">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346" s="2">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1347" s="2">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349" s="2">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="2">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351" s="2">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1352" s="2">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1353" s="2">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1354" s="2">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1355" s="2">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1356" s="2">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1357" s="2">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1358" s="2">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1359" s="2">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1360" s="2">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1361" s="2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1362" s="2">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1363" s="2">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1364" s="2">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1365" s="2">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1366" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1367" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1368" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1369" s="2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1370" s="2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1371" s="2">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1372" s="2">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1373" s="2">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1374" s="2">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1375" s="2">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1376" s="2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1377" s="2">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379" s="2">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380" s="2">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="2">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="2">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1384" s="2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1385" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386" s="2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="2">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389" s="2">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390" s="2">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391" s="2">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1392" s="2">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1393" s="2">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1394" s="2">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1395" s="2">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1396" s="2">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1397" s="2">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1398" s="2">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1399" s="2">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400" s="2">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1402" s="2">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1403" s="2">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1404" s="2">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1405" s="2">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1406" s="2">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1407" s="2">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1408" s="2">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1409" s="2">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1410" s="2">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1411" s="2">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1412" s="2">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1413" s="2">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1414" s="2">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1415" s="2">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1416" s="2">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1417" s="2">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1418" s="2">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1419" s="2">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1420" s="2">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1421" s="2">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1422" s="2">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1423" s="2">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1424" s="2">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1425" s="2">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1426" s="2">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1427" s="2">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1428" s="2">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1429" s="2">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1430" s="2">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1431" s="2">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1432" s="2">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1433" s="2">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1434" s="2">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1435" s="2">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1436" s="2">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1437" s="2">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1438" s="2">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1439" s="2">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1440" s="2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1441" s="2">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1442" s="2">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1443" s="2">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1444" s="2">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1445" s="2">
+        <v>1444</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phrases.xlsx
+++ b/phrases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riyo/src/github.com/riy0/word_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A76DA58-96E1-2142-BACD-F9333D181008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117921B3-F2F7-E940-BA2D-98024BEE0BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{52173239-88F6-B249-895F-CFCBDEC345D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="2707">
   <si>
     <t>No.</t>
   </si>
@@ -7236,6 +7236,924 @@
   </si>
   <si>
     <t>少しで充分./ ちょっとでいい</t>
+  </si>
+  <si>
+    <t>That's my line.</t>
+  </si>
+  <si>
+    <t>それはこっちのセリフだ.</t>
+  </si>
+  <si>
+    <t>Have you been waiting long?</t>
+  </si>
+  <si>
+    <t>結構まった？</t>
+  </si>
+  <si>
+    <t>behind closed doors</t>
+  </si>
+  <si>
+    <t>非公開で / 人の目の届かないところで</t>
+  </si>
+  <si>
+    <t>I hope it'll pan out.</t>
+  </si>
+  <si>
+    <t>上手くいくといいな.</t>
+  </si>
+  <si>
+    <t>leave everything to the last minute</t>
+  </si>
+  <si>
+    <t>なんでもギリギリまでやらないでいる.</t>
+  </si>
+  <si>
+    <t>I'd like that.</t>
+  </si>
+  <si>
+    <t>いいですね. / ぜひ</t>
+  </si>
+  <si>
+    <t>You did nothing wrong.</t>
+  </si>
+  <si>
+    <t>君は何も悪くない. / あなたは何も悪いことはしていない</t>
+  </si>
+  <si>
+    <t>You can pick and choose.</t>
+  </si>
+  <si>
+    <t>好きなもの自由に選んでいいよ.</t>
+  </si>
+  <si>
+    <t>We offer a flat rate of $20.</t>
+  </si>
+  <si>
+    <t>一律で20ドルです.</t>
+  </si>
+  <si>
+    <t>I thought you might be interested.</t>
+  </si>
+  <si>
+    <t>興味あるかと思って.</t>
+  </si>
+  <si>
+    <t>They'll put their pride on the line.</t>
+  </si>
+  <si>
+    <t>彼らはプライドをかけるでしょう.</t>
+  </si>
+  <si>
+    <t>I can't be bothered.</t>
+  </si>
+  <si>
+    <t>面倒くさい. / わざわざ〜したくない.</t>
+  </si>
+  <si>
+    <t>If you play your cards well</t>
+  </si>
+  <si>
+    <t>上手く立ち回れば</t>
+  </si>
+  <si>
+    <t>試しにやってみたら</t>
+  </si>
+  <si>
+    <t>Just give it a go.</t>
+  </si>
+  <si>
+    <t>Is there somobody else?</t>
+  </si>
+  <si>
+    <t>誰か他に好きな人がいるの？</t>
+  </si>
+  <si>
+    <t>Let's compare notes later.</t>
+  </si>
+  <si>
+    <t>後ほど意見交換しましょう. / 情報交換しましょう.</t>
+  </si>
+  <si>
+    <t>I appreciate your honesty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正直に言ってくれて嬉しい. </t>
+  </si>
+  <si>
+    <t>We were out and about all day.</t>
+  </si>
+  <si>
+    <t>私たちは1日中出かけていた.</t>
+  </si>
+  <si>
+    <t>Do you think I was too harsh?</t>
+  </si>
+  <si>
+    <t>きつく言い過ぎたかな？ / 厳しすぎたかな？</t>
+  </si>
+  <si>
+    <t>Let's take a breather.</t>
+  </si>
+  <si>
+    <t>休憩しよう. / 一休みしよう.</t>
+  </si>
+  <si>
+    <t>Who's this boy on the far left?</t>
+  </si>
+  <si>
+    <t>左端の子の男の子は誰ですか？</t>
+  </si>
+  <si>
+    <t>You've made it to the shortlist.</t>
+  </si>
+  <si>
+    <t>最終選考に残ったよ.</t>
+  </si>
+  <si>
+    <t>Please lie on your stomach.</t>
+  </si>
+  <si>
+    <t>うつ伏せになってください.</t>
+  </si>
+  <si>
+    <t>Please lie on your back.</t>
+  </si>
+  <si>
+    <t>仰向けになってください.</t>
+  </si>
+  <si>
+    <t>He worked his way up.</t>
+  </si>
+  <si>
+    <t>彼は独力で少しずつ出世していった.</t>
+  </si>
+  <si>
+    <t>I kinda knew that.</t>
+  </si>
+  <si>
+    <t>なんとなくわかってたよ. / ある意味知ってた.</t>
+  </si>
+  <si>
+    <t>Please come up on stage.</t>
+  </si>
+  <si>
+    <t>舞台にお上がりください.</t>
+  </si>
+  <si>
+    <t>I'll walk through.</t>
+  </si>
+  <si>
+    <t>1つずつ全体を段階的に説明します.</t>
+  </si>
+  <si>
+    <t>It's up for grabs.</t>
+  </si>
+  <si>
+    <t>誰にでもチャンスはある. / 誰でも入手可能.</t>
+  </si>
+  <si>
+    <t>See you in a bit.</t>
+  </si>
+  <si>
+    <t>それじゃあ後ほど. / じゃあ、またあとで</t>
+  </si>
+  <si>
+    <t>I had my eye on that jacket.</t>
+  </si>
+  <si>
+    <t>そのジャケットに目をつけていました.</t>
+  </si>
+  <si>
+    <t>It's got a little kick.</t>
+  </si>
+  <si>
+    <t>ちょっとピリ辛です. / アルコールが効いてる.</t>
+  </si>
+  <si>
+    <t>You're fading in and out.</t>
+  </si>
+  <si>
+    <t>声が途切れる / 画面が見えたり見えなかったりする</t>
+  </si>
+  <si>
+    <t>You cook like a pro.</t>
+  </si>
+  <si>
+    <t>料理の腕前はプロ並みだ.</t>
+  </si>
+  <si>
+    <t>right under my nose.</t>
+  </si>
+  <si>
+    <t>すぐ近くに / 目の前で</t>
+  </si>
+  <si>
+    <t>Let's take a step back.</t>
+  </si>
+  <si>
+    <t>一歩引いて考えてみよう / 客観的に捉えてみよう</t>
+  </si>
+  <si>
+    <t>He no longer lives here.</t>
+  </si>
+  <si>
+    <t>彼はもうここには住んでいない.</t>
+  </si>
+  <si>
+    <t>She has a habit of biting her nails.</t>
+  </si>
+  <si>
+    <t>彼女は爪を噛む癖がある.</t>
+  </si>
+  <si>
+    <t>It fell short of our target.</t>
+  </si>
+  <si>
+    <t>目標額に達しませんでした.</t>
+  </si>
+  <si>
+    <t>It's making my head spin.</t>
+  </si>
+  <si>
+    <t>頭がクラクラする. / めまいがする.</t>
+  </si>
+  <si>
+    <t>It was spot-on.</t>
+  </si>
+  <si>
+    <t>ドンピシャだった. / その通りだった.</t>
+  </si>
+  <si>
+    <t>I'm an open book.</t>
+  </si>
+  <si>
+    <t>隠し事はしない性格なんだ.</t>
+  </si>
+  <si>
+    <t>hair a cab</t>
+  </si>
+  <si>
+    <t>タクシーを拾う / 呼ぶ</t>
+  </si>
+  <si>
+    <t>miracle worker</t>
+  </si>
+  <si>
+    <t>奇跡を起こす人</t>
+  </si>
+  <si>
+    <t>cheer for you</t>
+  </si>
+  <si>
+    <t>応援する</t>
+  </si>
+  <si>
+    <t>tough situation</t>
+  </si>
+  <si>
+    <t>厳しい状況</t>
+  </si>
+  <si>
+    <t>positive attitude</t>
+  </si>
+  <si>
+    <t>前向きな姿勢</t>
+  </si>
+  <si>
+    <t>push harder</t>
+  </si>
+  <si>
+    <t>(もっと)押しを強くする</t>
+  </si>
+  <si>
+    <t>whatever is fine</t>
+  </si>
+  <si>
+    <t>なんでもいいよ.</t>
+  </si>
+  <si>
+    <t>pay you right back</t>
+  </si>
+  <si>
+    <t>お金をすぐ返す.</t>
+  </si>
+  <si>
+    <t>put it on the side</t>
+  </si>
+  <si>
+    <t>横に置く.</t>
+  </si>
+  <si>
+    <t>we have  a full house.</t>
+  </si>
+  <si>
+    <t>予約でいっぱい</t>
+  </si>
+  <si>
+    <t>the price is set</t>
+  </si>
+  <si>
+    <t>値段は決まっている.</t>
+  </si>
+  <si>
+    <t>add some ice</t>
+  </si>
+  <si>
+    <t>氷を加える.</t>
+  </si>
+  <si>
+    <t>warm it up</t>
+  </si>
+  <si>
+    <t>温める.</t>
+  </si>
+  <si>
+    <t>personally</t>
+  </si>
+  <si>
+    <t>個人的には</t>
+  </si>
+  <si>
+    <t>whole bean</t>
+  </si>
+  <si>
+    <t>豆のまま</t>
+  </si>
+  <si>
+    <t>daily horoscope</t>
+  </si>
+  <si>
+    <t>今日の運勢</t>
+  </si>
+  <si>
+    <t>circle it</t>
+  </si>
+  <si>
+    <t>丸をする</t>
+  </si>
+  <si>
+    <t>feeling dizzy</t>
+  </si>
+  <si>
+    <t>(頭が)クラクラしている</t>
+  </si>
+  <si>
+    <t>due date</t>
+  </si>
+  <si>
+    <t>締め切り日</t>
+  </si>
+  <si>
+    <t>go to the washroom</t>
+  </si>
+  <si>
+    <t>お手洗いを使う.</t>
+  </si>
+  <si>
+    <t>find the way</t>
+  </si>
+  <si>
+    <t>道を探す / 方法を見つける</t>
+  </si>
+  <si>
+    <t>double check</t>
+  </si>
+  <si>
+    <t>再確認する</t>
+  </si>
+  <si>
+    <t>get moving</t>
+  </si>
+  <si>
+    <t>やってみる / 動く</t>
+  </si>
+  <si>
+    <t>why don't we try</t>
+  </si>
+  <si>
+    <t>試してみては</t>
+  </si>
+  <si>
+    <t>explore some options</t>
+  </si>
+  <si>
+    <t>他の選択肢を考える.</t>
+  </si>
+  <si>
+    <t>study abroad</t>
+  </si>
+  <si>
+    <t>海外留学する.</t>
+  </si>
+  <si>
+    <t>catch up with you</t>
+  </si>
+  <si>
+    <t>追いかける</t>
+  </si>
+  <si>
+    <t>get away from here</t>
+  </si>
+  <si>
+    <t>逃げ出す</t>
+  </si>
+  <si>
+    <t>add some shine</t>
+  </si>
+  <si>
+    <t>キラキラさせる</t>
+  </si>
+  <si>
+    <t>dress up</t>
+  </si>
+  <si>
+    <t>正装する. / おしゃれする</t>
+  </si>
+  <si>
+    <t>all night long</t>
+  </si>
+  <si>
+    <t>一晩中</t>
+  </si>
+  <si>
+    <t>break a leg</t>
+  </si>
+  <si>
+    <t>頑張って / 応援してる</t>
+  </si>
+  <si>
+    <t>second guessing</t>
+  </si>
+  <si>
+    <t>ああだこうだ考える.</t>
+  </si>
+  <si>
+    <t>stop second guessing.</t>
+  </si>
+  <si>
+    <t>ああだこうだ考えるのはやめな</t>
+  </si>
+  <si>
+    <t>out of order</t>
+  </si>
+  <si>
+    <t>順番が間違っている. / 壊れている</t>
+  </si>
+  <si>
+    <t>air it out</t>
+  </si>
+  <si>
+    <t>風を通す./ 換気する</t>
+  </si>
+  <si>
+    <t>write it in</t>
+  </si>
+  <si>
+    <t>書き込む.</t>
+  </si>
+  <si>
+    <t>clip your nails</t>
+  </si>
+  <si>
+    <t>爪を切る</t>
+  </si>
+  <si>
+    <t>pass the light</t>
+  </si>
+  <si>
+    <t>信号を過ぎる</t>
+  </si>
+  <si>
+    <t>looks good on you</t>
+  </si>
+  <si>
+    <t>似合う / 見た目がいい.</t>
+  </si>
+  <si>
+    <t>packed like sardines</t>
+  </si>
+  <si>
+    <t>狭い場所に詰め込む./ぎゅうぎゅう詰め</t>
+  </si>
+  <si>
+    <t>in the soup</t>
+  </si>
+  <si>
+    <t>悪い状況</t>
+  </si>
+  <si>
+    <t>in a nutshell</t>
+  </si>
+  <si>
+    <t>簡単に言えば</t>
+  </si>
+  <si>
+    <t>for peanuts</t>
+  </si>
+  <si>
+    <t>ただみたいな値段</t>
+  </si>
+  <si>
+    <t>dash of salt</t>
+  </si>
+  <si>
+    <t>ひとつまみの塩</t>
+  </si>
+  <si>
+    <t>just a bite</t>
+  </si>
+  <si>
+    <t>一口だけ</t>
+  </si>
+  <si>
+    <t>welcome back</t>
+  </si>
+  <si>
+    <t>お帰りなさい</t>
+  </si>
+  <si>
+    <t>culinary school</t>
+  </si>
+  <si>
+    <t>料理学校</t>
+  </si>
+  <si>
+    <t>tell me your zodiac sign</t>
+  </si>
+  <si>
+    <t>あなたの星座を教えて</t>
+  </si>
+  <si>
+    <t>heart of gold</t>
+  </si>
+  <si>
+    <t>思いやりのある心</t>
+  </si>
+  <si>
+    <t>with no ice</t>
+  </si>
+  <si>
+    <t>氷はなしで</t>
+  </si>
+  <si>
+    <t>vegetarian option</t>
+  </si>
+  <si>
+    <t>野菜だけのチョイス</t>
+  </si>
+  <si>
+    <t>Eat your veggies.</t>
+  </si>
+  <si>
+    <t>野菜を食べなさい.</t>
+  </si>
+  <si>
+    <t>take it away</t>
+  </si>
+  <si>
+    <t>片付けてもらう./持っていってもらう</t>
+  </si>
+  <si>
+    <t>if you want</t>
+  </si>
+  <si>
+    <t>もし良ければ./そうしたければ</t>
+  </si>
+  <si>
+    <t>time for coffee</t>
+  </si>
+  <si>
+    <t>コーヒーの時間</t>
+  </si>
+  <si>
+    <t>week after week</t>
+  </si>
+  <si>
+    <t>毎週</t>
+  </si>
+  <si>
+    <t>entire life</t>
+  </si>
+  <si>
+    <t>一生/ 一生を通して</t>
+  </si>
+  <si>
+    <t>make a mistake</t>
+  </si>
+  <si>
+    <t>間違える./ 失敗する</t>
+  </si>
+  <si>
+    <t>take a class</t>
+  </si>
+  <si>
+    <t>授業を受ける</t>
+  </si>
+  <si>
+    <t>the week after the next</t>
+  </si>
+  <si>
+    <t>再来週</t>
+  </si>
+  <si>
+    <t>in a minute</t>
+  </si>
+  <si>
+    <t>すぐに</t>
+  </si>
+  <si>
+    <t>by mistake</t>
+  </si>
+  <si>
+    <t>間違えて./ 誤って</t>
+  </si>
+  <si>
+    <t>I will pass</t>
+  </si>
+  <si>
+    <t>遠慮する./ やめておく</t>
+  </si>
+  <si>
+    <t>listen carefully</t>
+  </si>
+  <si>
+    <t>注意深く聞く</t>
+  </si>
+  <si>
+    <t>throw a party</t>
+  </si>
+  <si>
+    <t>パーティーを開く</t>
+  </si>
+  <si>
+    <t>that's tough</t>
+  </si>
+  <si>
+    <t>難しい./大変な</t>
+  </si>
+  <si>
+    <t>before long</t>
+  </si>
+  <si>
+    <t>やがて / まもなく</t>
+  </si>
+  <si>
+    <t>in a rush</t>
+  </si>
+  <si>
+    <t>急いで</t>
+  </si>
+  <si>
+    <t>keep you in the loop</t>
+  </si>
+  <si>
+    <t>共有する/教える</t>
+  </si>
+  <si>
+    <t>day trip</t>
+  </si>
+  <si>
+    <t>日帰り</t>
+  </si>
+  <si>
+    <t>What a small world.</t>
+  </si>
+  <si>
+    <t>世間は狭い.</t>
+  </si>
+  <si>
+    <t>Cut it out.</t>
+  </si>
+  <si>
+    <t>やめてほしい.</t>
+  </si>
+  <si>
+    <t>Don't you worry.</t>
+  </si>
+  <si>
+    <t>あなたは心配しなくていいよ.</t>
+  </si>
+  <si>
+    <t>grab a bite</t>
+  </si>
+  <si>
+    <t>少し食べる</t>
+  </si>
+  <si>
+    <t>shotgun</t>
+  </si>
+  <si>
+    <t>車の助手席</t>
+  </si>
+  <si>
+    <t>Beats me.</t>
+  </si>
+  <si>
+    <t>知らない./わからない</t>
+  </si>
+  <si>
+    <t>pouring</t>
+  </si>
+  <si>
+    <t>ざあざあ雨</t>
+  </si>
+  <si>
+    <t>on the dot</t>
+  </si>
+  <si>
+    <t>時間通りに./きっかりに</t>
+  </si>
+  <si>
+    <t>couch potato</t>
+  </si>
+  <si>
+    <t>怠け者</t>
+  </si>
+  <si>
+    <t>bored to death</t>
+  </si>
+  <si>
+    <t>死ぬほどつまらない</t>
+  </si>
+  <si>
+    <t>I can't believe it</t>
+  </si>
+  <si>
+    <t>信じられない.</t>
+  </si>
+  <si>
+    <t>That's a win.</t>
+  </si>
+  <si>
+    <t>すごい./最高だ.</t>
+  </si>
+  <si>
+    <t>like a clockwork</t>
+  </si>
+  <si>
+    <t>規則正しく/自動的に/正確に</t>
+  </si>
+  <si>
+    <t>hold the line</t>
+  </si>
+  <si>
+    <t>保留にする/待ってもらう</t>
+  </si>
+  <si>
+    <t>I have itchy feet.</t>
+  </si>
+  <si>
+    <t>出かけたくてうずうずしてる</t>
+  </si>
+  <si>
+    <t>go window shopping</t>
+  </si>
+  <si>
+    <t>様子を伺う/ウィンドウショッピングをする</t>
+  </si>
+  <si>
+    <t>How did you spend your holiday?</t>
+  </si>
+  <si>
+    <t>休日はどういう風に過ごした？</t>
+  </si>
+  <si>
+    <t>picky</t>
+  </si>
+  <si>
+    <t>几帳面な/気難しい</t>
+  </si>
+  <si>
+    <t>It shows on your face.</t>
+  </si>
+  <si>
+    <t>顔に書いてある.</t>
+  </si>
+  <si>
+    <t>Thank you for going the extra mile.</t>
+  </si>
+  <si>
+    <t>力を尽くしてくれてありがとう.</t>
+  </si>
+  <si>
+    <t>My dream is on the back burner for now.</t>
+  </si>
+  <si>
+    <t>自分の夢は一旦後回しだ./一旦保留だ.</t>
+  </si>
+  <si>
+    <t>I'd like to say a few words.</t>
+  </si>
+  <si>
+    <t>2、3意見を述べさせていただきます./ 簡単にご挨拶をさせていただきます</t>
+  </si>
+  <si>
+    <t>Look me in the eye.</t>
+  </si>
+  <si>
+    <t>ちゃんと目を見て</t>
+  </si>
+  <si>
+    <t>Let's stay together.</t>
+  </si>
+  <si>
+    <t>一緒に行動しよう. / バラバラにならないで</t>
+  </si>
+  <si>
+    <t>It takes my mind off work.</t>
+  </si>
+  <si>
+    <t>仕事のことを考えないで済むんだ.</t>
+  </si>
+  <si>
+    <t>Let's hit the road.</t>
+  </si>
+  <si>
+    <t>出発しよう./帰りましょう./出かけよう.</t>
+  </si>
+  <si>
+    <t>It was very intense.</t>
+  </si>
+  <si>
+    <t>かなりハードだった.</t>
+  </si>
+  <si>
+    <t>Would you excuse us?</t>
+  </si>
+  <si>
+    <t>ちょっと失礼していいですか？</t>
+  </si>
+  <si>
+    <t>Who's coming on her behalf?</t>
+  </si>
+  <si>
+    <t>彼女の代わりに誰が来るの？</t>
+  </si>
+  <si>
+    <t>I have the whole house to myself.</t>
+  </si>
+  <si>
+    <t>家で一人のんびりしてる./家には私一人です.</t>
+  </si>
+  <si>
+    <t>I need some me-time.</t>
+  </si>
+  <si>
+    <t>自分の時間が欲しい.</t>
+  </si>
+  <si>
+    <t>from the ground up</t>
+  </si>
+  <si>
+    <t>一から/ 初めから</t>
+  </si>
+  <si>
+    <t>Let's stick to the schedule.</t>
+  </si>
+  <si>
+    <t>スケジュール通りで行こう.</t>
+  </si>
+  <si>
+    <t>I'll set up a meeting next week.</t>
+  </si>
+  <si>
+    <t>来週ミーティングをセッティングします.</t>
+  </si>
+  <si>
+    <t>We made good time.</t>
+  </si>
+  <si>
+    <t>意外と早くついた. / 思ったよりも順調だった.</t>
+  </si>
+  <si>
+    <t>Athens is know for its beautiful beacheds.</t>
+  </si>
+  <si>
+    <t>アテネは美しいビーチで知られている.</t>
+  </si>
+  <si>
+    <t>I haven't seen much of him lately.</t>
+  </si>
+  <si>
+    <t>最近彼とはあまり会っていない.</t>
+  </si>
+  <si>
+    <t>Third time's the charm.</t>
+  </si>
+  <si>
+    <t>3度目の正直. / 3度目は上手くいく.</t>
+  </si>
+  <si>
+    <t>from time to time</t>
+  </si>
+  <si>
+    <t>時々/たまに</t>
+  </si>
+  <si>
+    <t>They turned things around.</t>
+  </si>
+  <si>
+    <t>彼らが状況を好転させた.</t>
   </si>
 </sst>
 </file>
@@ -7657,8 +8575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001AC-FC4C-BE44-87ED-B087E9FC67BD}">
   <dimension ref="A1:D1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1175" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C1201" sqref="C1201"/>
+    <sheetView tabSelected="1" topLeftCell="A1342" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C1355" sqref="C1355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20947,793 +21865,1711 @@
       <c r="A1202" s="2">
         <v>1201</v>
       </c>
+      <c r="B1202" s="6" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1202" s="10" t="s">
+        <v>2402</v>
+      </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" s="2">
         <v>1202</v>
       </c>
+      <c r="B1203" s="6" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1203" s="10" t="s">
+        <v>2404</v>
+      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" s="2">
         <v>1203</v>
       </c>
+      <c r="B1204" s="6" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C1204" s="10" t="s">
+        <v>2406</v>
+      </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" s="2">
         <v>1204</v>
       </c>
+      <c r="B1205" s="6" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C1205" s="10" t="s">
+        <v>2408</v>
+      </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" s="2">
         <v>1205</v>
       </c>
+      <c r="B1206" s="6" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1206" s="10" t="s">
+        <v>2410</v>
+      </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" s="2">
         <v>1206</v>
       </c>
+      <c r="B1207" s="6" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1207" s="10" t="s">
+        <v>2412</v>
+      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" s="2">
         <v>1207</v>
       </c>
+      <c r="B1208" s="6" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1208" s="10" t="s">
+        <v>2414</v>
+      </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" s="2">
         <v>1208</v>
       </c>
+      <c r="B1209" s="6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1209" s="10" t="s">
+        <v>2416</v>
+      </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" s="2">
         <v>1209</v>
       </c>
+      <c r="B1210" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1210" s="10" t="s">
+        <v>2418</v>
+      </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" s="2">
         <v>1210</v>
       </c>
+      <c r="B1211" s="6" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1211" s="10" t="s">
+        <v>2420</v>
+      </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" s="2">
         <v>1211</v>
       </c>
+      <c r="B1212" s="6" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1212" s="10" t="s">
+        <v>2422</v>
+      </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" s="2">
         <v>1212</v>
       </c>
+      <c r="B1213" s="6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C1213" s="10" t="s">
+        <v>2424</v>
+      </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" s="2">
         <v>1213</v>
       </c>
+      <c r="B1214" s="6" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1214" s="10" t="s">
+        <v>2426</v>
+      </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" s="2">
         <v>1214</v>
       </c>
+      <c r="B1215" s="6" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C1215" s="10" t="s">
+        <v>2427</v>
+      </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" s="2">
         <v>1215</v>
       </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1216" s="6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1216" s="10" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" s="2">
         <v>1216</v>
       </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1217" s="6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1217" s="10" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" s="2">
         <v>1217</v>
       </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1218" s="6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C1218" s="10" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" s="2">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1219" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C1219" s="10" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" s="2">
         <v>1219</v>
       </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1220" s="6" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C1220" s="10" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1221" s="6" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C1221" s="10" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" s="2">
         <v>1221</v>
       </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1222" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C1222" s="10" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" s="2">
         <v>1222</v>
       </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1223" s="6" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1223" s="10" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" s="2">
         <v>1223</v>
       </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1224" s="6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C1224" s="10" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" s="2">
         <v>1224</v>
       </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1225" s="6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C1225" s="10" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" s="2">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1226" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C1226" s="10" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" s="2">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1227" s="6" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C1227" s="10" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" s="2">
         <v>1227</v>
       </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1228" s="6" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1228" s="10" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" s="2">
         <v>1228</v>
       </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1229" s="6" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C1229" s="10" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" s="2">
         <v>1229</v>
       </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1230" s="6" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C1230" s="10" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" s="2">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1231" s="6" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C1231" s="10" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" s="2">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1232" s="6" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C1232" s="10" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" s="2">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1233" s="6" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C1233" s="10" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" s="2">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1234" s="6" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C1234" s="10" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" s="2">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1235" s="6" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C1235" s="10" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" s="2">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1236" s="6" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1236" s="10" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" s="2">
         <v>1236</v>
       </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1237" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1237" s="10" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" s="2">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1238" s="6" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1238" s="10" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" s="2">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1239" s="6" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1239" s="10" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" s="2">
         <v>1239</v>
       </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1240" s="6" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1240" s="10" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" s="2">
         <v>1240</v>
       </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1241" s="6" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1241" s="10" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" s="2">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1242" s="6" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1242" s="10" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" s="2">
         <v>1242</v>
       </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1243" s="6" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C1243" s="10" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" s="2">
         <v>1243</v>
       </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1244" s="6" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1244" s="10" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" s="2">
         <v>1244</v>
       </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1245" s="6" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1245" s="10" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" s="2">
         <v>1245</v>
       </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1246" s="6" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1246" s="10" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" s="2">
         <v>1246</v>
       </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1247" s="6" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1247" s="10" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" s="2">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1248" s="6" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1248" s="10" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" s="2">
         <v>1248</v>
       </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1249" s="6" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1249" s="10" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" s="2">
         <v>1249</v>
       </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1250" s="6" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1250" s="10" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" s="2">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1251" s="6" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1251" s="10" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" s="2">
         <v>1251</v>
       </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1252" s="6" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C1252" s="10" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" s="2">
         <v>1252</v>
       </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1253" s="6" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1253" s="10" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" s="2">
         <v>1253</v>
       </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1254" s="6" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1254" s="10" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" s="2">
         <v>1254</v>
       </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1255" s="6" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1255" s="10" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" s="2">
         <v>1255</v>
       </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1256" s="6" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1256" s="10" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" s="2">
         <v>1256</v>
       </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1257" s="6" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1257" s="10" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" s="2">
         <v>1257</v>
       </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1258" s="6" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C1258" s="10" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" s="2">
         <v>1258</v>
       </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1259" s="6" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C1259" s="10" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" s="2">
         <v>1259</v>
       </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1260" s="6" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C1260" s="10" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" s="2">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1261" s="6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1261" s="10" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" s="2">
         <v>1261</v>
       </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1262" s="6" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1262" s="10" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" s="2">
         <v>1262</v>
       </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1263" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C1263" s="10" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" s="2">
         <v>1263</v>
       </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1264" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1264" s="10" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" s="2">
         <v>1264</v>
       </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1265" s="6" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1265" s="10" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" s="2">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1266" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1266" s="10" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" s="2">
         <v>1266</v>
       </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1267" s="6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1267" s="10" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" s="2">
         <v>1267</v>
       </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1268" s="6" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1268" s="10" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" s="2">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1269" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1269" s="10" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" s="2">
         <v>1269</v>
       </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1270" s="6" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1270" s="10" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" s="2">
         <v>1270</v>
       </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1271" s="6" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1271" s="10" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" s="2">
         <v>1271</v>
       </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1272" s="6" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1272" s="10" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" s="2">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1273" s="6" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1273" s="10" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" s="2">
         <v>1273</v>
       </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1274" s="6" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1274" s="10" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" s="2">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1275" s="6" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1275" s="10" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" s="2">
         <v>1275</v>
       </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1276" s="6" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1276" s="10" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" s="2">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1277" s="6" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C1277" s="10" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" s="2">
         <v>1277</v>
       </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1278" s="6" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1278" s="10" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" s="2">
         <v>1278</v>
       </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1279" s="6" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1279" s="10" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" s="2">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1280" s="6" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1280" s="10" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" s="2">
         <v>1280</v>
       </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1281" s="6" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1281" s="10" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" s="2">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1282" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1282" s="10" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" s="2">
         <v>1282</v>
       </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1283" s="6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C1283" s="10" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" s="2">
         <v>1283</v>
       </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1284" s="6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C1284" s="10" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" s="2">
         <v>1284</v>
       </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1285" s="6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C1285" s="10" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" s="2">
         <v>1285</v>
       </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1286" s="6" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C1286" s="10" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" s="2">
         <v>1286</v>
       </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1287" s="6" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C1287" s="10" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" s="2">
         <v>1287</v>
       </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1288" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1288" s="10" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" s="2">
         <v>1288</v>
       </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1289" s="6" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C1289" s="10" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" s="2">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1290" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C1290" s="10" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" s="2">
         <v>1290</v>
       </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1291" s="6" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C1291" s="10" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" s="2">
         <v>1291</v>
       </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1292" s="6" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1292" s="10" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" s="2">
         <v>1292</v>
       </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1293" s="6" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C1293" s="10" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" s="2">
         <v>1293</v>
       </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1294" s="6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1294" s="10" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" s="2">
         <v>1294</v>
       </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1295" s="6" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C1295" s="10" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" s="2">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1296" s="6" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1296" s="10" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" s="2">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1297" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1297" s="10" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" s="2">
         <v>1297</v>
       </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1298" s="6" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1298" s="10" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" s="2">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1299" s="6" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1299" s="10" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" s="2">
         <v>1299</v>
       </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1300" s="6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1300" s="10" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" s="2">
         <v>1300</v>
       </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1301" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C1301" s="10" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" s="2">
         <v>1301</v>
       </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1302" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1302" s="10" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" s="2">
         <v>1302</v>
       </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1303" s="6" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1303" s="10" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" s="2">
         <v>1303</v>
       </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1304" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1304" s="10" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" s="2">
         <v>1304</v>
       </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1305" s="6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1305" s="10" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" s="2">
         <v>1305</v>
       </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1306" s="6" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1306" s="10" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" s="2">
         <v>1306</v>
       </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1307" s="6" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1307" s="10" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" s="2">
         <v>1307</v>
       </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1308" s="6" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1308" s="10" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" s="2">
         <v>1308</v>
       </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1309" s="6" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1309" s="10" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" s="2">
         <v>1309</v>
       </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1310" s="6" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1310" s="10" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" s="2">
         <v>1310</v>
       </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1311" s="6" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1311" s="10" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" s="2">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1312" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1312" s="10" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" s="2">
         <v>1312</v>
       </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1313" s="6" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1313" s="10" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" s="2">
         <v>1313</v>
       </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1314" s="6" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1314" s="10" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" s="2">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1315" s="6" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1315" s="10" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" s="2">
         <v>1315</v>
       </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1316" s="6" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1316" s="10" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" s="2">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1317" s="6" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1317" s="10" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" s="2">
         <v>1317</v>
       </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1318" s="6" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1318" s="10" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" s="2">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1319" s="6" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1319" s="10" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" s="2">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1320" s="6" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1320" s="10" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" s="2">
         <v>1320</v>
       </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1321" s="6" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1321" s="10" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" s="2">
         <v>1321</v>
       </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1322" s="6" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1322" s="10" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" s="2">
         <v>1322</v>
       </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1323" s="6" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1323" s="10" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324" s="2">
         <v>1323</v>
       </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1324" s="6" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1324" s="10" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" s="2">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1325" s="6" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1325" s="10" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" s="2">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1326" s="6" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C1326" s="10" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327" s="2">
         <v>1326</v>
       </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1327" s="6" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1327" s="10" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" s="2">
         <v>1327</v>
       </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1328" s="6" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1328" s="10" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" s="2">
         <v>1328</v>
       </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1329" s="6" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C1329" s="10" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" s="2">
         <v>1329</v>
       </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1330" s="6" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1330" s="10" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" s="2">
         <v>1330</v>
       </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1331" s="6" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1331" s="10" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" s="2">
         <v>1331</v>
       </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1332" s="6" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1332" s="10" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" s="2">
         <v>1332</v>
       </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1333" s="6" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C1333" s="10" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" s="2">
         <v>1333</v>
       </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1334" s="6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1334" s="10" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" s="2">
         <v>1334</v>
       </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1335" s="6" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1335" s="10" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" s="2">
         <v>1335</v>
       </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1336" s="6" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C1336" s="10" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" s="2">
         <v>1336</v>
       </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1337" s="6" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1337" s="10" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" s="2">
         <v>1337</v>
       </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1338" s="6" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1338" s="10" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1339" s="6" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C1339" s="10" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" s="2">
         <v>1339</v>
       </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1340" s="6" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C1340" s="10" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" s="2">
         <v>1340</v>
       </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1341" s="6" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1341" s="10" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" s="2">
         <v>1341</v>
       </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1342" s="6" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C1342" s="10" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" s="2">
         <v>1342</v>
       </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1343" s="6" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1343" s="10" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" s="2">
         <v>1343</v>
       </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1344" s="6" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C1344" s="10" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" s="2">
         <v>1344</v>
       </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1345" s="6" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1345" s="10" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346" s="2">
         <v>1345</v>
       </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1346" s="6" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C1346" s="10" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" s="2">
         <v>1346</v>
       </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1347" s="6" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C1347" s="10" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1348" s="6" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1348" s="10" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" s="2">
         <v>1348</v>
       </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1349" s="6" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C1349" s="10" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" s="2">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1350" s="6" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C1350" s="10" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" s="2">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1351" s="6" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C1351" s="10" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" s="2">
         <v>1351</v>
       </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1352" s="6" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1352" s="10" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353" s="2">
         <v>1352</v>
       </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1353" s="6" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1353" s="10" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354" s="2">
         <v>1353</v>
       </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1354" s="6" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C1354" s="10" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355" s="2">
         <v>1354</v>
       </c>
     </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356" s="2">
         <v>1355</v>
       </c>
     </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357" s="2">
         <v>1356</v>
       </c>
     </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358" s="2">
         <v>1357</v>
       </c>
     </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359" s="2">
         <v>1358</v>
       </c>
     </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" s="2">
         <v>1359</v>
       </c>
